--- a/tests/regression_data_linux/performance_analysis_critical_isentropic_throat_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_critical_isentropic_throat_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.014607956760946</v>
+        <v>2.014607957038582</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999889422</v>
+        <v>2.300000000042906</v>
       </c>
       <c r="D2" t="n">
-        <v>2.790805431959769</v>
+        <v>2.790805430648497</v>
       </c>
       <c r="E2" t="n">
-        <v>92.46445086264224</v>
+        <v>92.46445085227499</v>
       </c>
       <c r="F2" t="n">
-        <v>78.96241543441478</v>
+        <v>78.96241543584944</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1460240698155987</v>
+        <v>0.146024069704334</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.10843950423038</v>
+        <v>-78.10843950555378</v>
       </c>
       <c r="I2" t="n">
-        <v>138477.4854382323</v>
+        <v>138477.485375684</v>
       </c>
       <c r="J2" t="n">
-        <v>85.11216068729703</v>
+        <v>85.11216064885312</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-22.10880530424227</v>
+        <v>-22.10880530368194</v>
       </c>
       <c r="M2" t="n">
-        <v>135.4695893169848</v>
+        <v>135.4695892653735</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372165.2480913033</v>
+        <v>372165.2480904018</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7225683790902554</v>
+        <v>0.7225683789205045</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.071046019572117</v>
+        <v>2.0710460196244</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999796908</v>
+        <v>2.399999999867413</v>
       </c>
       <c r="D3" t="n">
-        <v>2.801075364192245</v>
+        <v>2.801075364147539</v>
       </c>
       <c r="E3" t="n">
-        <v>92.38751733816825</v>
+        <v>92.38751733754972</v>
       </c>
       <c r="F3" t="n">
-        <v>78.15169257761603</v>
+        <v>78.15169257666648</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1540881838879217</v>
+        <v>0.1540881838925363</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.30578076150395</v>
+        <v>-77.30578076055902</v>
       </c>
       <c r="I3" t="n">
-        <v>143745.3889431933</v>
+        <v>143745.3889391526</v>
       </c>
       <c r="J3" t="n">
-        <v>88.34996247276787</v>
+        <v>88.34996247028432</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-23.9728260575515</v>
+        <v>-23.97282605757689</v>
       </c>
       <c r="M3" t="n">
-        <v>142.2541798765498</v>
+        <v>142.2541798786798</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370466.5012746427</v>
+        <v>370466.5012752662</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7111199635403662</v>
+        <v>0.7111199635346914</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -837,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RI3"/>
+  <dimension ref="A1:RL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,1777 +1458,1792 @@
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
+          <t>h_is_1</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
           <t>blade_speed_2</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>v_2</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>v_m_2</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>v_t_2</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>alpha_2</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>w_2</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>w_m_2</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>w_t_2</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>beta_2</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>T_2</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>p_2</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>rhomass_2</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>umass_2</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>hmass_2</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>smass_2</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass_2</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>cvmass_2</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>cpmass_2</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>gamma_2</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor_2</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>speed_sound_2</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus_2</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility_2</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus_2</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility_2</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient_2</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>viscosity_2</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>conductivity_2</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>P_2</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>rho_2</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>d_2</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>u_2</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>h_2</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>s_2</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>cv_2</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>cp_2</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>a_2</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>Z_2</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>mu_2</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>k_2</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>fluid_name_2</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>converged_2</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>T0_2</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>p0_2</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_2</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>umass0_2</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>hmass0_2</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>smass0_2</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_2</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_2</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_2</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>gamma0_2</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_2</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_2</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_2</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_2</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_2</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_2</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_2</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_2</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_2</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>P0_2</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>rho0_2</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>d0_2</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>u0_2</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>h0_2</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>s0_2</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>cv0_2</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>cp0_2</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>a0_2</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>Z0_2</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>mu0_2</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>k0_2</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_2</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>converged0_2</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>T0_rel_2</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>p0_rel_2</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_rel_2</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>umass0_rel_2</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>hmass0_rel_2</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>smass0_rel_2</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_rel_2</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_rel_2</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_rel_2</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>gamma0_rel_2</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_rel_2</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_rel_2</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_rel_2</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_rel_2</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_rel_2</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_rel_2</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_rel_2</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_rel_2</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_rel_2</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>P0_rel_2</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>rho0_rel_2</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>d0_rel_2</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>u0_rel_2</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>h0_rel_2</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>s0_rel_2</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>cv0_rel_2</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>cp0_rel_2</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>a0_rel_2</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>Z0_rel_2</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>mu0_rel_2</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>k0_rel_2</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_rel_2</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>converged0_rel_2</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>Ma_2</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>Ma_rel_2</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>Re_2</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>mass_flow_2</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>rothalpy_2</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>loss_profile_2</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>loss_incidence_2</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>loss_trailing_2</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>loss_secondary_2</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>loss_clearance_2</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>loss_total_2</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>loss_error_2</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>blockage_2</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>h_is_2</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>blade_speed_3</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>v_3</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>v_m_3</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>v_t_3</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>alpha_3</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>w_3</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>w_m_3</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>w_t_3</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>beta_3</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>T_3</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>p_3</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>rhomass_3</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>umass_3</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>hmass_3</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>smass_3</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass_3</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>cvmass_3</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>cpmass_3</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>gamma_3</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor_3</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>speed_sound_3</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus_3</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility_3</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus_3</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility_3</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient_3</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>viscosity_3</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>conductivity_3</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>P_3</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>rho_3</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>d_3</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>u_3</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>h_3</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>s_3</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>cv_3</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>cp_3</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>a_3</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>Z_3</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>mu_3</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>k_3</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>fluid_name_3</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>converged_3</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>T0_3</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>p0_3</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_3</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>umass0_3</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>hmass0_3</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>smass0_3</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_3</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_3</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_3</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>gamma0_3</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_3</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_3</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_3</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_3</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_3</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_3</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_3</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_3</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_3</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>P0_3</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>rho0_3</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>d0_3</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>u0_3</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>h0_3</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>s0_3</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>cv0_3</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>cp0_3</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>a0_3</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>Z0_3</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>mu0_3</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>k0_3</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_3</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>converged0_3</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>T0_rel_3</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>p0_rel_3</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_rel_3</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>umass0_rel_3</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>hmass0_rel_3</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>smass0_rel_3</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_rel_3</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_rel_3</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_rel_3</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>gamma0_rel_3</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_rel_3</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_rel_3</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_rel_3</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_rel_3</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_rel_3</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_rel_3</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_rel_3</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_rel_3</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_rel_3</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>P0_rel_3</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>rho0_rel_3</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>d0_rel_3</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>u0_rel_3</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>h0_rel_3</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>s0_rel_3</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>cv0_rel_3</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>cp0_rel_3</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>a0_rel_3</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>Z0_rel_3</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>mu0_rel_3</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>k0_rel_3</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_rel_3</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>converged0_rel_3</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>Ma_3</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>Ma_rel_3</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>Re_3</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>mass_flow_3</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>rothalpy_3</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>blade_speed_4</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>v_4</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>v_m_4</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>v_t_4</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>alpha_4</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>w_4</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>w_m_4</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>w_t_4</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>beta_4</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>T_4</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>p_4</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>rhomass_4</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>umass_4</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>hmass_4</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>smass_4</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass_4</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>cvmass_4</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>cpmass_4</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>gamma_4</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor_4</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>speed_sound_4</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus_4</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility_4</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus_4</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility_4</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient_4</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>viscosity_4</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>conductivity_4</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>P_4</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>rho_4</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>d_4</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>u_4</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>h_4</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>s_4</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>cv_4</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OD1" s="1" t="inlineStr">
         <is>
           <t>cp_4</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>a_4</t>
         </is>
       </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
         <is>
           <t>Z_4</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>mu_4</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
         <is>
           <t>k_4</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>fluid_name_4</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>converged_4</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
         <is>
           <t>T0_4</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>p0_4</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_4</t>
         </is>
       </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
         <is>
           <t>umass0_4</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
+      <c r="OO1" s="1" t="inlineStr">
         <is>
           <t>hmass0_4</t>
         </is>
       </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>smass0_4</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
+      <c r="OQ1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_4</t>
         </is>
       </c>
-      <c r="OP1" s="1" t="inlineStr">
+      <c r="OR1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_4</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_4</t>
         </is>
       </c>
-      <c r="OR1" s="1" t="inlineStr">
+      <c r="OT1" s="1" t="inlineStr">
         <is>
           <t>gamma0_4</t>
         </is>
       </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="OU1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_4</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
+      <c r="OV1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_4</t>
         </is>
       </c>
-      <c r="OU1" s="1" t="inlineStr">
+      <c r="OW1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_4</t>
         </is>
       </c>
-      <c r="OV1" s="1" t="inlineStr">
+      <c r="OX1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_4</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_4</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
+      <c r="OZ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_4</t>
         </is>
       </c>
-      <c r="OY1" s="1" t="inlineStr">
+      <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_4</t>
         </is>
       </c>
-      <c r="OZ1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_4</t>
         </is>
       </c>
-      <c r="PA1" s="1" t="inlineStr">
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_4</t>
         </is>
       </c>
-      <c r="PB1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>P0_4</t>
         </is>
       </c>
-      <c r="PC1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>rho0_4</t>
         </is>
       </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>d0_4</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
+      <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>u0_4</t>
         </is>
       </c>
-      <c r="PF1" s="1" t="inlineStr">
+      <c r="PH1" s="1" t="inlineStr">
         <is>
           <t>h0_4</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="PI1" s="1" t="inlineStr">
         <is>
           <t>s0_4</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
+      <c r="PJ1" s="1" t="inlineStr">
         <is>
           <t>cv0_4</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
+      <c r="PK1" s="1" t="inlineStr">
         <is>
           <t>cp0_4</t>
         </is>
       </c>
-      <c r="PJ1" s="1" t="inlineStr">
+      <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>a0_4</t>
         </is>
       </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>Z0_4</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
         <is>
           <t>mu0_4</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="PO1" s="1" t="inlineStr">
         <is>
           <t>k0_4</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
+      <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_4</t>
         </is>
       </c>
-      <c r="PO1" s="1" t="inlineStr">
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>converged0_4</t>
         </is>
       </c>
-      <c r="PP1" s="1" t="inlineStr">
+      <c r="PR1" s="1" t="inlineStr">
         <is>
           <t>T0_rel_4</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
+      <c r="PS1" s="1" t="inlineStr">
         <is>
           <t>p0_rel_4</t>
         </is>
       </c>
-      <c r="PR1" s="1" t="inlineStr">
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_rel_4</t>
         </is>
       </c>
-      <c r="PS1" s="1" t="inlineStr">
+      <c r="PU1" s="1" t="inlineStr">
         <is>
           <t>umass0_rel_4</t>
         </is>
       </c>
-      <c r="PT1" s="1" t="inlineStr">
+      <c r="PV1" s="1" t="inlineStr">
         <is>
           <t>hmass0_rel_4</t>
         </is>
       </c>
-      <c r="PU1" s="1" t="inlineStr">
+      <c r="PW1" s="1" t="inlineStr">
         <is>
           <t>smass0_rel_4</t>
         </is>
       </c>
-      <c r="PV1" s="1" t="inlineStr">
+      <c r="PX1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_rel_4</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
+      <c r="PY1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_rel_4</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
+      <c r="PZ1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_rel_4</t>
         </is>
       </c>
-      <c r="PY1" s="1" t="inlineStr">
+      <c r="QA1" s="1" t="inlineStr">
         <is>
           <t>gamma0_rel_4</t>
         </is>
       </c>
-      <c r="PZ1" s="1" t="inlineStr">
+      <c r="QB1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_rel_4</t>
         </is>
       </c>
-      <c r="QA1" s="1" t="inlineStr">
+      <c r="QC1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_rel_4</t>
         </is>
       </c>
-      <c r="QB1" s="1" t="inlineStr">
+      <c r="QD1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_rel_4</t>
         </is>
       </c>
-      <c r="QC1" s="1" t="inlineStr">
+      <c r="QE1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_rel_4</t>
         </is>
       </c>
-      <c r="QD1" s="1" t="inlineStr">
+      <c r="QF1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_rel_4</t>
         </is>
       </c>
-      <c r="QE1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_rel_4</t>
         </is>
       </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QH1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_rel_4</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
+      <c r="QI1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_rel_4</t>
         </is>
       </c>
-      <c r="QH1" s="1" t="inlineStr">
+      <c r="QJ1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_rel_4</t>
         </is>
       </c>
-      <c r="QI1" s="1" t="inlineStr">
+      <c r="QK1" s="1" t="inlineStr">
         <is>
           <t>P0_rel_4</t>
         </is>
       </c>
-      <c r="QJ1" s="1" t="inlineStr">
+      <c r="QL1" s="1" t="inlineStr">
         <is>
           <t>rho0_rel_4</t>
         </is>
       </c>
-      <c r="QK1" s="1" t="inlineStr">
+      <c r="QM1" s="1" t="inlineStr">
         <is>
           <t>d0_rel_4</t>
         </is>
       </c>
-      <c r="QL1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
         <is>
           <t>u0_rel_4</t>
         </is>
       </c>
-      <c r="QM1" s="1" t="inlineStr">
+      <c r="QO1" s="1" t="inlineStr">
         <is>
           <t>h0_rel_4</t>
         </is>
       </c>
-      <c r="QN1" s="1" t="inlineStr">
+      <c r="QP1" s="1" t="inlineStr">
         <is>
           <t>s0_rel_4</t>
         </is>
       </c>
-      <c r="QO1" s="1" t="inlineStr">
+      <c r="QQ1" s="1" t="inlineStr">
         <is>
           <t>cv0_rel_4</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
+      <c r="QR1" s="1" t="inlineStr">
         <is>
           <t>cp0_rel_4</t>
         </is>
       </c>
-      <c r="QQ1" s="1" t="inlineStr">
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>a0_rel_4</t>
         </is>
       </c>
-      <c r="QR1" s="1" t="inlineStr">
+      <c r="QT1" s="1" t="inlineStr">
         <is>
           <t>Z0_rel_4</t>
         </is>
       </c>
-      <c r="QS1" s="1" t="inlineStr">
+      <c r="QU1" s="1" t="inlineStr">
         <is>
           <t>mu0_rel_4</t>
         </is>
       </c>
-      <c r="QT1" s="1" t="inlineStr">
+      <c r="QV1" s="1" t="inlineStr">
         <is>
           <t>k0_rel_4</t>
         </is>
       </c>
-      <c r="QU1" s="1" t="inlineStr">
+      <c r="QW1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_rel_4</t>
         </is>
       </c>
-      <c r="QV1" s="1" t="inlineStr">
+      <c r="QX1" s="1" t="inlineStr">
         <is>
           <t>converged0_rel_4</t>
         </is>
       </c>
-      <c r="QW1" s="1" t="inlineStr">
+      <c r="QY1" s="1" t="inlineStr">
         <is>
           <t>Ma_4</t>
         </is>
       </c>
-      <c r="QX1" s="1" t="inlineStr">
+      <c r="QZ1" s="1" t="inlineStr">
         <is>
           <t>Ma_rel_4</t>
         </is>
       </c>
-      <c r="QY1" s="1" t="inlineStr">
+      <c r="RA1" s="1" t="inlineStr">
         <is>
           <t>Re_4</t>
         </is>
       </c>
-      <c r="QZ1" s="1" t="inlineStr">
+      <c r="RB1" s="1" t="inlineStr">
         <is>
           <t>mass_flow_4</t>
         </is>
       </c>
-      <c r="RA1" s="1" t="inlineStr">
+      <c r="RC1" s="1" t="inlineStr">
         <is>
           <t>rothalpy_4</t>
         </is>
       </c>
-      <c r="RB1" s="1" t="inlineStr">
+      <c r="RD1" s="1" t="inlineStr">
         <is>
           <t>loss_profile_4</t>
         </is>
       </c>
-      <c r="RC1" s="1" t="inlineStr">
+      <c r="RE1" s="1" t="inlineStr">
         <is>
           <t>loss_incidence_4</t>
         </is>
       </c>
-      <c r="RD1" s="1" t="inlineStr">
+      <c r="RF1" s="1" t="inlineStr">
         <is>
           <t>loss_trailing_4</t>
         </is>
       </c>
-      <c r="RE1" s="1" t="inlineStr">
+      <c r="RG1" s="1" t="inlineStr">
         <is>
           <t>loss_secondary_4</t>
         </is>
       </c>
-      <c r="RF1" s="1" t="inlineStr">
+      <c r="RH1" s="1" t="inlineStr">
         <is>
           <t>loss_clearance_4</t>
         </is>
       </c>
-      <c r="RG1" s="1" t="inlineStr">
+      <c r="RI1" s="1" t="inlineStr">
         <is>
           <t>loss_total_4</t>
         </is>
       </c>
-      <c r="RH1" s="1" t="inlineStr">
+      <c r="RJ1" s="1" t="inlineStr">
         <is>
           <t>loss_error_4</t>
         </is>
       </c>
-      <c r="RI1" s="1" t="inlineStr">
+      <c r="RK1" s="1" t="inlineStr">
         <is>
           <t>blockage_4</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>h_is_4</t>
         </is>
       </c>
     </row>
@@ -3240,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>82.20852515470537</v>
+        <v>82.20852511678258</v>
       </c>
       <c r="D2" t="n">
-        <v>82.20852515470537</v>
+        <v>82.20852511678258</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>82.20852515470537</v>
+        <v>82.20852511678258</v>
       </c>
       <c r="H2" t="n">
-        <v>82.20852515470537</v>
+        <v>82.20852511678258</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.2307534752819</v>
+        <v>292.2307534782905</v>
       </c>
       <c r="L2" t="n">
-        <v>132579.3702991412</v>
+        <v>132579.3703039122</v>
       </c>
       <c r="M2" t="n">
-        <v>1.581292674680881</v>
+        <v>1.581292674721473</v>
       </c>
       <c r="N2" t="n">
-        <v>334562.9119594441</v>
+        <v>334562.9119615962</v>
       </c>
       <c r="O2" t="n">
-        <v>418405.3102845338</v>
+        <v>418405.310287551</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718243</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687079.4765738829</v>
+        <v>-687079.4765822472</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7074052423656</v>
+        <v>717.7074052425014</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.641275457164</v>
+        <v>1006.641275457321</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402578917403293</v>
+        <v>1.402578917403247</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994971152129479</v>
+        <v>0.9994971152129689</v>
       </c>
       <c r="V2" t="n">
-        <v>342.836768440939</v>
+        <v>342.8367684427055</v>
       </c>
       <c r="W2" t="n">
-        <v>185860.4758444766</v>
+        <v>185860.4758511629</v>
       </c>
       <c r="X2" t="n">
-        <v>5.380380069815248e-06</v>
+        <v>5.380380069621687e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132513.381983935</v>
+        <v>132513.3819887065</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.546407653539723e-06</v>
+        <v>7.546407653267994e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003434887590781821</v>
+        <v>0.003434887590746514</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.816545453091892e-05</v>
+        <v>1.816545453106616e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02581513322774153</v>
+        <v>0.02581513322796832</v>
       </c>
       <c r="AD2" t="n">
-        <v>132579.3702991412</v>
+        <v>132579.3703039122</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.581292674680881</v>
+        <v>1.581292674721473</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581292674680881</v>
+        <v>1.581292674721473</v>
       </c>
       <c r="AG2" t="n">
-        <v>334562.9119594441</v>
+        <v>334562.9119615962</v>
       </c>
       <c r="AH2" t="n">
-        <v>418405.3102845338</v>
+        <v>418405.310287551</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718243</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7074052423656</v>
+        <v>717.7074052425014</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.641275457164</v>
+        <v>1006.641275457321</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.836768440939</v>
+        <v>342.8367684427055</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994971152129479</v>
+        <v>0.9994971152129689</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.816545453091892e-05</v>
+        <v>1.816545453106616e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02581513322774153</v>
+        <v>0.02581513322796832</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2397891145939545</v>
+        <v>0.2397891144821043</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2397891145939545</v>
+        <v>0.2397891144821043</v>
       </c>
       <c r="DH2" t="n">
-        <v>187206.3546002305</v>
+        <v>187206.3545171604</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.790805431899571</v>
+        <v>2.790805430683812</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3621,1088 +3636,1099 @@
           <t>b''</t>
         </is>
       </c>
-      <c r="DS2" t="n">
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="DT2" t="n">
         <v>0</v>
       </c>
-      <c r="DT2" t="n">
-        <v>274.1650384670643</v>
-      </c>
       <c r="DU2" t="n">
-        <v>114.3396414242535</v>
+        <v>274.1650384746706</v>
       </c>
       <c r="DV2" t="n">
-        <v>249.1844993506217</v>
+        <v>114.3396413882419</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.35172290310254</v>
+        <v>249.1844993755146</v>
       </c>
       <c r="DX2" t="n">
-        <v>274.1650384670643</v>
+        <v>65.35172291211219</v>
       </c>
       <c r="DY2" t="n">
-        <v>114.3396414242535</v>
+        <v>274.1650384746706</v>
       </c>
       <c r="DZ2" t="n">
-        <v>249.1844993506217</v>
+        <v>114.3396413882419</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.35172290310254</v>
+        <v>249.1844993755146</v>
       </c>
       <c r="EB2" t="n">
-        <v>258.0958630501678</v>
+        <v>65.35172291211219</v>
       </c>
       <c r="EC2" t="n">
-        <v>84173.10360314888</v>
+        <v>258.0958630479574</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.136926240148185</v>
+        <v>84173.1035912747</v>
       </c>
       <c r="EE2" t="n">
-        <v>310165.520180694</v>
+        <v>1.136926239997462</v>
       </c>
       <c r="EF2" t="n">
-        <v>384201.1969297661</v>
+        <v>310165.5201791377</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.783891568041</v>
+        <v>384201.1969275806</v>
       </c>
       <c r="EH2" t="n">
-        <v>-593668.2514750607</v>
+        <v>3788.78389160004</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.4980321128555</v>
+        <v>-593668.2514771305</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.154227239404</v>
+        <v>716.4980321127638</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402870883364942</v>
+        <v>1005.154227239119</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993181540916399</v>
+        <v>1.402870883364723</v>
       </c>
       <c r="EM2" t="n">
-        <v>322.1675625771956</v>
+        <v>0.9993181540917061</v>
       </c>
       <c r="EN2" t="n">
-        <v>118003.7782565765</v>
+        <v>322.167562575812</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.474304931370018e-06</v>
+        <v>118003.7782399191</v>
       </c>
       <c r="EP2" t="n">
-        <v>84115.92232460572</v>
+        <v>8.474304932566248e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.188835564497494e-05</v>
+        <v>84115.92231274508</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003888006291816268</v>
+        <v>1.188835564665124e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.645301935537311e-05</v>
+        <v>0.003888006291848004</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02319180040397051</v>
+        <v>1.645301935525797e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>84173.10360314888</v>
+        <v>0.02319180040379385</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.136926240148185</v>
+        <v>84173.1035912747</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.136926240148185</v>
+        <v>1.136926239997462</v>
       </c>
       <c r="EX2" t="n">
-        <v>310165.520180694</v>
+        <v>1.136926239997462</v>
       </c>
       <c r="EY2" t="n">
-        <v>384201.1969297661</v>
+        <v>310165.5201791377</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.783891568041</v>
+        <v>384201.1969275806</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.4980321128555</v>
+        <v>3788.78389160004</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.154227239404</v>
+        <v>716.4980321127638</v>
       </c>
       <c r="FC2" t="n">
-        <v>322.1675625771956</v>
+        <v>1005.154227239119</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993181540916399</v>
+        <v>322.167562575812</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.645301935537311e-05</v>
+        <v>0.9993181540917061</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02319180040397051</v>
-      </c>
-      <c r="FG2" t="inlineStr">
+        <v>1.645301935525797e-05</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.02319180040379385</v>
+      </c>
+      <c r="FH2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="FH2" t="b">
+      <c r="FI2" t="b">
         <v>1</v>
       </c>
-      <c r="FI2" t="n">
-        <v>295.5935241441288</v>
-      </c>
       <c r="FJ2" t="n">
-        <v>135206.950158849</v>
+        <v>295.5935241439936</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.594232983762535</v>
+        <v>135206.9501436089</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.399219905</v>
+        <v>1.594232983583486</v>
       </c>
       <c r="FM2" t="n">
+        <v>336974.3992198391</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>421784.4310883891</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>3788.783891604528</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-698155.5516509884</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>717.8559613685137</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1006.775725221086</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1.402475955345942</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.9995305694123996</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>344.8025797536447</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>189536.4766366892</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>5.276029278083703e-06</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>135144.1897554223</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>7.399504202213602e-06</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.00339561445431637</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>1.832923467030756e-05</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.02606725562222116</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>135206.9501436089</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1.594232983583486</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1.594232983583486</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>336974.3992198391</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>421784.4310883891</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>3788.783891604528</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>717.8559613685137</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1006.775725221086</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>344.8025797536447</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.9995305694123996</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1.832923467030756e-05</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0.02606725562222116</v>
+      </c>
+      <c r="GO2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="GP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>295.5935241439936</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>135206.9501436089</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1.594232983583486</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>336974.3992198391</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>421784.4310883891</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>3788.783891604528</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>-698155.5516509884</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>717.8559613685137</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1006.775725221086</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>1.402475955345942</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>0.9995305694123996</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>344.8025797536447</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>189536.4766366892</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>5.276029278083703e-06</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>135144.1897554223</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>7.399504202213602e-06</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>0.00339561445431637</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1.832923467030756e-05</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>0.02606725562222116</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>135206.9501436089</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1.594232983583486</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1.594232983583486</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>336974.3992198391</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>421784.4310883891</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>3788.783891604528</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>717.8559613685137</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>1006.775725221086</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>344.8025797536447</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>0.9995305694123996</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>1.832923467030756e-05</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>0.02606725562222116</v>
+      </c>
+      <c r="HV2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="HW2" t="b">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>0.8510013741999694</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0.8510013741999694</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>495605.9296334039</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>2.790805430670234</v>
+      </c>
+      <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
-      <c r="FN2" t="n">
-        <v>3788.783891572528</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>-698155.5516419408</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>717.8559613685577</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1006.775725221339</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1.402475955346208</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.999530569412349</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>344.802579753739</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>189536.4766580797</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>5.276029277488266e-06</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>135144.1897706486</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>7.399504201379922e-06</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.003395614454316215</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1.832923467031631e-05</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.02606725562223613</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>135206.950158849</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1.594232983762535</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1.594232983762535</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>336974.399219905</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>421784.4310884894</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>3788.783891572528</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>717.8559613685577</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>1006.775725221339</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>344.802579753739</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0.999530569412349</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1.832923467031631e-05</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0.02606725562223613</v>
-      </c>
-      <c r="GN2" t="inlineStr">
+      <c r="IC2" t="n">
+        <v>0.01561897652535764</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1.808493700719725e-07</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>0.01378013288009363</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>0.0253304329599657</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>0.0547293615160469</v>
+      </c>
+      <c r="II2" t="n">
+        <v>2.755344979954444e-10</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>382691.4762354186</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>165.3032</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>274.1650384746706</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>114.3396413882419</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>249.1844993755146</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>65.35172291211219</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>141.8084129299686</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>114.3396413882419</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>83.88129937551463</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>36.26433850399843</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>258.095863047957</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>84173.10359114593</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>1.136926239995723</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>310165.5201791378</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>384201.1969275807</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>3788.783891600478</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>-593668.2514772419</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>716.4980321127636</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>1005.154227239116</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>1.402870883364719</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>0.9993181540917071</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>322.1675625758117</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>118003.7782397384</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>8.474304932579223e-06</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>84115.92231261647</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>1.188835564666942e-05</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>0.003888006291847989</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>1.645301935525794e-05</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>0.02319180040379379</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>84173.10359114593</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>1.136926239995723</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>1.136926239995723</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>310165.5201791378</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>384201.1969275807</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>3788.783891600478</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>716.4980321127636</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>1005.154227239116</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>322.1675625758117</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>0.9993181540917071</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>1.645301935525794e-05</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>0.02319180040379379</v>
+      </c>
+      <c r="JZ2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="GO2" t="b">
+      <c r="KA2" t="b">
         <v>1</v>
       </c>
-      <c r="GP2" t="n">
-        <v>295.5935241441288</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>135206.950158849</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1.594232983762535</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>336974.399219905</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>421784.4310884894</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>3788.783891572528</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>-698155.5516419408</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>717.8559613685577</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1006.775725221339</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1.402475955346208</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.999530569412349</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>344.802579753739</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>189536.4766580797</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>5.276029277488266e-06</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>135144.1897706486</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>7.399504201379922e-06</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0.003395614454316215</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1.832923467031631e-05</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0.02606725562223613</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>135206.950158849</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>1.594232983762535</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>1.594232983762535</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>336974.399219905</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>421784.4310884894</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>3788.783891572528</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>717.8559613685577</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1006.775725221339</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>344.802579753739</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>0.999530569412349</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1.832923467031631e-05</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>0.02606725562223613</v>
-      </c>
-      <c r="HU2" t="inlineStr">
+      <c r="KB2" t="n">
+        <v>295.5935241439932</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>135206.9501434033</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>1.594232983581063</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>336974.3992198392</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>421784.4310883891</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>3788.783891604965</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>-698155.5516511158</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>717.8559613685132</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>1006.775725221082</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>1.402475955345938</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>0.9995305694124003</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>344.8025797536442</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>189536.4766364006</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>5.276029278091737e-06</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>135144.1897552169</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>7.399504202224849e-06</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>0.003395614454316354</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>1.832923467030751e-05</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>0.02606725562222107</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>135206.9501434033</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>1.594232983581063</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>1.594232983581063</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>336974.3992198392</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>421784.4310883891</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>3788.783891604965</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>717.8559613685132</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>1006.775725221082</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>344.8025797536442</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>0.9995305694124003</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>1.832923467030751e-05</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>0.02606725562222107</v>
+      </c>
+      <c r="LG2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="HV2" t="b">
+      <c r="LH2" t="b">
         <v>1</v>
       </c>
-      <c r="HW2" t="n">
-        <v>0.8510013741727049</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0.8510013741727049</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>495605.9296818885</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>2.790805431919185</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>421784.4310884894</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>0.01561897651666977</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1.808493700767934e-07</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>0.01378013287981708</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>0.02533043296365975</v>
-      </c>
-      <c r="IF2" t="n">
+      <c r="LI2" t="n">
+        <v>268.1325478421015</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>96169.14341442015</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>1.250276210271311</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>317337.6916885396</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>394256.0099164385</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>3788.783891606426</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>-621640.2681631048</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>716.7853702993821</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>1005.511312850924</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>1.40280669014066</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>0.999364723092654</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>328.3798436103881</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>134821.4367830189</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>7.417218091284666e-06</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>96108.35030270657</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>1.040492316068647e-05</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>0.003742747758428539</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>1.696534104360781e-05</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>0.02397353035643554</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>96169.14341442015</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>1.250276210271311</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>1.250276210271311</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>317337.6916885396</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>394256.0099164385</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>3788.783891606426</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>716.7853702993821</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>1005.511312850924</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>328.3798436103881</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>0.999364723092654</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>1.696534104360781e-05</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>0.02397353035643554</v>
+      </c>
+      <c r="MN2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="MO2" t="b">
+        <v>1</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>0.8510013741999701</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>0.4401697420937545</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>255366.0091281675</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>2.790805430665966</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>380593.4359512185</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>165.3032</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>135.4695892653735</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>125.5086189057657</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>-50.98623535912671</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>-22.10880530368194</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>250.0670575417773</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>125.5086189057657</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>-216.2894353591267</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>-59.87422707194452</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>236.9057734328386</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>59999.99999788135</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>0.8829486053639775</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>295035.118168732</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>362989.2432824441</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>3800.133275813549</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>-537284.2695720311</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>716.0331786758935</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>1004.487866949602</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>1.402851008674103</v>
+      </c>
+      <c r="NN2" t="n">
+        <v>0.999272534329567</v>
+      </c>
+      <c r="NO2" t="n">
+        <v>308.6426631728137</v>
+      </c>
+      <c r="NP2" t="n">
+        <v>84109.94331923594</v>
+      </c>
+      <c r="NQ2" t="n">
+        <v>1.188920073581003e-05</v>
+      </c>
+      <c r="NR2" t="n">
+        <v>59956.43357645798</v>
+      </c>
+      <c r="NS2" t="n">
+        <v>1.667877724455999e-05</v>
+      </c>
+      <c r="NT2" t="n">
+        <v>0.004234486916339891</v>
+      </c>
+      <c r="NU2" t="n">
+        <v>1.534470472159086e-05</v>
+      </c>
+      <c r="NV2" t="n">
+        <v>0.02150906073145985</v>
+      </c>
+      <c r="NW2" t="n">
+        <v>59999.99999788135</v>
+      </c>
+      <c r="NX2" t="n">
+        <v>0.8829486053639775</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>0.8829486053639775</v>
+      </c>
+      <c r="NZ2" t="n">
+        <v>295035.118168732</v>
+      </c>
+      <c r="OA2" t="n">
+        <v>362989.2432824441</v>
+      </c>
+      <c r="OB2" t="n">
+        <v>3800.133275813549</v>
+      </c>
+      <c r="OC2" t="n">
+        <v>716.0331786758935</v>
+      </c>
+      <c r="OD2" t="n">
+        <v>1004.487866949602</v>
+      </c>
+      <c r="OE2" t="n">
+        <v>308.6426631728137</v>
+      </c>
+      <c r="OF2" t="n">
+        <v>0.999272534329567</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>1.534470472159086e-05</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>0.02150906073145985</v>
+      </c>
+      <c r="OI2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="OJ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="OK2" t="n">
+        <v>246.0690979996147</v>
+      </c>
+      <c r="OL2" t="n">
+        <v>68499.67980894788</v>
+      </c>
+      <c r="OM2" t="n">
+        <v>0.9704638757930909</v>
+      </c>
+      <c r="ON2" t="n">
+        <v>301580.7765633519</v>
+      </c>
+      <c r="OO2" t="n">
+        <v>372165.2480904018</v>
+      </c>
+      <c r="OP2" t="n">
+        <v>3800.133275812685</v>
+      </c>
+      <c r="OQ2" t="n">
+        <v>-562930.1193671467</v>
+      </c>
+      <c r="OR2" t="n">
+        <v>716.2056506675086</v>
+      </c>
+      <c r="OS2" t="n">
+        <v>1004.720142897209</v>
+      </c>
+      <c r="OT2" t="n">
+        <v>1.402837497806396</v>
+      </c>
+      <c r="OU2" t="n">
+        <v>0.999299937149956</v>
+      </c>
+      <c r="OV2" t="n">
+        <v>314.5622301073612</v>
+      </c>
+      <c r="OW2" t="n">
+        <v>96026.81494164138</v>
+      </c>
+      <c r="OX2" t="n">
+        <v>1.041375787177501e-05</v>
+      </c>
+      <c r="OY2" t="n">
+        <v>68451.84498689095</v>
+      </c>
+      <c r="OZ2" t="n">
+        <v>1.460881003560251e-05</v>
+      </c>
+      <c r="PA2" t="n">
+        <v>0.004077109595040023</v>
+      </c>
+      <c r="PB2" t="n">
+        <v>1.58282690397084e-05</v>
+      </c>
+      <c r="PC2" t="n">
+        <v>0.02224158540628108</v>
+      </c>
+      <c r="PD2" t="n">
+        <v>68499.67980894788</v>
+      </c>
+      <c r="PE2" t="n">
+        <v>0.9704638757930909</v>
+      </c>
+      <c r="PF2" t="n">
+        <v>0.9704638757930909</v>
+      </c>
+      <c r="PG2" t="n">
+        <v>301580.7765633519</v>
+      </c>
+      <c r="PH2" t="n">
+        <v>372165.2480904018</v>
+      </c>
+      <c r="PI2" t="n">
+        <v>3800.133275812685</v>
+      </c>
+      <c r="PJ2" t="n">
+        <v>716.2056506675086</v>
+      </c>
+      <c r="PK2" t="n">
+        <v>1004.720142897209</v>
+      </c>
+      <c r="PL2" t="n">
+        <v>314.5622301073612</v>
+      </c>
+      <c r="PM2" t="n">
+        <v>0.999299937149956</v>
+      </c>
+      <c r="PN2" t="n">
+        <v>1.58282690397084e-05</v>
+      </c>
+      <c r="PO2" t="n">
+        <v>0.02224158540628108</v>
+      </c>
+      <c r="PP2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="PQ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="PR2" t="n">
+        <v>268.1220053382088</v>
+      </c>
+      <c r="PS2" t="n">
+        <v>92438.70527490083</v>
+      </c>
+      <c r="PT2" t="n">
+        <v>1.201795435380149</v>
+      </c>
+      <c r="PU2" t="n">
+        <v>317338.8386961402</v>
+      </c>
+      <c r="PV2" t="n">
+        <v>394256.0099164326</v>
+      </c>
+      <c r="PW2" t="n">
+        <v>3800.133275804115</v>
+      </c>
+      <c r="PX2" t="n">
+        <v>-624643.3445446235</v>
+      </c>
+      <c r="PY2" t="n">
+        <v>716.773015969385</v>
+      </c>
+      <c r="PZ2" t="n">
+        <v>1005.433966598668</v>
+      </c>
+      <c r="QA2" t="n">
+        <v>1.402722959985999</v>
+      </c>
+      <c r="QB2" t="n">
+        <v>0.9993891147805989</v>
+      </c>
+      <c r="QC2" t="n">
+        <v>328.371563278484</v>
+      </c>
+      <c r="QD2" t="n">
+        <v>129587.0582810746</v>
+      </c>
+      <c r="QE2" t="n">
+        <v>7.716819976196989e-06</v>
+      </c>
+      <c r="QF2" t="n">
+        <v>92382.503158263</v>
+      </c>
+      <c r="QG2" t="n">
+        <v>1.082456055869013e-05</v>
+      </c>
+      <c r="QH2" t="n">
+        <v>0.003742382741123185</v>
+      </c>
+      <c r="QI2" t="n">
+        <v>1.696424110318386e-05</v>
+      </c>
+      <c r="QJ2" t="n">
+        <v>0.02397139285341908</v>
+      </c>
+      <c r="QK2" t="n">
+        <v>92438.70527490083</v>
+      </c>
+      <c r="QL2" t="n">
+        <v>1.201795435380149</v>
+      </c>
+      <c r="QM2" t="n">
+        <v>1.201795435380149</v>
+      </c>
+      <c r="QN2" t="n">
+        <v>317338.8386961402</v>
+      </c>
+      <c r="QO2" t="n">
+        <v>394256.0099164326</v>
+      </c>
+      <c r="QP2" t="n">
+        <v>3800.133275804115</v>
+      </c>
+      <c r="QQ2" t="n">
+        <v>716.773015969385</v>
+      </c>
+      <c r="QR2" t="n">
+        <v>1005.433966598668</v>
+      </c>
+      <c r="QS2" t="n">
+        <v>328.371563278484</v>
+      </c>
+      <c r="QT2" t="n">
+        <v>0.9993891147805989</v>
+      </c>
+      <c r="QU2" t="n">
+        <v>1.696424110318386e-05</v>
+      </c>
+      <c r="QV2" t="n">
+        <v>0.02397139285341908</v>
+      </c>
+      <c r="QW2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="QX2" t="b">
+        <v>1</v>
+      </c>
+      <c r="QY2" t="n">
+        <v>0.4389204910065267</v>
+      </c>
+      <c r="QZ2" t="n">
+        <v>0.8102154607244332</v>
+      </c>
+      <c r="RA2" t="n">
+        <v>374979.723512681</v>
+      </c>
+      <c r="RB2" t="n">
+        <v>2.790805430648497</v>
+      </c>
+      <c r="RC2" t="n">
+        <v>380593.4359512185</v>
+      </c>
+      <c r="RD2" t="n">
+        <v>0.02607389602229048</v>
+      </c>
+      <c r="RE2" t="n">
+        <v>0.002221780604986662</v>
+      </c>
+      <c r="RF2" t="n">
+        <v>0.01178846742599047</v>
+      </c>
+      <c r="RG2" t="n">
+        <v>0.03262518113249034</v>
+      </c>
+      <c r="RH2" t="n">
+        <v>0.04229027500589256</v>
+      </c>
+      <c r="RI2" t="n">
+        <v>0.1149996001916505</v>
+      </c>
+      <c r="RJ2" t="n">
+        <v>5.20255227787203e-11</v>
+      </c>
+      <c r="RK2" t="n">
         <v>0</v>
       </c>
-      <c r="IG2" t="n">
-        <v>0.05472936151077651</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-2.142757499212777e-11</v>
-      </c>
-      <c r="II2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>165.3032</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>274.1650384670643</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>114.3396414242535</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>249.1844993506217</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>65.35172290310254</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>141.8084129442801</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>114.3396414242535</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>83.8812993506217</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>36.26433848728249</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>258.0958630501674</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>84173.10360302044</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1.13692624014645</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>310165.5201806941</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>384201.1969297662</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>3788.78389156848</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-593668.2514751726</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>716.498032112855</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>1005.154227239402</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>1.402870883364939</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>0.999318154091641</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>322.1675625771953</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>118003.7782563963</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>8.474304931382959e-06</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>84115.92232447745</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1.188835564499307e-05</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>0.003888006291816254</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>1.645301935537307e-05</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>0.02319180040397043</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>84173.10360302044</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>1.13692624014645</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1.13692624014645</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>310165.5201806941</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>384201.1969297662</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>3788.78389156848</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>716.498032112855</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>1005.154227239402</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>322.1675625771953</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>0.999318154091641</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>1.645301935537307e-05</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>0.02319180040397043</v>
-      </c>
-      <c r="JX2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="JY2" t="b">
-        <v>1</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>295.593524144028</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>135206.9501584821</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>1.594232983758752</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>336974.3992198334</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>421784.4310883889</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>3788.783891572968</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>-698155.5516417893</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>717.8559613685525</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>1006.77572522133</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>1.402475955346206</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>0.999530569412349</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>344.8025797536799</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>189536.476657565</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>5.276029277502593e-06</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>135144.1897702819</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>7.399504201400002e-06</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>0.003395614454317352</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>1.832923467031137e-05</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>0.02606725562222851</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>135206.9501584821</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>1.594232983758752</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>1.594232983758752</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>336974.3992198334</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>421784.4310883889</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>3788.783891572968</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>717.8559613685525</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>1006.77572522133</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>344.8025797536799</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>0.999530569412349</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>1.832923467031137e-05</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>0.02606725562222851</v>
-      </c>
-      <c r="LE2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="LF2" t="b">
-        <v>1</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>268.1325478462387</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>96169.14343029221</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>1.250276210458431</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>317337.6916914717</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>394256.0099205537</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>3788.783891574428</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>-621640.2681660851</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>716.7853702995457</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>1005.511312851303</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>1.402806690140869</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>0.9993647230926045</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>328.3798436129299</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>134821.4368052838</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>7.417218090059761e-06</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>96108.35031856396</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>1.040492315896971e-05</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>0.00374274775837237</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>1.696534104381904e-05</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>0.02397353035675969</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>96169.14343029221</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>1.250276210458431</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>1.250276210458431</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>317337.6916914717</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>394256.0099205537</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>3788.783891574428</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>716.7853702995457</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>1005.511312851303</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>328.3798436129299</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>0.9993647230926045</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>1.696534104381904e-05</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>0.02397353035675969</v>
-      </c>
-      <c r="ML2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="MM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>0.8510013741727057</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>0.440169742136287</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>255366.0091860075</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>2.790805431914928</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>380593.4359554336</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>165.3032</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>135.4695893169848</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>125.5086189530834</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>-50.98623537977892</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>-22.10880530424227</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>250.0670575833887</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>125.5086189530834</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>-216.2894353797789</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>-59.87422706494235</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>236.9057734266831</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>60000.0000018853</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>0.8829486054459561</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>295035.1181643091</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>362989.2432762466</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>3800.133275768247</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>-537284.2695441046</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>716.0331786758322</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>1004.487866949722</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>1.402851008674392</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>0.9992725343294361</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>308.6426631687954</v>
-      </c>
-      <c r="NN2" t="n">
-        <v>84109.94332485512</v>
-      </c>
-      <c r="NO2" t="n">
-        <v>1.188920073501574e-05</v>
-      </c>
-      <c r="NP2" t="n">
-        <v>59956.43358045119</v>
-      </c>
-      <c r="NQ2" t="n">
-        <v>1.667877724344916e-05</v>
-      </c>
-      <c r="NR2" t="n">
-        <v>0.004234486916451803</v>
-      </c>
-      <c r="NS2" t="n">
-        <v>1.534470472126517e-05</v>
-      </c>
-      <c r="NT2" t="n">
-        <v>0.02150906073096879</v>
-      </c>
-      <c r="NU2" t="n">
-        <v>60000.0000018853</v>
-      </c>
-      <c r="NV2" t="n">
-        <v>0.8829486054459561</v>
-      </c>
-      <c r="NW2" t="n">
-        <v>0.8829486054459561</v>
-      </c>
-      <c r="NX2" t="n">
-        <v>295035.1181643091</v>
-      </c>
-      <c r="NY2" t="n">
-        <v>362989.2432762466</v>
-      </c>
-      <c r="NZ2" t="n">
-        <v>3800.133275768247</v>
-      </c>
-      <c r="OA2" t="n">
-        <v>716.0331786758322</v>
-      </c>
-      <c r="OB2" t="n">
-        <v>1004.487866949722</v>
-      </c>
-      <c r="OC2" t="n">
-        <v>308.6426631687954</v>
-      </c>
-      <c r="OD2" t="n">
-        <v>0.9992725343294361</v>
-      </c>
-      <c r="OE2" t="n">
-        <v>1.534470472126517e-05</v>
-      </c>
-      <c r="OF2" t="n">
-        <v>0.02150906073096879</v>
-      </c>
-      <c r="OG2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="OH2" t="b">
-        <v>1</v>
-      </c>
-      <c r="OI2" t="n">
-        <v>246.0690980005434</v>
-      </c>
-      <c r="OJ2" t="n">
-        <v>68499.67981838793</v>
-      </c>
-      <c r="OK2" t="n">
-        <v>0.9704638759232509</v>
-      </c>
-      <c r="OL2" t="n">
-        <v>301580.776563993</v>
-      </c>
-      <c r="OM2" t="n">
-        <v>372165.2480913033</v>
-      </c>
-      <c r="ON2" t="n">
-        <v>3800.133275776817</v>
-      </c>
-      <c r="OO2" t="n">
-        <v>-562930.1193609483</v>
-      </c>
-      <c r="OP2" t="n">
-        <v>716.2056506675631</v>
-      </c>
-      <c r="OQ2" t="n">
-        <v>1004.720142897453</v>
-      </c>
-      <c r="OR2" t="n">
-        <v>1.402837497806629</v>
-      </c>
-      <c r="OS2" t="n">
-        <v>0.999299937149872</v>
-      </c>
-      <c r="OT2" t="n">
-        <v>314.5622301079546</v>
-      </c>
-      <c r="OU2" t="n">
-        <v>96026.81495488291</v>
-      </c>
-      <c r="OV2" t="n">
-        <v>1.041375787033901e-05</v>
-      </c>
-      <c r="OW2" t="n">
-        <v>68451.84499631867</v>
-      </c>
-      <c r="OX2" t="n">
-        <v>1.460881003359047e-05</v>
-      </c>
-      <c r="OY2" t="n">
-        <v>0.004077109595026314</v>
-      </c>
-      <c r="OZ2" t="n">
-        <v>1.582826903975841e-05</v>
-      </c>
-      <c r="PA2" t="n">
-        <v>0.02224158540635823</v>
-      </c>
-      <c r="PB2" t="n">
-        <v>68499.67981838793</v>
-      </c>
-      <c r="PC2" t="n">
-        <v>0.9704638759232509</v>
-      </c>
-      <c r="PD2" t="n">
-        <v>0.9704638759232509</v>
-      </c>
-      <c r="PE2" t="n">
-        <v>301580.776563993</v>
-      </c>
-      <c r="PF2" t="n">
-        <v>372165.2480913033</v>
-      </c>
-      <c r="PG2" t="n">
-        <v>3800.133275776817</v>
-      </c>
-      <c r="PH2" t="n">
-        <v>716.2056506675631</v>
-      </c>
-      <c r="PI2" t="n">
-        <v>1004.720142897453</v>
-      </c>
-      <c r="PJ2" t="n">
-        <v>314.5622301079546</v>
-      </c>
-      <c r="PK2" t="n">
-        <v>0.999299937149872</v>
-      </c>
-      <c r="PL2" t="n">
-        <v>1.582826903975841e-05</v>
-      </c>
-      <c r="PM2" t="n">
-        <v>0.02224158540635823</v>
-      </c>
-      <c r="PN2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="PO2" t="b">
-        <v>1</v>
-      </c>
-      <c r="PP2" t="n">
-        <v>268.1220053424481</v>
-      </c>
-      <c r="PQ2" t="n">
-        <v>92438.70528929798</v>
-      </c>
-      <c r="PR2" t="n">
-        <v>1.201795435548374</v>
-      </c>
-      <c r="PS2" t="n">
-        <v>317338.8386991486</v>
-      </c>
-      <c r="PT2" t="n">
-        <v>394256.0099206541</v>
-      </c>
-      <c r="PU2" t="n">
-        <v>3800.13327577518</v>
-      </c>
-      <c r="PV2" t="n">
-        <v>-624643.3445487533</v>
-      </c>
-      <c r="PW2" t="n">
-        <v>716.773015969547</v>
-      </c>
-      <c r="PX2" t="n">
-        <v>1005.433966599021</v>
-      </c>
-      <c r="PY2" t="n">
-        <v>1.402722959986175</v>
-      </c>
-      <c r="PZ2" t="n">
-        <v>0.9993891147805581</v>
-      </c>
-      <c r="QA2" t="n">
-        <v>328.3715632810872</v>
-      </c>
-      <c r="QB2" t="n">
-        <v>129587.0583012686</v>
-      </c>
-      <c r="QC2" t="n">
-        <v>7.716819974994451e-06</v>
-      </c>
-      <c r="QD2" t="n">
-        <v>92382.50317264773</v>
-      </c>
-      <c r="QE2" t="n">
-        <v>1.082456055700465e-05</v>
-      </c>
-      <c r="QF2" t="n">
-        <v>0.003742382741065402</v>
-      </c>
-      <c r="QG2" t="n">
-        <v>1.696424110340002e-05</v>
-      </c>
-      <c r="QH2" t="n">
-        <v>0.02397139285375059</v>
-      </c>
-      <c r="QI2" t="n">
-        <v>92438.70528929798</v>
-      </c>
-      <c r="QJ2" t="n">
-        <v>1.201795435548374</v>
-      </c>
-      <c r="QK2" t="n">
-        <v>1.201795435548374</v>
-      </c>
-      <c r="QL2" t="n">
-        <v>317338.8386991486</v>
-      </c>
-      <c r="QM2" t="n">
-        <v>394256.0099206541</v>
-      </c>
-      <c r="QN2" t="n">
-        <v>3800.13327577518</v>
-      </c>
-      <c r="QO2" t="n">
-        <v>716.773015969547</v>
-      </c>
-      <c r="QP2" t="n">
-        <v>1005.433966599021</v>
-      </c>
-      <c r="QQ2" t="n">
-        <v>328.3715632810872</v>
-      </c>
-      <c r="QR2" t="n">
-        <v>0.9993891147805581</v>
-      </c>
-      <c r="QS2" t="n">
-        <v>1.696424110340002e-05</v>
-      </c>
-      <c r="QT2" t="n">
-        <v>0.02397139285375059</v>
-      </c>
-      <c r="QU2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="QV2" t="b">
-        <v>1</v>
-      </c>
-      <c r="QW2" t="n">
-        <v>0.4389204911794615</v>
-      </c>
-      <c r="QX2" t="n">
-        <v>0.8102154608698025</v>
-      </c>
-      <c r="QY2" t="n">
-        <v>374979.7236178523</v>
-      </c>
-      <c r="QZ2" t="n">
-        <v>2.790805431959769</v>
-      </c>
-      <c r="RA2" t="n">
-        <v>380593.4359554336</v>
-      </c>
-      <c r="RB2" t="n">
-        <v>0.02607389602667455</v>
-      </c>
-      <c r="RC2" t="n">
-        <v>0.002221780594572868</v>
-      </c>
-      <c r="RD2" t="n">
-        <v>0.01178846742622963</v>
-      </c>
-      <c r="RE2" t="n">
-        <v>0.03262518112846527</v>
-      </c>
-      <c r="RF2" t="n">
-        <v>0.04229027499124951</v>
-      </c>
-      <c r="RG2" t="n">
-        <v>0.1149996001671918</v>
-      </c>
-      <c r="RH2" t="n">
-        <v>8.897382830497236e-11</v>
-      </c>
-      <c r="RI2" t="n">
-        <v>0</v>
+      <c r="RL2" t="n">
+        <v>360315.6411404813</v>
       </c>
     </row>
     <row r="3">
@@ -4713,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>82.52961504312884</v>
+        <v>82.5296150442294</v>
       </c>
       <c r="D3" t="n">
-        <v>82.52961504312884</v>
+        <v>82.5296150442294</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82.52961504312884</v>
+        <v>82.5296150442294</v>
       </c>
       <c r="H3" t="n">
-        <v>82.52961504312884</v>
+        <v>82.5296150442294</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.2043807645113</v>
+        <v>292.2043807642206</v>
       </c>
       <c r="L3" t="n">
-        <v>132537.5531724163</v>
+        <v>132537.5531719548</v>
       </c>
       <c r="M3" t="n">
-        <v>1.580936880354626</v>
+        <v>1.580936880350696</v>
       </c>
       <c r="N3" t="n">
-        <v>334544.0459660586</v>
+        <v>334544.0459658507</v>
       </c>
       <c r="O3" t="n">
-        <v>418378.8624090062</v>
+        <v>418378.8624087148</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.917347718242</v>
+        <v>3782.917347718243</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687006.1586643301</v>
+        <v>-687006.1586635223</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7062138288429</v>
+        <v>717.7062138288298</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.639892666688</v>
+        <v>1006.639892666673</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402579319045368</v>
+        <v>1.402579319045373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994969313066014</v>
+        <v>0.9994969313065994</v>
       </c>
       <c r="V3" t="n">
-        <v>342.8212838341999</v>
+        <v>342.8212838340293</v>
       </c>
       <c r="W3" t="n">
-        <v>185801.8717924707</v>
+        <v>185801.8717918239</v>
       </c>
       <c r="X3" t="n">
-        <v>5.38207710370614e-06</v>
+        <v>5.382077103724874e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132471.5609801892</v>
+        <v>132471.5609797276</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.548790039165825e-06</v>
+        <v>7.548790039192127e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003435197102768937</v>
+        <v>0.00343519710277235</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.81641638820002e-05</v>
+        <v>1.816416388198597e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02581314531334871</v>
+        <v>0.02581314531332679</v>
       </c>
       <c r="AD3" t="n">
-        <v>132537.5531724163</v>
+        <v>132537.5531719548</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.580936880354626</v>
+        <v>1.580936880350696</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.580936880354626</v>
+        <v>1.580936880350696</v>
       </c>
       <c r="AG3" t="n">
-        <v>334544.0459660586</v>
+        <v>334544.0459658507</v>
       </c>
       <c r="AH3" t="n">
-        <v>418378.8624090062</v>
+        <v>418378.8624087148</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.917347718242</v>
+        <v>3782.917347718243</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7062138288429</v>
+        <v>717.7062138288298</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.639892666688</v>
+        <v>1006.639892666673</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.8212838341999</v>
+        <v>342.8212838340293</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994969313066014</v>
+        <v>0.9994969313065994</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.81641638820002e-05</v>
+        <v>1.816416388198597e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02581314531334871</v>
+        <v>0.02581314531332679</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2407365555606605</v>
+        <v>0.2407365555639907</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2407365555606605</v>
+        <v>0.2407365555639907</v>
       </c>
       <c r="DH3" t="n">
-        <v>187908.6092725238</v>
+        <v>187908.6092747097</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.801075364063397</v>
+        <v>2.801075364093789</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5094,1088 +5120,1099 @@
           <t>b''</t>
         </is>
       </c>
-      <c r="DS3" t="n">
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="DT3" t="n">
         <v>0</v>
       </c>
-      <c r="DT3" t="n">
-        <v>278.0045424773879</v>
-      </c>
       <c r="DU3" t="n">
-        <v>115.995857388958</v>
+        <v>278.0045424730886</v>
       </c>
       <c r="DV3" t="n">
-        <v>252.6489396507776</v>
+        <v>115.9958573888775</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.33925894778744</v>
+        <v>252.6489396460838</v>
       </c>
       <c r="DX3" t="n">
-        <v>278.0045424773879</v>
+        <v>65.3392589473989</v>
       </c>
       <c r="DY3" t="n">
-        <v>115.995857388958</v>
+        <v>278.0045424730886</v>
       </c>
       <c r="DZ3" t="n">
-        <v>252.6489396507776</v>
+        <v>115.9958573888775</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.33925894778744</v>
+        <v>252.6489396460838</v>
       </c>
       <c r="EB3" t="n">
-        <v>257.0374671018595</v>
+        <v>65.33925894739889</v>
       </c>
       <c r="EC3" t="n">
-        <v>82934.74270037333</v>
+        <v>257.0374671030534</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.124816998468789</v>
+        <v>82934.74270192976</v>
       </c>
       <c r="EE3" t="n">
-        <v>309409.4031795288</v>
+        <v>1.12481699848467</v>
       </c>
       <c r="EF3" t="n">
-        <v>383141.1682695588</v>
+        <v>309409.4031803809</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.919886552646</v>
+        <v>383141.1682707536</v>
       </c>
       <c r="EH3" t="n">
-        <v>-590753.2024217985</v>
+        <v>3788.919886551912</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.4704925479531</v>
+        <v>-590753.202424938</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.118615028138</v>
+        <v>716.4704925479843</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402875101602131</v>
+        <v>1005.118615028182</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993139907805428</v>
+        <v>1.40287510160213</v>
       </c>
       <c r="EM3" t="n">
-        <v>321.5054477199153</v>
+        <v>0.9993139907805462</v>
       </c>
       <c r="EN3" t="n">
-        <v>116267.5559367231</v>
+        <v>321.505447720663</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.60085164724917e-06</v>
+        <v>116267.5559389055</v>
       </c>
       <c r="EP3" t="n">
-        <v>82878.05222570538</v>
+        <v>8.600851647087732e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.206592062849953e-05</v>
+        <v>82878.052227261</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003903977621403019</v>
+        <v>1.206592062827305e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.639853367023441e-05</v>
+        <v>0.003903977621384957</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02310880889620676</v>
+        <v>1.639853367029594e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>82934.74270037333</v>
+        <v>0.0231088088963005</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.124816998468789</v>
+        <v>82934.74270192976</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.124816998468789</v>
+        <v>1.12481699848467</v>
       </c>
       <c r="EX3" t="n">
-        <v>309409.4031795288</v>
+        <v>1.12481699848467</v>
       </c>
       <c r="EY3" t="n">
-        <v>383141.1682695588</v>
+        <v>309409.4031803809</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.919886552646</v>
+        <v>383141.1682707536</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.4704925479531</v>
+        <v>3788.919886551912</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.118615028138</v>
+        <v>716.4704925479843</v>
       </c>
       <c r="FC3" t="n">
-        <v>321.5054477199153</v>
+        <v>1005.118615028182</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993139907805428</v>
+        <v>321.505447720663</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.639853367023441e-05</v>
+        <v>0.9993139907805462</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02310880889620676</v>
-      </c>
-      <c r="FG3" t="inlineStr">
+        <v>1.639853367029594e-05</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0.0231088088963005</v>
+      </c>
+      <c r="FH3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="FH3" t="b">
+      <c r="FI3" t="b">
         <v>1</v>
       </c>
-      <c r="FI3" t="n">
-        <v>295.593375578873</v>
-      </c>
       <c r="FJ3" t="n">
-        <v>135142.8784050157</v>
+        <v>295.5933755788736</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.593477963187105</v>
+        <v>135142.878405361</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.4233400564</v>
+        <v>1.593477963191175</v>
       </c>
       <c r="FM3" t="n">
+        <v>336974.4233400561</v>
+      </c>
+      <c r="FN3" t="n">
         <v>421784.4310885897</v>
       </c>
-      <c r="FN3" t="n">
-        <v>3788.919886552346</v>
-      </c>
       <c r="FO3" t="n">
-        <v>-698195.1879753385</v>
+        <v>3788.919886551612</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8557944799211</v>
+        <v>-698195.1879751242</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.774673228985</v>
+        <v>717.8557944799219</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402474815932052</v>
+        <v>1006.77467322899</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995307875089436</v>
+        <v>1.402474815932059</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8024274224488</v>
+        <v>0.9995307875089424</v>
       </c>
       <c r="FU3" t="n">
-        <v>189446.5457611994</v>
+        <v>344.8024274224495</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.27853382589787e-06</v>
+        <v>189446.5457616841</v>
       </c>
       <c r="FW3" t="n">
-        <v>135080.176562955</v>
+        <v>5.278533825884365e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.403010755867228e-06</v>
+        <v>135080.1765633</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.00339561022721536</v>
+        <v>7.403010755848318e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832921822184818e-05</v>
+        <v>0.003395610227215384</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606722400100694</v>
+        <v>1.832921822184826e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>135142.8784050157</v>
+        <v>0.0260672240010071</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.593477963187105</v>
+        <v>135142.878405361</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.593477963187105</v>
+        <v>1.593477963191175</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.4233400564</v>
+        <v>1.593477963191175</v>
       </c>
       <c r="GF3" t="n">
+        <v>336974.4233400561</v>
+      </c>
+      <c r="GG3" t="n">
         <v>421784.4310885897</v>
       </c>
-      <c r="GG3" t="n">
-        <v>3788.919886552346</v>
-      </c>
       <c r="GH3" t="n">
-        <v>717.8557944799211</v>
+        <v>3788.919886551612</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.774673228985</v>
+        <v>717.8557944799219</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8024274224488</v>
+        <v>1006.77467322899</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995307875089436</v>
+        <v>344.8024274224495</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832921822184818e-05</v>
+        <v>0.9995307875089424</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606722400100694</v>
-      </c>
-      <c r="GN3" t="inlineStr">
+        <v>1.832921822184826e-05</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>0.0260672240010071</v>
+      </c>
+      <c r="GO3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="GO3" t="b">
+      <c r="GP3" t="b">
         <v>1</v>
       </c>
-      <c r="GP3" t="n">
-        <v>295.593375578873</v>
-      </c>
       <c r="GQ3" t="n">
-        <v>135142.8784050157</v>
+        <v>295.5933755788736</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.593477963187105</v>
+        <v>135142.878405361</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.4233400564</v>
+        <v>1.593477963191175</v>
       </c>
       <c r="GT3" t="n">
+        <v>336974.4233400561</v>
+      </c>
+      <c r="GU3" t="n">
         <v>421784.4310885897</v>
       </c>
-      <c r="GU3" t="n">
-        <v>3788.919886552346</v>
-      </c>
       <c r="GV3" t="n">
-        <v>-698195.1879753385</v>
+        <v>3788.919886551612</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8557944799211</v>
+        <v>-698195.1879751242</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.774673228985</v>
+        <v>717.8557944799219</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402474815932052</v>
+        <v>1006.77467322899</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995307875089436</v>
+        <v>1.402474815932059</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8024274224488</v>
+        <v>0.9995307875089424</v>
       </c>
       <c r="HB3" t="n">
-        <v>189446.5457611994</v>
+        <v>344.8024274224495</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.27853382589787e-06</v>
+        <v>189446.5457616841</v>
       </c>
       <c r="HD3" t="n">
-        <v>135080.176562955</v>
+        <v>5.278533825884365e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.403010755867228e-06</v>
+        <v>135080.1765633</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.00339561022721536</v>
+        <v>7.403010755848318e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832921822184818e-05</v>
+        <v>0.003395610227215384</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606722400100694</v>
+        <v>1.832921822184826e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>135142.8784050157</v>
+        <v>0.0260672240010071</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.593477963187105</v>
+        <v>135142.878405361</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.593477963187105</v>
+        <v>1.593477963191175</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.4233400564</v>
+        <v>1.593477963191175</v>
       </c>
       <c r="HM3" t="n">
+        <v>336974.4233400561</v>
+      </c>
+      <c r="HN3" t="n">
         <v>421784.4310885897</v>
       </c>
-      <c r="HN3" t="n">
-        <v>3788.919886552346</v>
-      </c>
       <c r="HO3" t="n">
-        <v>717.8557944799211</v>
+        <v>3788.919886551612</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.774673228985</v>
+        <v>717.8557944799219</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8024274224488</v>
+        <v>1006.77467322899</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995307875089436</v>
+        <v>344.8024274224495</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832921822184818e-05</v>
+        <v>0.9995307875089424</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606722400100694</v>
-      </c>
-      <c r="HU3" t="inlineStr">
+        <v>1.832921822184826e-05</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>0.0260672240010071</v>
+      </c>
+      <c r="HV3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="HV3" t="b">
+      <c r="HW3" t="b">
         <v>1</v>
       </c>
-      <c r="HW3" t="n">
-        <v>0.8646962110563552</v>
-      </c>
       <c r="HX3" t="n">
-        <v>0.8646962110563552</v>
+        <v>0.8646962110409719</v>
       </c>
       <c r="HY3" t="n">
-        <v>498845.9915313024</v>
+        <v>0.8646962110409719</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.801075364061447</v>
+        <v>498845.9915287592</v>
       </c>
       <c r="IA3" t="n">
+        <v>2.80107536409905</v>
+      </c>
+      <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
-      <c r="IB3" t="n">
-        <v>0.0156119256537011</v>
-      </c>
       <c r="IC3" t="n">
-        <v>-1.824277019664985e-07</v>
+        <v>0.01561192565332767</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.0137798123650177</v>
+        <v>-1.824277019710357e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02533404515323136</v>
+        <v>0.01377981236500564</v>
       </c>
       <c r="IF3" t="n">
+        <v>0.02533404515339419</v>
+      </c>
+      <c r="IG3" t="n">
         <v>0</v>
       </c>
-      <c r="IG3" t="n">
-        <v>0.05472560074424819</v>
-      </c>
       <c r="IH3" t="n">
-        <v>-3.420180805235873e-14</v>
+        <v>0.05472560074402552</v>
       </c>
       <c r="II3" t="n">
+        <v>-5.157402283018087e-12</v>
+      </c>
+      <c r="IJ3" t="n">
         <v>0</v>
       </c>
-      <c r="IJ3" t="n">
+      <c r="IK3" t="n">
+        <v>381602.8887595641</v>
+      </c>
+      <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
-      <c r="IK3" t="n">
-        <v>278.0045424773879</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>115.995857388958</v>
-      </c>
       <c r="IM3" t="n">
-        <v>252.6489396507776</v>
+        <v>278.0045424730886</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.33925894778744</v>
+        <v>115.9958573888775</v>
       </c>
       <c r="IO3" t="n">
-        <v>145.2043978898054</v>
+        <v>252.6489396460838</v>
       </c>
       <c r="IP3" t="n">
-        <v>115.995857388958</v>
+        <v>65.3392589473989</v>
       </c>
       <c r="IQ3" t="n">
-        <v>87.3457396507776</v>
+        <v>145.2043978869175</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.98001800579132</v>
+        <v>115.9958573888775</v>
       </c>
       <c r="IS3" t="n">
-        <v>257.0374671017547</v>
+        <v>87.34573964608381</v>
       </c>
       <c r="IT3" t="n">
-        <v>82934.74269866895</v>
+        <v>36.98001800433089</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.124816998446117</v>
+        <v>257.0374671031486</v>
       </c>
       <c r="IV3" t="n">
-        <v>309409.4031794576</v>
+        <v>82934.74270045139</v>
       </c>
       <c r="IW3" t="n">
-        <v>383141.1682694584</v>
+        <v>1.124816998464187</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.919886558151</v>
+        <v>309409.4031804533</v>
       </c>
       <c r="IY3" t="n">
-        <v>-590753.2024229165</v>
+        <v>383141.1682708543</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.4704925479446</v>
+        <v>3788.919886557417</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.118615028098</v>
+        <v>-590753.2024266134</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402875101602092</v>
+        <v>716.4704925479811</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993139907805555</v>
+        <v>1005.118615028149</v>
       </c>
       <c r="JD3" t="n">
-        <v>321.5054477198494</v>
+        <v>1.402875101602091</v>
       </c>
       <c r="JE3" t="n">
-        <v>116267.5559343319</v>
+        <v>0.9993139907805596</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.600851647426056e-06</v>
+        <v>321.5054477207223</v>
       </c>
       <c r="JG3" t="n">
-        <v>82878.05222400319</v>
+        <v>116267.5559368311</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.206592062874735e-05</v>
+        <v>8.60085164724118e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.00390397762140435</v>
+        <v>82878.05222578475</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.639853367022876e-05</v>
+        <v>1.206592062848798e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02310880889619794</v>
+        <v>0.003903977621383256</v>
       </c>
       <c r="JL3" t="n">
-        <v>82934.74269866895</v>
+        <v>1.63985336703006e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.124816998446117</v>
+        <v>0.02310880889630738</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.124816998446117</v>
+        <v>82934.74270045139</v>
       </c>
       <c r="JO3" t="n">
-        <v>309409.4031794576</v>
+        <v>1.124816998464187</v>
       </c>
       <c r="JP3" t="n">
-        <v>383141.1682694584</v>
+        <v>1.124816998464187</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.919886558151</v>
+        <v>309409.4031804533</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.4704925479446</v>
+        <v>383141.1682708543</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.118615028098</v>
+        <v>3788.919886557417</v>
       </c>
       <c r="JT3" t="n">
-        <v>321.5054477198494</v>
+        <v>716.4704925479811</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993139907805555</v>
+        <v>1005.118615028149</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.639853367022876e-05</v>
+        <v>321.5054477207223</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02310880889619794</v>
-      </c>
-      <c r="JX3" t="inlineStr">
+        <v>0.9993139907805596</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>1.63985336703006e-05</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>0.02310880889630738</v>
+      </c>
+      <c r="JZ3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="JY3" t="b">
+      <c r="KA3" t="b">
         <v>1</v>
       </c>
-      <c r="JZ3" t="n">
-        <v>295.5933755787668</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>135142.8784022624</v>
-      </c>
       <c r="KB3" t="n">
-        <v>1.593477963155201</v>
+        <v>295.5933755787674</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.4233399855</v>
+        <v>135142.8784026078</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310884892</v>
+        <v>1.593477963159272</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.919886557851</v>
+        <v>336974.4233399854</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698195.1879766637</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8557944799095</v>
+        <v>3788.919886557117</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.774673228937</v>
+        <v>-698195.1879764496</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402474815932008</v>
+        <v>717.8557944799103</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995307875089517</v>
+        <v>1006.774673228942</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8024274223841</v>
+        <v>1.402474815932014</v>
       </c>
       <c r="KL3" t="n">
-        <v>189446.5457573353</v>
+        <v>0.9995307875089505</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.278533826005535e-06</v>
+        <v>344.8024274223849</v>
       </c>
       <c r="KN3" t="n">
-        <v>135080.1765602041</v>
+        <v>189446.5457578202</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.403010756017991e-06</v>
+        <v>5.278533825992027e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395610227216338</v>
+        <v>135080.1765605492</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832921822184263e-05</v>
+        <v>7.403010755999078e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606722400099814</v>
+        <v>0.003395610227216362</v>
       </c>
       <c r="KS3" t="n">
-        <v>135142.8784022624</v>
+        <v>1.832921822184271e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.593477963155201</v>
+        <v>0.0260672240009983</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.593477963155201</v>
+        <v>135142.8784026078</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.4233399855</v>
+        <v>1.593477963159272</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310884892</v>
+        <v>1.593477963159272</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.919886557851</v>
+        <v>336974.4233399854</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8557944799095</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.774673228937</v>
+        <v>3788.919886557117</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8024274223841</v>
+        <v>717.8557944799103</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995307875089517</v>
+        <v>1006.774673228942</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832921822184263e-05</v>
+        <v>344.8024274223849</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606722400099814</v>
-      </c>
-      <c r="LE3" t="inlineStr">
+        <v>0.9995307875089505</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>1.832921822184271e-05</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>0.0260672240009983</v>
+      </c>
+      <c r="LG3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="LF3" t="b">
+      <c r="LH3" t="b">
         <v>1</v>
       </c>
-      <c r="LG3" t="n">
-        <v>267.5608469992013</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>95409.78892442158</v>
-      </c>
       <c r="LI3" t="n">
-        <v>1.243057550900591</v>
+        <v>267.5608469997762</v>
       </c>
       <c r="LJ3" t="n">
-        <v>316929.2064541615</v>
+        <v>95409.78892538011</v>
       </c>
       <c r="LK3" t="n">
-        <v>393683.3268529294</v>
+        <v>1.243057550910407</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.919886559348</v>
+        <v>316929.2064545718</v>
       </c>
       <c r="LM3" t="n">
-        <v>-620083.2872070075</v>
+        <v>393683.3268535048</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.7674741389732</v>
+        <v>3788.919886558616</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.48863507882</v>
+        <v>-620083.2872084144</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402810076289632</v>
+        <v>716.7674741389919</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993621730097733</v>
+        <v>1005.488635078847</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.0291303261974</v>
+        <v>1.402810076289633</v>
       </c>
       <c r="LS3" t="n">
-        <v>133756.8588117104</v>
+        <v>0.9993621730097745</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.476252125565391e-06</v>
+        <v>328.0291303265503</v>
       </c>
       <c r="LU3" t="n">
-        <v>95349.22871775425</v>
+        <v>133756.8588130545</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.048776181462491e-05</v>
+        <v>7.476252125490264e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003750723525129294</v>
+        <v>95349.22871871234</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.693635799615381e-05</v>
+        <v>1.048776181451953e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02392923167047831</v>
+        <v>0.003750723525121283</v>
       </c>
       <c r="LZ3" t="n">
-        <v>95409.78892442158</v>
+        <v>1.693635799618299e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.243057550900591</v>
+        <v>0.02392923167052295</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.243057550900591</v>
+        <v>95409.78892538011</v>
       </c>
       <c r="MC3" t="n">
-        <v>316929.2064541615</v>
+        <v>1.243057550910407</v>
       </c>
       <c r="MD3" t="n">
-        <v>393683.3268529294</v>
+        <v>1.243057550910407</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.919886559348</v>
+        <v>316929.2064545718</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.7674741389732</v>
+        <v>393683.3268535048</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.48863507882</v>
+        <v>3788.919886558616</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.0291303261974</v>
+        <v>716.7674741389919</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993621730097733</v>
+        <v>1005.488635078847</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.693635799615381e-05</v>
+        <v>328.0291303265503</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02392923167047831</v>
-      </c>
-      <c r="ML3" t="inlineStr">
+        <v>0.9993621730097745</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>1.693635799618299e-05</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>0.02392923167052295</v>
+      </c>
+      <c r="MN3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="MM3" t="b">
+      <c r="MO3" t="b">
         <v>1</v>
       </c>
-      <c r="MN3" t="n">
-        <v>0.8646962110565326</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>0.4516389968493856</v>
-      </c>
       <c r="MP3" t="n">
-        <v>259555.9784782642</v>
+        <v>0.8646962110408125</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.801075364004989</v>
+        <v>0.4516389968391772</v>
       </c>
       <c r="MR3" t="n">
-        <v>380020.7528877092</v>
+        <v>259555.9784761348</v>
       </c>
       <c r="MS3" t="n">
+        <v>2.801075364048043</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>380020.7528884851</v>
+      </c>
+      <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
-      <c r="MT3" t="n">
-        <v>142.2541798765498</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>129.9830867720786</v>
-      </c>
       <c r="MV3" t="n">
-        <v>-57.79834639115597</v>
+        <v>142.2541798786798</v>
       </c>
       <c r="MW3" t="n">
-        <v>-23.9728260575515</v>
+        <v>129.9830867739994</v>
       </c>
       <c r="MX3" t="n">
-        <v>258.2051565111023</v>
+        <v>-57.79834639207903</v>
       </c>
       <c r="MY3" t="n">
-        <v>129.9830867720786</v>
+        <v>-23.97282605757689</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-223.101546391156</v>
+        <v>258.2051565128668</v>
       </c>
       <c r="NA3" t="n">
-        <v>-59.77413117872305</v>
+        <v>129.9830867739994</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.267576075686</v>
+        <v>-223.101546392079</v>
       </c>
       <c r="NC3" t="n">
-        <v>57500.00000390804</v>
+        <v>-59.7741311784579</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8556917874826379</v>
+        <v>234.2675760759986</v>
       </c>
       <c r="NE3" t="n">
-        <v>293151.283151727</v>
+        <v>57500.00000221885</v>
       </c>
       <c r="NF3" t="n">
-        <v>360348.3754284537</v>
+        <v>0.8556917874563363</v>
       </c>
       <c r="NG3" t="n">
-        <v>3801.131194279902</v>
+        <v>293151.2831519559</v>
       </c>
       <c r="NH3" t="n">
-        <v>-530133.4158011761</v>
+        <v>360348.375428774</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9885931999784</v>
+        <v>3801.131194289694</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421377282792</v>
+        <v>-530133.4158043383</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402845501761022</v>
+        <v>715.988593199974</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992681996164227</v>
+        <v>1004.421377282742</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.9173694665561</v>
+        <v>1.402845501760961</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.68747186579</v>
+        <v>0.9992681996164483</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622637919215e-05</v>
+        <v>306.9173694667621</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.99332191679</v>
+        <v>80604.68746949645</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740401886987863e-05</v>
+        <v>1.240622637955682e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004282029684705284</v>
+        <v>57457.99332023032</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.520413469670139e-05</v>
+        <v>1.740401887038946e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02129651313165206</v>
+        <v>0.004282029684699123</v>
       </c>
       <c r="NU3" t="n">
-        <v>57500.00000390804</v>
+        <v>1.520413469671776e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8556917874826379</v>
+        <v>0.02129651313167648</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8556917874826379</v>
+        <v>57500.00000221885</v>
       </c>
       <c r="NX3" t="n">
-        <v>293151.283151727</v>
+        <v>0.8556917874563363</v>
       </c>
       <c r="NY3" t="n">
-        <v>360348.3754284537</v>
+        <v>0.8556917874563363</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3801.131194279902</v>
+        <v>293151.2831519559</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9885931999784</v>
+        <v>360348.375428774</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421377282792</v>
+        <v>3801.131194289694</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.9173694665561</v>
+        <v>715.988593199974</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992681996164227</v>
+        <v>1004.421377282742</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.520413469670139e-05</v>
+        <v>306.9173694667621</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02129651313165206</v>
-      </c>
-      <c r="OG3" t="inlineStr">
+        <v>0.9992681996164483</v>
+      </c>
+      <c r="OG3" t="n">
+        <v>1.520413469671776e-05</v>
+      </c>
+      <c r="OH3" t="n">
+        <v>0.02129651313167648</v>
+      </c>
+      <c r="OI3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="OH3" t="b">
+      <c r="OJ3" t="b">
         <v>1</v>
       </c>
-      <c r="OI3" t="n">
-        <v>244.3720243352459</v>
-      </c>
-      <c r="OJ3" t="n">
-        <v>66632.99544942639</v>
-      </c>
       <c r="OK3" t="n">
-        <v>0.9505765335549247</v>
+        <v>244.3720243358606</v>
       </c>
       <c r="OL3" t="n">
-        <v>300369.0466275821</v>
+        <v>66632.99544774425</v>
       </c>
       <c r="OM3" t="n">
-        <v>370466.5012746427</v>
+        <v>0.950576533528512</v>
       </c>
       <c r="ON3" t="n">
-        <v>3801.13119429831</v>
+        <v>300369.0466280275</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558423.6234398861</v>
+        <v>370466.5012752662</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1701763799455</v>
+        <v>3801.131194308104</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.668498245156</v>
+        <v>-558423.6234439923</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402834872744205</v>
+        <v>716.1701763799482</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992968807355906</v>
+        <v>1004.668498245113</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.4743613859412</v>
+        <v>1.40283487274414</v>
       </c>
       <c r="OU3" t="n">
-        <v>93409.52023135108</v>
+        <v>0.9992968807356165</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.070554690274889e-05</v>
+        <v>313.4743613863363</v>
       </c>
       <c r="OW3" t="n">
-        <v>66586.25476612561</v>
+        <v>93409.52022899108</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.501811452697486e-05</v>
+        <v>1.070554690301936e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004105321302557697</v>
+        <v>66586.25476444636</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573920277612821e-05</v>
+        <v>1.50181145273536e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210645759386135</v>
+        <v>0.004105321302546942</v>
       </c>
       <c r="PB3" t="n">
-        <v>66632.99544942639</v>
+        <v>1.573920277616014e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9505765335549247</v>
+        <v>0.02210645759390943</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9505765335549247</v>
+        <v>66632.99544774425</v>
       </c>
       <c r="PE3" t="n">
-        <v>300369.0466275821</v>
+        <v>0.950576533528512</v>
       </c>
       <c r="PF3" t="n">
-        <v>370466.5012746427</v>
+        <v>0.950576533528512</v>
       </c>
       <c r="PG3" t="n">
-        <v>3801.13119429831</v>
+        <v>300369.0466280275</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1701763799455</v>
+        <v>370466.5012752662</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.668498245156</v>
+        <v>3801.131194308104</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.4743613859412</v>
+        <v>716.1701763799482</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992968807355906</v>
+        <v>1004.668498245113</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573920277612821e-05</v>
+        <v>313.4743613863363</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210645759386135</v>
-      </c>
-      <c r="PN3" t="inlineStr">
+        <v>0.9992968807356165</v>
+      </c>
+      <c r="PN3" t="n">
+        <v>1.573920277616014e-05</v>
+      </c>
+      <c r="PO3" t="n">
+        <v>0.02210645759390943</v>
+      </c>
+      <c r="PP3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="PO3" t="b">
+      <c r="PQ3" t="b">
         <v>1</v>
       </c>
-      <c r="PP3" t="n">
-        <v>267.5495628187924</v>
-      </c>
-      <c r="PQ3" t="n">
-        <v>91433.66777621213</v>
-      </c>
       <c r="PR3" t="n">
-        <v>1.191273068307546</v>
+        <v>267.5495628193703</v>
       </c>
       <c r="PS3" t="n">
-        <v>316930.4225787543</v>
+        <v>91433.66777823512</v>
       </c>
       <c r="PT3" t="n">
-        <v>393683.3268529295</v>
+        <v>1.191273068331338</v>
       </c>
       <c r="PU3" t="n">
-        <v>3801.131194296629</v>
+        <v>316930.4225791642</v>
       </c>
       <c r="PV3" t="n">
-        <v>-623307.6623980078</v>
+        <v>393683.3268535048</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7542328845874</v>
+        <v>3801.131194292432</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.405768332084</v>
+        <v>-623307.6623985064</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402720377786698</v>
+        <v>716.7542328846097</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993884871635391</v>
+        <v>1005.405768332133</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.0203213062381</v>
+        <v>1.402720377786724</v>
       </c>
       <c r="QB3" t="n">
-        <v>128177.8028682331</v>
+        <v>0.999388487163533</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.801662827907892e-06</v>
+        <v>328.0203213065934</v>
       </c>
       <c r="QD3" t="n">
-        <v>91378.0143912077</v>
+        <v>128177.8028710707</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.094355142932739e-05</v>
+        <v>7.80166282773518e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003750331145266095</v>
+        <v>91378.01439322889</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.693518207725303e-05</v>
+        <v>1.094355142908533e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02392694597250981</v>
+        <v>0.003750331145258195</v>
       </c>
       <c r="QI3" t="n">
-        <v>91433.66777621213</v>
+        <v>1.693518207728253e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.191273068307546</v>
+        <v>0.02392694597255506</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.191273068307546</v>
+        <v>91433.66777823512</v>
       </c>
       <c r="QL3" t="n">
-        <v>316930.4225787543</v>
+        <v>1.191273068331338</v>
       </c>
       <c r="QM3" t="n">
-        <v>393683.3268529295</v>
+        <v>1.191273068331338</v>
       </c>
       <c r="QN3" t="n">
-        <v>3801.131194296629</v>
+        <v>316930.4225791642</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7542328845874</v>
+        <v>393683.3268535048</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.405768332084</v>
+        <v>3801.131194292432</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.0203213062381</v>
+        <v>716.7542328846097</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993884871635391</v>
+        <v>1005.405768332133</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.693518207725303e-05</v>
+        <v>328.0203213065934</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02392694597250981</v>
-      </c>
-      <c r="QU3" t="inlineStr">
+        <v>0.999388487163533</v>
+      </c>
+      <c r="QU3" t="n">
+        <v>1.693518207728253e-05</v>
+      </c>
+      <c r="QV3" t="n">
+        <v>0.02392694597255506</v>
+      </c>
+      <c r="QW3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="QV3" t="b">
+      <c r="QX3" t="b">
         <v>1</v>
       </c>
-      <c r="QW3" t="n">
-        <v>0.4634934155854311</v>
-      </c>
-      <c r="QX3" t="n">
-        <v>0.8412855778083886</v>
-      </c>
       <c r="QY3" t="n">
-        <v>378699.7146823238</v>
+        <v>0.4634934155920603</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.801075364192245</v>
+        <v>0.8412855778135729</v>
       </c>
       <c r="RA3" t="n">
-        <v>380020.7528877092</v>
+        <v>378699.7146728638</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02693962188707154</v>
+        <v>2.801075364147539</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.00276612513009967</v>
+        <v>380020.7528884851</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01174717696695905</v>
+        <v>0.02693962188498152</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03296430785394792</v>
+        <v>0.002766125128993042</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04275610682187619</v>
+        <v>0.01174717696700834</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1171733386599544</v>
+        <v>0.03296430785343795</v>
       </c>
       <c r="RH3" t="n">
-        <v>1.531219595563016e-11</v>
+        <v>0.04275610682072112</v>
       </c>
       <c r="RI3" t="n">
+        <v>0.117173338655142</v>
+      </c>
+      <c r="RJ3" t="n">
+        <v>-2.035810409140026e-11</v>
+      </c>
+      <c r="RK3" t="n">
         <v>0</v>
+      </c>
+      <c r="RL3" t="n">
+        <v>357504.9813035143</v>
       </c>
     </row>
   </sheetData>
@@ -6189,7 +6226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JK3"/>
+  <dimension ref="A1:JC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6845,712 +6882,672 @@
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
+          <t>h_is_throat_1</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
           <t>dh_s_1</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>incidence_1</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_profile_1</t>
-        </is>
-      </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_incidence_1</t>
+          <t>loss_profile_2</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_secondary_1</t>
+          <t>loss_incidence_2</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_clearance_1</t>
+          <t>loss_trailing_2</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_trailing_1</t>
+          <t>loss_secondary_2</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>loss_profile_2</t>
+          <t>loss_clearance_2</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>loss_incidence_2</t>
+          <t>loss_total_2</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>loss_trailing_2</t>
+          <t>loss_error_2</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>loss_secondary_2</t>
+          <t>blade_speed_throat_2</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>loss_clearance_2</t>
+          <t>v_throat_2</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>loss_total_2</t>
+          <t>v_m_throat_2</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>loss_error_2</t>
+          <t>v_t_throat_2</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>blade_speed_throat_2</t>
+          <t>alpha_throat_2</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>v_throat_2</t>
+          <t>w_throat_2</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>v_m_throat_2</t>
+          <t>w_m_throat_2</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>v_t_throat_2</t>
+          <t>w_t_throat_2</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>alpha_throat_2</t>
+          <t>beta_throat_2</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>w_throat_2</t>
+          <t>T_throat_2</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>w_m_throat_2</t>
+          <t>p_throat_2</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>w_t_throat_2</t>
+          <t>rhomass_throat_2</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>beta_throat_2</t>
+          <t>umass_throat_2</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>T_throat_2</t>
+          <t>hmass_throat_2</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>p_throat_2</t>
+          <t>smass_throat_2</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>rhomass_throat_2</t>
+          <t>gibbsmass_throat_2</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>umass_throat_2</t>
+          <t>cvmass_throat_2</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>hmass_throat_2</t>
+          <t>cpmass_throat_2</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>smass_throat_2</t>
+          <t>gamma_throat_2</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass_throat_2</t>
+          <t>compressibility_factor_throat_2</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>cvmass_throat_2</t>
+          <t>speed_sound_throat_2</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>cpmass_throat_2</t>
+          <t>isentropic_bulk_modulus_throat_2</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>gamma_throat_2</t>
+          <t>isentropic_compressibility_throat_2</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor_throat_2</t>
+          <t>isothermal_bulk_modulus_throat_2</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound_throat_2</t>
+          <t>isothermal_compressibility_throat_2</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus_throat_2</t>
+          <t>isobaric_expansion_coefficient_throat_2</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility_throat_2</t>
+          <t>viscosity_throat_2</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus_throat_2</t>
+          <t>conductivity_throat_2</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility_throat_2</t>
+          <t>P_throat_2</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient_throat_2</t>
+          <t>rho_throat_2</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>viscosity_throat_2</t>
+          <t>d_throat_2</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>conductivity_throat_2</t>
+          <t>u_throat_2</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>P_throat_2</t>
+          <t>h_throat_2</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>rho_throat_2</t>
+          <t>s_throat_2</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>d_throat_2</t>
+          <t>cv_throat_2</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>u_throat_2</t>
+          <t>cp_throat_2</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>h_throat_2</t>
+          <t>a_throat_2</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>s_throat_2</t>
+          <t>Z_throat_2</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>cv_throat_2</t>
+          <t>mu_throat_2</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>cp_throat_2</t>
+          <t>k_throat_2</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>a_throat_2</t>
+          <t>fluid_name_throat_2</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>Z_throat_2</t>
+          <t>converged_throat_2</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>mu_throat_2</t>
+          <t>T0_throat_2</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>k_throat_2</t>
+          <t>p0_throat_2</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name_throat_2</t>
+          <t>rhomass0_throat_2</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>converged_throat_2</t>
+          <t>umass0_throat_2</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>T0_throat_2</t>
+          <t>hmass0_throat_2</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>p0_throat_2</t>
+          <t>smass0_throat_2</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_throat_2</t>
+          <t>gibbsmass0_throat_2</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>umass0_throat_2</t>
+          <t>cvmass0_throat_2</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_throat_2</t>
+          <t>cpmass0_throat_2</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>smass0_throat_2</t>
+          <t>gamma0_throat_2</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_throat_2</t>
+          <t>compressibility_factor0_throat_2</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_throat_2</t>
+          <t>speed_sound0_throat_2</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_throat_2</t>
+          <t>isentropic_bulk_modulus0_throat_2</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_throat_2</t>
+          <t>isentropic_compressibility0_throat_2</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_throat_2</t>
+          <t>isothermal_bulk_modulus0_throat_2</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_throat_2</t>
+          <t>isothermal_compressibility0_throat_2</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_throat_2</t>
+          <t>isobaric_expansion_coefficient0_throat_2</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_throat_2</t>
+          <t>viscosity0_throat_2</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_throat_2</t>
+          <t>conductivity0_throat_2</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_throat_2</t>
+          <t>P0_throat_2</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_throat_2</t>
+          <t>rho0_throat_2</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_throat_2</t>
+          <t>d0_throat_2</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_throat_2</t>
+          <t>u0_throat_2</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>P0_throat_2</t>
+          <t>h0_throat_2</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>rho0_throat_2</t>
+          <t>s0_throat_2</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>d0_throat_2</t>
+          <t>cv0_throat_2</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>u0_throat_2</t>
+          <t>cp0_throat_2</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>h0_throat_2</t>
+          <t>a0_throat_2</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>s0_throat_2</t>
+          <t>Z0_throat_2</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>cv0_throat_2</t>
+          <t>mu0_throat_2</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>cp0_throat_2</t>
+          <t>k0_throat_2</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>a0_throat_2</t>
+          <t>fluid_name0_throat_2</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>Z0_throat_2</t>
+          <t>converged0_throat_2</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>mu0_throat_2</t>
+          <t>T0_rel_throat_2</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>k0_throat_2</t>
+          <t>p0_rel_throat_2</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_throat_2</t>
+          <t>rhomass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>converged0_throat_2</t>
+          <t>umass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>T0_rel_throat_2</t>
+          <t>hmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>p0_rel_throat_2</t>
+          <t>smass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_rel_throat_2</t>
+          <t>gibbsmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>umass0_rel_throat_2</t>
+          <t>cvmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_rel_throat_2</t>
+          <t>cpmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>smass0_rel_throat_2</t>
+          <t>gamma0_rel_throat_2</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_rel_throat_2</t>
+          <t>compressibility_factor0_rel_throat_2</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_rel_throat_2</t>
+          <t>speed_sound0_rel_throat_2</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_rel_throat_2</t>
+          <t>isentropic_bulk_modulus0_rel_throat_2</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_rel_throat_2</t>
+          <t>isentropic_compressibility0_rel_throat_2</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_rel_throat_2</t>
+          <t>isothermal_bulk_modulus0_rel_throat_2</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_rel_throat_2</t>
+          <t>isothermal_compressibility0_rel_throat_2</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_rel_throat_2</t>
+          <t>isobaric_expansion_coefficient0_rel_throat_2</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_rel_throat_2</t>
+          <t>viscosity0_rel_throat_2</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_rel_throat_2</t>
+          <t>conductivity0_rel_throat_2</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_rel_throat_2</t>
+          <t>P0_rel_throat_2</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_rel_throat_2</t>
+          <t>rho0_rel_throat_2</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_rel_throat_2</t>
+          <t>d0_rel_throat_2</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_rel_throat_2</t>
+          <t>u0_rel_throat_2</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>P0_rel_throat_2</t>
+          <t>h0_rel_throat_2</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>rho0_rel_throat_2</t>
+          <t>s0_rel_throat_2</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>d0_rel_throat_2</t>
+          <t>cv0_rel_throat_2</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>u0_rel_throat_2</t>
+          <t>cp0_rel_throat_2</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>h0_rel_throat_2</t>
+          <t>a0_rel_throat_2</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>s0_rel_throat_2</t>
+          <t>Z0_rel_throat_2</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>cv0_rel_throat_2</t>
+          <t>mu0_rel_throat_2</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>cp0_rel_throat_2</t>
+          <t>k0_rel_throat_2</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>a0_rel_throat_2</t>
+          <t>fluid_name0_rel_throat_2</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>Z0_rel_throat_2</t>
+          <t>converged0_rel_throat_2</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>mu0_rel_throat_2</t>
+          <t>loss_profile_throat_2</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>k0_rel_throat_2</t>
+          <t>loss_incidence_throat_2</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_rel_throat_2</t>
+          <t>loss_trailing_throat_2</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>converged0_rel_throat_2</t>
+          <t>loss_secondary_throat_2</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>loss_profile_throat_2</t>
+          <t>loss_clearance_throat_2</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>loss_incidence_throat_2</t>
+          <t>loss_total_throat_2</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>loss_trailing_throat_2</t>
+          <t>loss_error_throat_2</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>loss_secondary_throat_2</t>
+          <t>Ma_throat_2</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>loss_clearance_throat_2</t>
+          <t>Ma_rel_throat_2</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>loss_total_throat_2</t>
+          <t>Re_throat_2</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>loss_error_throat_2</t>
+          <t>mass_flow_throat_2</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>Ma_throat_2</t>
+          <t>rothalpy_throat_2</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>Ma_rel_throat_2</t>
+          <t>blockage_throat_2</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>Re_throat_2</t>
+          <t>h_is_throat_2</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>mass_flow_throat_2</t>
+          <t>dh_s_2</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>rothalpy_throat_2</t>
-        </is>
-      </c>
-      <c r="JD1" s="1" t="inlineStr">
-        <is>
-          <t>blockage_throat_2</t>
-        </is>
-      </c>
-      <c r="JE1" s="1" t="inlineStr">
-        <is>
-          <t>dh_s_2</t>
-        </is>
-      </c>
-      <c r="JF1" s="1" t="inlineStr">
-        <is>
           <t>incidence_2</t>
-        </is>
-      </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_profile_2</t>
-        </is>
-      </c>
-      <c r="JH1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_incidence_2</t>
-        </is>
-      </c>
-      <c r="JI1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_secondary_2</t>
-        </is>
-      </c>
-      <c r="JJ1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_clearance_2</t>
-        </is>
-      </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_trailing_2</t>
         </is>
       </c>
     </row>
@@ -7559,145 +7556,145 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01561897651666977</v>
+        <v>0.01561897652535764</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.808493700767934e-07</v>
+        <v>-1.808493700719725e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01378013287981708</v>
+        <v>0.01378013288009363</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02533043296365975</v>
+        <v>0.0253304329599657</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05472936151077651</v>
+        <v>0.0547293615160469</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.142757499212777e-11</v>
+        <v>2.755344979954444e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>274.1678062393254</v>
+        <v>274.1678062151324</v>
       </c>
       <c r="K2" t="n">
-        <v>112.0265245522704</v>
+        <v>112.026524542385</v>
       </c>
       <c r="L2" t="n">
-        <v>250.2359761801325</v>
+        <v>250.2359761580513</v>
       </c>
       <c r="M2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="N2" t="n">
-        <v>274.1678062393254</v>
+        <v>274.1678062151324</v>
       </c>
       <c r="O2" t="n">
-        <v>112.0265245522704</v>
+        <v>112.026524542385</v>
       </c>
       <c r="P2" t="n">
-        <v>250.2359761801325</v>
+        <v>250.2359761580513</v>
       </c>
       <c r="Q2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="R2" t="n">
-        <v>258.1003988461109</v>
+        <v>258.1003988525393</v>
       </c>
       <c r="S2" t="n">
-        <v>85911.41387984977</v>
+        <v>85911.41388517867</v>
       </c>
       <c r="T2" t="n">
-        <v>1.160401424029841</v>
+        <v>1.160401424072864</v>
       </c>
       <c r="U2" t="n">
-        <v>310164.4949329909</v>
+        <v>310164.494937589</v>
       </c>
       <c r="V2" t="n">
-        <v>384200.4380995347</v>
+        <v>384200.4381059802</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347711062</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="X2" t="n">
-        <v>-592172.0381465624</v>
+        <v>-592172.0381662883</v>
       </c>
       <c r="Y2" t="n">
-        <v>716.5043828474172</v>
+        <v>716.5043828475776</v>
       </c>
       <c r="Z2" t="n">
-        <v>1005.193756831341</v>
+        <v>1005.193756831506</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402913619085847</v>
+        <v>1.402913619085763</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9993041882928959</v>
+        <v>0.9993041882929413</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.1708149446163</v>
+        <v>322.1708149486334</v>
       </c>
       <c r="AD2" t="n">
-        <v>120442.7448618133</v>
+        <v>120442.7448692824</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.302700184617368e-06</v>
+        <v>8.302700184102488e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>85851.86088669882</v>
+        <v>85851.86089202794</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.164797116418628e-05</v>
+        <v>1.164797116346325e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003888215538476409</v>
+        <v>0.003888215538379419</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.645352168441955e-05</v>
+        <v>1.645352168474987e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02319279784509185</v>
+        <v>0.02319279784559476</v>
       </c>
       <c r="AK2" t="n">
-        <v>85911.41387984977</v>
+        <v>85911.41388517867</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.160401424029841</v>
+        <v>1.160401424072864</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.160401424029841</v>
+        <v>1.160401424072864</v>
       </c>
       <c r="AN2" t="n">
-        <v>310164.4949329909</v>
+        <v>310164.494937589</v>
       </c>
       <c r="AO2" t="n">
-        <v>384200.4380995347</v>
+        <v>384200.4381059802</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347711062</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="AQ2" t="n">
-        <v>716.5043828474172</v>
+        <v>716.5043828475776</v>
       </c>
       <c r="AR2" t="n">
-        <v>1005.193756831341</v>
+        <v>1005.193756831506</v>
       </c>
       <c r="AS2" t="n">
-        <v>322.1708149446163</v>
+        <v>322.1708149486334</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9993041882928959</v>
+        <v>0.9993041882929413</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.645352168441955e-05</v>
+        <v>1.645352168474987e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02319279784509185</v>
+        <v>0.02319279784559476</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -7708,13 +7705,13 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.6000000000885</v>
+        <v>295.6000000000886</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999951879</v>
+        <v>137999.9999951877</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819755047</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="BB2" t="n">
         <v>336973.3475828946</v>
@@ -7726,10 +7723,10 @@
         <v>3782.91734772336</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368987704</v>
+        <v>-696445.9368987706</v>
       </c>
       <c r="BF2" t="n">
-        <v>717.8632360362554</v>
+        <v>717.8632360362553</v>
       </c>
       <c r="BG2" t="n">
         <v>1006.821582550249</v>
@@ -7744,19 +7741,19 @@
         <v>344.8092213940488</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974370102</v>
+        <v>193456.8974370098</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087303045e-06</v>
+        <v>5.169110087303054e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617460249</v>
+        <v>137934.6617460247</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346988293e-06</v>
+        <v>7.249809346988305e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695745238</v>
+        <v>0.003395798695745236</v>
       </c>
       <c r="BP2" t="n">
         <v>1.832995174012118e-05</v>
@@ -7765,13 +7762,13 @@
         <v>0.02606863419706635</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999951879</v>
+        <v>137999.9999951877</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819755047</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819755047</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="BU2" t="n">
         <v>336973.3475828946</v>
@@ -7783,7 +7780,7 @@
         <v>3782.91734772336</v>
       </c>
       <c r="BX2" t="n">
-        <v>717.8632360362554</v>
+        <v>717.8632360362553</v>
       </c>
       <c r="BY2" t="n">
         <v>1006.821582550249</v>
@@ -7809,13 +7806,13 @@
         <v>1</v>
       </c>
       <c r="CF2" t="n">
-        <v>295.6000000000885</v>
+        <v>295.6000000000886</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999951879</v>
+        <v>137999.9999951877</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819755047</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="CI2" t="n">
         <v>336973.3475828946</v>
@@ -7827,10 +7824,10 @@
         <v>3782.91734772336</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368987704</v>
+        <v>-696445.9368987706</v>
       </c>
       <c r="CM2" t="n">
-        <v>717.8632360362554</v>
+        <v>717.8632360362553</v>
       </c>
       <c r="CN2" t="n">
         <v>1006.821582550249</v>
@@ -7845,19 +7842,19 @@
         <v>344.8092213940488</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974370102</v>
+        <v>193456.8974370098</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087303045e-06</v>
+        <v>5.169110087303054e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617460249</v>
+        <v>137934.6617460247</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346988293e-06</v>
+        <v>7.249809346988305e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695745238</v>
+        <v>0.003395798695745236</v>
       </c>
       <c r="CW2" t="n">
         <v>1.832995174012118e-05</v>
@@ -7866,13 +7863,13 @@
         <v>0.02606863419706635</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999951879</v>
+        <v>137999.9999951877</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819755047</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819755047</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="DB2" t="n">
         <v>336973.3475828946</v>
@@ -7884,7 +7881,7 @@
         <v>3782.91734772336</v>
       </c>
       <c r="DE2" t="n">
-        <v>717.8632360362554</v>
+        <v>717.8632360362553</v>
       </c>
       <c r="DF2" t="n">
         <v>1006.821582550249</v>
@@ -7910,37 +7907,37 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.01607522977154078</v>
+        <v>0.01607522977248892</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.810779379514326e-07</v>
+        <v>-1.810779379779741e-07</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.01379738282249379</v>
+        <v>0.01379738282248502</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.02509842428959148</v>
+        <v>0.02509842428980178</v>
       </c>
       <c r="DQ2" t="n">
         <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.05497085580568809</v>
+        <v>0.05497085580683774</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.05497085580568809</v>
+        <v>-0.05497085580683774</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.8510013741823789</v>
+        <v>0.8510013740966741</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.8510013741823789</v>
+        <v>0.8510013740966743</v>
       </c>
       <c r="DV2" t="n">
-        <v>505828.8338532948</v>
+        <v>505828.8338172587</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.790805431816145</v>
+        <v>2.790805431673351</v>
       </c>
       <c r="DX2" t="n">
         <v>421784.4310884894</v>
@@ -7949,436 +7946,412 @@
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1509.720683964202</v>
+        <v>384200.4381059802</v>
       </c>
       <c r="EA2" t="n">
+        <v>1509.720692161995</v>
+      </c>
+      <c r="EB2" t="n">
         <v>0</v>
       </c>
-      <c r="EB2" t="n">
-        <v>0.006627777978105017</v>
-      </c>
       <c r="EC2" t="n">
-        <v>-7.674187044649609e-08</v>
+        <v>0.02607389602229048</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.01074875076438141</v>
+        <v>0.002221780604986662</v>
       </c>
       <c r="EE2" t="n">
+        <v>0.01178846742599047</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.03262518113249034</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.04229027500589256</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.1149996001916505</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>5.20255227787203e-11</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>165.3032</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>132.0703461336967</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>120.641470069901</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>-53.74208804324252</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>-24.01151112635009</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>250.0703951182025</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>120.641470069901</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>-219.0452880432425</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>-61.15576777799676</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>236.9136066976463</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>62420.8754872978</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.9185702062721067</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>295034.0214372882</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>362988.4086589515</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>3788.783891608392</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>-534626.048099937</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>716.0444568081035</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1004.555855530376</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>1.402923863147218</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.9992433487768622</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>308.6467825658256</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>87505.6032712079</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1.142783961960332e-05</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>62373.73642993298</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1.603238890656073e-05</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.004234886576738869</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1.534551064600743e-05</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.02151067060713703</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>62420.8754872978</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.9185702062721067</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0.9185702062721067</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>295034.0214372882</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>362988.4086589515</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>3788.783891608392</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>716.0444568081035</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1004.555855530376</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>308.6467825658256</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.9992433487768622</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1.534551064600743e-05</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.02151067060713703</v>
+      </c>
+      <c r="FX2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="FY2" t="b">
+        <v>1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>245.6233998793238</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>70805.41930440899</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1.004980274684522</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>301255.1604623392</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>371709.696822902</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>3788.783891608766</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>-558904.2840420587</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>716.2078264162222</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1004.77833238746</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>1.402914482818757</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0.9992703300968471</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>314.2765528788329</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>99261.65218333715</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1.007438399426388e-05</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>70753.88656897972</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>1.413349921103027e-05</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0.004085025007904673</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1.580534532986802e-05</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0.02220721764229777</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>70805.41930440899</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1.004980274684522</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1.004980274684522</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>301255.1604623392</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>371709.696822902</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>3788.783891608766</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>716.2078264162222</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>1004.77833238746</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>314.2765528788329</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>0.9992703300968471</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>1.580534532986802e-05</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0.02220721764229777</v>
+      </c>
+      <c r="HE2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="HF2" t="b">
+        <v>1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>268.1325478421008</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>96169.14341418049</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>1.250276210268196</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>317337.69168854</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>394256.0099164389</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>3788.783891607141</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>-621640.2681632941</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>716.7853702993812</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>1005.511312850918</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>1.402806690140655</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>0.9993647230926556</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>328.3798436103877</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>134821.4367826827</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>7.417218091303166e-06</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>96108.35030246724</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1.040492316071238e-05</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>0.003742747758428514</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1.696534104360775e-05</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0.02397353035643541</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>96169.14341418049</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>1.250276210268196</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>1.250276210268196</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>317337.69168854</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>394256.0099164389</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>3788.783891607141</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>716.7853702993812</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>1005.511312850918</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>328.3798436103877</v>
+      </c>
+      <c r="II2" t="n">
+        <v>0.9993647230926556</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1.696534104360775e-05</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>0.02397353035643541</v>
+      </c>
+      <c r="IL2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="IM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>0.0258954616009783</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>0.002229373816986557</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>0.01188913901036615</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0.03204945912520599</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>0.04286665275502642</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>0.1149300863085634</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>-0.1149300863085634</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>0.4279012566914733</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>0.810215460661313</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>390092.5909888952</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>2.790805431229597</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>380593.4359512185</v>
+      </c>
+      <c r="IZ2" t="n">
         <v>0</v>
       </c>
-      <c r="EF2" t="n">
-        <v>0.005847480540017227</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.02607389602667455</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.002221780594572868</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.01178846742622963</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.03262518112846527</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.04229027499124951</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.1149996001671918</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>8.897382830497236e-11</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>165.3032</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>132.0703461807177</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>120.6414700983589</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-53.74208809491284</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-24.01151114180253</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>250.0703951771912</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>120.6414700983589</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>-219.0452880949128</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-61.15576777799676</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>236.9136066873483</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>62420.87548476703</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.9185702062748963</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>295034.0214299138</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>362988.4086486155</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>3788.783891576393</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>-534626.0480636748</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>716.04445680796</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1004.555855530326</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>1.402923863147429</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0.9992433487767494</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>308.6467825591059</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>87505.60326766339</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1.142783962006622e-05</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>62373.73642739706</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1.603238890721255e-05</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.004234886576924114</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1.534551064546109e-05</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.02151067060631179</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>62420.87548476703</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.9185702062748963</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.9185702062748963</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>295034.0214299138</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>362988.4086486155</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>3788.783891576393</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>716.04445680796</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>1004.555855530326</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>308.6467825591059</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.9992433487767494</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1.534551064546109e-05</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.02151067060631179</v>
-      </c>
-      <c r="GB2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="GC2" t="b">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>245.6233998750302</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>70805.41930796036</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>1.004980274752592</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>301255.1604592517</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>371709.6968185761</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>3788.783891576768</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>-558904.2840222577</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>716.2078264161669</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1004.778332387545</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1.402914482818983</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.9992703300967516</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>314.2765528760815</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>99261.65218832239</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>1.007438399375791e-05</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>70753.88657252173</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1.413349921032273e-05</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0.004085025007977464</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1.580534532964414e-05</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.02220721764195932</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>70805.41930796036</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1.004980274752592</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1.004980274752592</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>301255.1604592517</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>371709.6968185761</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>3788.783891576768</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>716.2078264161669</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1004.778332387545</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>314.2765528760815</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0.9992703300967516</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1.580534532964414e-05</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0.02220721764195932</v>
-      </c>
-      <c r="HI2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="HJ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>268.132547846338</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>96169.14343017801</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1.25027621045648</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>317337.6916915432</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>394256.0099206538</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>3788.783891575142</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>-621640.2681665528</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>716.785370299548</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1005.511312851302</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1.402806690140863</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>0.9993647230926066</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>328.3798436129907</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>134821.4368051234</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>7.417218090068588e-06</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>96108.35031844999</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1.040492315898205e-05</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>0.003742747758370954</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>1.696534104382404e-05</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>0.0239735303567673</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>96169.14343017801</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>1.25027621045648</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1.25027621045648</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>317337.6916915432</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>394256.0099206538</v>
-      </c>
-      <c r="II2" t="n">
-        <v>3788.783891575142</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>716.785370299548</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1005.511312851302</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>328.3798436129907</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>0.9993647230926066</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1.696534104382404e-05</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>0.0239735303567673</v>
-      </c>
-      <c r="IP2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="IQ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>0.02589546160505809</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>0.002229373806658876</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>0.01188913901113991</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>0.03204945911821452</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>0.04286665274395989</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>0.1149300862850313</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>-0.1149300862850313</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>0.427901256853135</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>0.8102154608700732</v>
-      </c>
       <c r="JA2" t="n">
-        <v>390092.5910959866</v>
+        <v>362988.4086570764</v>
       </c>
       <c r="JB2" t="n">
-        <v>2.790805431896391</v>
+        <v>2673.602141962794</v>
       </c>
       <c r="JC2" t="n">
-        <v>380593.4359554336</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>2673.602138777438</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>6.664338487282485</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>0.009324929028913546</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>0.0007945857550791072</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>0.01166789567110156</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>0.01512446826140599</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>0.004215964579930498</v>
+        <v>6.66433850399843</v>
       </c>
     </row>
     <row r="3">
@@ -8386,145 +8359,145 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0156119256537011</v>
+        <v>0.01561192565332767</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.824277019664985e-07</v>
+        <v>-1.824277019710357e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0137798123650177</v>
+        <v>0.01377981236500564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02533404515323136</v>
+        <v>0.02533404515339419</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05472560074424819</v>
+        <v>0.05472560074402552</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.420180805235873e-14</v>
+        <v>-5.157402283018087e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.0073547174902</v>
+        <v>278.0073547130369</v>
       </c>
       <c r="K3" t="n">
-        <v>113.5953858921875</v>
+        <v>113.5953858903679</v>
       </c>
       <c r="L3" t="n">
-        <v>253.7403743613173</v>
+        <v>253.7403743572527</v>
       </c>
       <c r="M3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="N3" t="n">
-        <v>278.0073547174902</v>
+        <v>278.0073547130369</v>
       </c>
       <c r="O3" t="n">
-        <v>113.5953858921875</v>
+        <v>113.5953858903679</v>
       </c>
       <c r="P3" t="n">
-        <v>253.7403743613173</v>
+        <v>253.7403743572527</v>
       </c>
       <c r="Q3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="R3" t="n">
-        <v>257.0420666644057</v>
+        <v>257.0420666656482</v>
       </c>
       <c r="S3" t="n">
-        <v>84687.5971057994</v>
+        <v>84687.59710509458</v>
       </c>
       <c r="T3" t="n">
-        <v>1.148586371894311</v>
+        <v>1.148586371879173</v>
       </c>
       <c r="U3" t="n">
-        <v>309408.3631749264</v>
+        <v>309408.3631758194</v>
       </c>
       <c r="V3" t="n">
-        <v>383140.3864498744</v>
+        <v>383140.3864511254</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347710988</v>
+        <v>3782.917347718243</v>
       </c>
       <c r="X3" t="n">
-        <v>-589228.5066263903</v>
+        <v>-589228.5066317044</v>
       </c>
       <c r="Y3" t="n">
-        <v>716.476968199415</v>
+        <v>716.4769681994391</v>
       </c>
       <c r="Z3" t="n">
-        <v>1005.158877009398</v>
+        <v>1005.15887700939</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402918616540421</v>
+        <v>1.402918616540362</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9992996080680342</v>
+        <v>0.9992996080680572</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.5087000064966</v>
+        <v>321.5087000072743</v>
       </c>
       <c r="AD3" t="n">
-        <v>118726.8971170904</v>
+        <v>118726.8971161</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.422691271159761e-06</v>
+        <v>8.422691271230019e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>84628.49927094798</v>
+        <v>84628.49927024558</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.181635038568253e-05</v>
+        <v>1.181635038578061e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003904192220028482</v>
+        <v>0.003904192220009301</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.639904245966331e-05</v>
+        <v>1.639904245972699e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02310982003033075</v>
+        <v>0.02310982003042744</v>
       </c>
       <c r="AK3" t="n">
-        <v>84687.5971057994</v>
+        <v>84687.59710509458</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.148586371894311</v>
+        <v>1.148586371879173</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.148586371894311</v>
+        <v>1.148586371879173</v>
       </c>
       <c r="AN3" t="n">
-        <v>309408.3631749264</v>
+        <v>309408.3631758194</v>
       </c>
       <c r="AO3" t="n">
-        <v>383140.3864498744</v>
+        <v>383140.3864511254</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347710988</v>
+        <v>3782.917347718243</v>
       </c>
       <c r="AQ3" t="n">
-        <v>716.476968199415</v>
+        <v>716.4769681994391</v>
       </c>
       <c r="AR3" t="n">
-        <v>1005.158877009398</v>
+        <v>1005.15887700939</v>
       </c>
       <c r="AS3" t="n">
-        <v>321.5087000064966</v>
+        <v>321.5087000072743</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9992996080680342</v>
+        <v>0.9992996080680572</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.639904245966331e-05</v>
+        <v>1.639904245972699e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02310982003033075</v>
+        <v>0.02310982003042744</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -8535,28 +8508,28 @@
         <v>1</v>
       </c>
       <c r="AY3" t="n">
-        <v>295.6000000000886</v>
+        <v>295.6000000000887</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999951877</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="BB3" t="n">
-        <v>336973.3475828946</v>
+        <v>336973.3475828947</v>
       </c>
       <c r="BC3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="BD3" t="n">
         <v>3782.91734772336</v>
       </c>
       <c r="BE3" t="n">
-        <v>-696445.9368987706</v>
+        <v>-696445.936898771</v>
       </c>
       <c r="BF3" t="n">
-        <v>717.8632360362553</v>
+        <v>717.8632360362554</v>
       </c>
       <c r="BG3" t="n">
         <v>1006.821582550249</v>
@@ -8568,7 +8541,7 @@
         <v>0.9995210660216021</v>
       </c>
       <c r="BJ3" t="n">
-        <v>344.8092213940488</v>
+        <v>344.8092213940489</v>
       </c>
       <c r="BK3" t="n">
         <v>193456.8974370098</v>
@@ -8580,49 +8553,49 @@
         <v>137934.6617460247</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346988305e-06</v>
+        <v>7.249809346988306e-06</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003395798695745236</v>
+        <v>0.003395798695745235</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.832995174012118e-05</v>
+        <v>1.832995174012119e-05</v>
       </c>
       <c r="BQ3" t="n">
         <v>0.02606863419706635</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999951877</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="BU3" t="n">
-        <v>336973.3475828946</v>
+        <v>336973.3475828947</v>
       </c>
       <c r="BV3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="BW3" t="n">
         <v>3782.91734772336</v>
       </c>
       <c r="BX3" t="n">
-        <v>717.8632360362553</v>
+        <v>717.8632360362554</v>
       </c>
       <c r="BY3" t="n">
         <v>1006.821582550249</v>
       </c>
       <c r="BZ3" t="n">
-        <v>344.8092213940488</v>
+        <v>344.8092213940489</v>
       </c>
       <c r="CA3" t="n">
         <v>0.9995210660216021</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.832995174012118e-05</v>
+        <v>1.832995174012119e-05</v>
       </c>
       <c r="CC3" t="n">
         <v>0.02606863419706635</v>
@@ -8636,28 +8609,28 @@
         <v>1</v>
       </c>
       <c r="CF3" t="n">
-        <v>295.6000000000886</v>
+        <v>295.6000000000887</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999951877</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="CI3" t="n">
-        <v>336973.3475828946</v>
+        <v>336973.3475828947</v>
       </c>
       <c r="CJ3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="CK3" t="n">
         <v>3782.91734772336</v>
       </c>
       <c r="CL3" t="n">
-        <v>-696445.9368987706</v>
+        <v>-696445.936898771</v>
       </c>
       <c r="CM3" t="n">
-        <v>717.8632360362553</v>
+        <v>717.8632360362554</v>
       </c>
       <c r="CN3" t="n">
         <v>1006.821582550249</v>
@@ -8669,7 +8642,7 @@
         <v>0.9995210660216021</v>
       </c>
       <c r="CQ3" t="n">
-        <v>344.8092213940488</v>
+        <v>344.8092213940489</v>
       </c>
       <c r="CR3" t="n">
         <v>193456.8974370098</v>
@@ -8681,49 +8654,49 @@
         <v>137934.6617460247</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346988305e-06</v>
+        <v>7.249809346988306e-06</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.003395798695745236</v>
+        <v>0.003395798695745235</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.832995174012118e-05</v>
+        <v>1.832995174012119e-05</v>
       </c>
       <c r="CX3" t="n">
         <v>0.02606863419706635</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999951877</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="DB3" t="n">
-        <v>336973.3475828946</v>
+        <v>336973.3475828947</v>
       </c>
       <c r="DC3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="DD3" t="n">
         <v>3782.91734772336</v>
       </c>
       <c r="DE3" t="n">
-        <v>717.8632360362553</v>
+        <v>717.8632360362554</v>
       </c>
       <c r="DF3" t="n">
         <v>1006.821582550249</v>
       </c>
       <c r="DG3" t="n">
-        <v>344.8092213940488</v>
+        <v>344.8092213940489</v>
       </c>
       <c r="DH3" t="n">
         <v>0.9995210660216021</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.832995174012118e-05</v>
+        <v>1.832995174012119e-05</v>
       </c>
       <c r="DJ3" t="n">
         <v>0.02606863419706635</v>
@@ -8737,37 +8710,37 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.01607888984664127</v>
+        <v>0.01607888984659664</v>
       </c>
       <c r="DN3" t="n">
-        <v>-1.826635901020327e-07</v>
+        <v>-1.826635901069144e-07</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.01379745678869774</v>
+        <v>0.01379745678869797</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.02509665026847848</v>
+        <v>0.02509665026847297</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.05497281424022739</v>
+        <v>0.05497281424017747</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0.05497281424022739</v>
+        <v>-0.05497281424017747</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.8646962110570341</v>
+        <v>0.8646962110410912</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.8646962110570341</v>
+        <v>0.8646962110410912</v>
       </c>
       <c r="DV3" t="n">
-        <v>509376.8386636155</v>
+        <v>509376.8386467648</v>
       </c>
       <c r="DW3" t="n">
-        <v>2.801075364121139</v>
+        <v>2.801075364039353</v>
       </c>
       <c r="DX3" t="n">
         <v>421784.4310884894</v>
@@ -8776,436 +8749,412 @@
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1538.279511370463</v>
+        <v>383140.3864511254</v>
       </c>
       <c r="EA3" t="n">
+        <v>1538.279511189554</v>
+      </c>
+      <c r="EB3" t="n">
         <v>0</v>
       </c>
-      <c r="EB3" t="n">
-        <v>0.006449299920691705</v>
-      </c>
       <c r="EC3" t="n">
-        <v>-7.536104065071498e-08</v>
+        <v>0.02693962188498152</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.01046551585126215</v>
+        <v>0.002766125128993042</v>
       </c>
       <c r="EE3" t="n">
+        <v>0.01174717696700834</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0.03296430785343795</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0.04275610682072112</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.117173338655142</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>-2.035810409140026e-11</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>165.3032</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>138.6446015449633</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>124.5676052496729</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>-60.87066009107605</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>-26.04270713415093</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>258.2086428958875</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>124.5676052496729</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>-226.1738600910761</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>-61.15576777799676</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>234.2758147188413</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>59999.97848227202</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0.892892334517471</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>293150.1478800732</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>360347.4752204369</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>3788.919886559599</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>-527304.8181077328</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>716.0006319736805</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>1004.493576218265</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>1.402922750849177</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0.9992365543642963</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>306.9215135802673</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>84111.18606381789</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>1.188902507261362e-05</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>59954.25337061939</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>1.667938375978593e-05</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0.004282461007739305</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>1.520497864510758e-05</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0.02129820211867085</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>59999.97848227202</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0.892892334517471</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0.892892334517471</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>293150.1478800732</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>360347.4752204369</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>3788.919886559599</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>716.0006319736805</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>1004.493576218265</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>306.9215135802673</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0.9992365543642963</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>1.520497864510758e-05</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0.02129820211867085</v>
+      </c>
+      <c r="FX3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="FY3" t="b">
+        <v>1</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>243.8746425932383</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>69028.44858553859</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>0.9867897489332764</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>300006.0987984114</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>369958.6379894179</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>3788.919886565857</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>-554062.8451612432</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>716.1724365116744</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>1004.730309428902</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>1.402916753293009</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0.9992648418853671</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>313.1543021808392</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>96770.14555312379</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>1.033376558735288e-05</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>68977.82446889966</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>1.449741286710013e-05</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>0.004114250297826166</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>1.571352198250848e-05</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0.02206795606655111</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>69028.44858553859</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0.9867897489332764</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0.9867897489332764</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>300006.0987984114</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>369958.6379894179</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>3788.919886565857</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>716.1724365116744</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>1004.730309428902</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>313.1543021808392</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0.9992648418853671</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>1.571352198250848e-05</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0.02206795606655111</v>
+      </c>
+      <c r="HE3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="HF3" t="b">
+        <v>1</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>267.560846999871</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>95409.78892367452</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>1.243057550887729</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>316929.206454644</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>393683.3268536051</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>3788.919886564119</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>-620083.2872101458</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>716.7674741389886</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>1005.488635078812</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>1.402810076289591</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>0.9993621730097871</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>328.0291303266077</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>133756.858810661</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>7.476252125624048e-06</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>95349.22871700897</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>1.048776181470689e-05</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>0.003750723525119704</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>1.693635799618753e-05</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>0.02392923167052965</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>95409.78892367452</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>1.243057550887729</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>1.243057550887729</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>316929.206454644</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>393683.3268536051</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3788.919886564119</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>716.7674741389886</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>1005.488635078812</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>328.0291303266077</v>
+      </c>
+      <c r="II3" t="n">
+        <v>0.9993621730097871</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>1.693635799618753e-05</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>0.02392923167052965</v>
+      </c>
+      <c r="IL3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="IM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>0.02671664060220099</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>0.00277640841580621</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>0.01185591895997161</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>0.0323388479017991</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>0.04334591739559848</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>0.1170337332753764</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>-0.1170337332753764</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>0.4517265665989376</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>0.8412855778138857</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>395146.797503423</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>2.801075364044174</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>380020.7528884851</v>
+      </c>
+      <c r="IZ3" t="n">
         <v>0</v>
       </c>
-      <c r="EF3" t="n">
-        <v>0.005692452344710397</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0.02693962188707154</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0.00276612513009967</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0.01174717696695905</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>0.03296430785394792</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>0.04275610682187619</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0.1171733386599544</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>1.531219595563016e-11</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>165.3032</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>138.6446015434453</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>124.5676052487776</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>-60.87066008945055</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>-26.04270713370981</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>258.2086428940318</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>124.5676052487776</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>-226.1738600894506</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>-61.15576777799676</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>234.2758147187446</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>59999.97848203253</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>0.8928923345142743</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>293150.1478800046</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>360347.4752203406</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>3788.919886560333</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>-527304.8181076345</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>716.0006319736783</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>1004.493576218259</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>1.402922750849172</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0.999236554364298</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>306.9215135802039</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>84111.18606348202</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>1.188902507266109e-05</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>59954.25337038018</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>1.667938375985248e-05</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>0.004282461007741035</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>1.520497864510239e-05</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0.02129820211866298</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>59999.97848203253</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0.8928923345142743</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>0.8928923345142743</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>293150.1478800046</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>360347.4752203406</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>3788.919886560333</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>716.0006319736783</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>1004.493576218259</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>306.9215135802039</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0.999236554364298</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>1.520497864510239e-05</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0.02129820211866298</v>
-      </c>
-      <c r="GB3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="GC3" t="b">
-        <v>1</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>243.8746425927312</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>69028.44858486153</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>0.986789748925649</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>300006.0987980496</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>369958.6379889108</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>3788.919886566591</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>-554062.8451600082</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>716.1724365116637</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>1004.730309428884</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>1.402916753293005</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>0.9992648418853673</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>313.1543021805132</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>96770.14555217435</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>1.033376558745427e-05</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>68977.8244682231</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>1.449741286724232e-05</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0.004114250297834668</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>1.57135219824818e-05</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>0.02206795606651062</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>69028.44858486153</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0.986789748925649</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>0.986789748925649</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>300006.0987980496</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>369958.6379889108</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>3788.919886566591</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>716.1724365116637</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>1004.730309428884</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>313.1543021805132</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>0.9992648418853673</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>1.57135219824818e-05</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0.02206795606651062</v>
-      </c>
-      <c r="HI3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="HJ3" t="b">
-        <v>1</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>267.5608469991962</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>95409.78892259029</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>1.24305755087674</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>316929.2064541622</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>393683.3268529297</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>3788.919886564855</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>-620083.287208461</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>716.767474138967</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>1005.488635078781</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>1.402810076289591</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>0.9993621730097854</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>328.0291303261934</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>133756.8588091407</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>7.476252125709022e-06</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>95349.22871592526</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>1.048776181482609e-05</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0.003750723525129112</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>1.693635799615328e-05</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0.02392923167047727</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>95409.78892259029</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>1.24305755087674</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1.24305755087674</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>316929.2064541622</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>393683.3268529297</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3788.919886564855</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>716.767474138967</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>1005.488635078781</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>328.0291303261934</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>0.9993621730097854</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>1.693635799615328e-05</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>0.02392923167047727</v>
-      </c>
-      <c r="IP3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="IQ3" t="b">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0.02671664060343836</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>0.002776408416913203</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>0.01185591895990233</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>0.03233884790241499</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>0.04334591739658783</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>0.1170337332792567</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>-0.1170337332792567</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0.4517265665940849</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0.8412855778080132</v>
-      </c>
       <c r="JA3" t="n">
-        <v>395146.7974993034</v>
+        <v>360347.4752199256</v>
       </c>
       <c r="JB3" t="n">
-        <v>2.801075364014015</v>
+        <v>2843.394125259656</v>
       </c>
       <c r="JC3" t="n">
-        <v>380020.7528877092</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>2843.3941228193</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>7.380018005791321</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0.009607516395906937</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>0.0009864872139618468</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>0.01175610888356666</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0.01524817234029032</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>0.004189412746354917</v>
+        <v>7.380018004330886</v>
       </c>
     </row>
   </sheetData>
@@ -9244,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.382776237987935</v>
+        <v>0.3827762378586276</v>
       </c>
     </row>
     <row r="3">
@@ -9252,7 +9201,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3927727308017159</v>
+        <v>0.3927727308209276</v>
       </c>
     </row>
   </sheetData>
@@ -10358,7 +10307,7 @@
         <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>9.38434059668701e-11</v>
+        <v>3.371762551310441e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10383,13 +10332,13 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
-        <v>4.056497583562837e-11</v>
+        <v>3.006215462083845e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_linux/performance_analysis_critical_isentropic_throat_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_critical_isentropic_throat_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.014607957038582</v>
+        <v>2.014560290808611</v>
       </c>
       <c r="C2" t="n">
-        <v>2.300000000042906</v>
+        <v>2.299999999893394</v>
       </c>
       <c r="D2" t="n">
-        <v>2.790805430648497</v>
+        <v>2.790844450351861</v>
       </c>
       <c r="E2" t="n">
-        <v>92.46445085227499</v>
+        <v>92.48084609802052</v>
       </c>
       <c r="F2" t="n">
-        <v>78.96241543584944</v>
+        <v>78.97446531577715</v>
       </c>
       <c r="G2" t="n">
-        <v>0.146024069704334</v>
+        <v>0.1460451688334247</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.10843950555378</v>
+        <v>-78.12051048461058</v>
       </c>
       <c r="I2" t="n">
-        <v>138477.485375684</v>
+        <v>138500.5538388433</v>
       </c>
       <c r="J2" t="n">
-        <v>85.11216064885312</v>
+        <v>85.12633917568732</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-22.10880530368194</v>
+        <v>-22.12230804199051</v>
       </c>
       <c r="M2" t="n">
-        <v>135.4695892653735</v>
+        <v>135.4793759639495</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372165.2480904018</v>
+        <v>372157.6760677636</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7225683789205045</v>
+        <v>0.7225734302051527</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.0710460196244</v>
+        <v>2.070949354168219</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999867413</v>
+        <v>2.399999999915368</v>
       </c>
       <c r="D3" t="n">
-        <v>2.801075364147539</v>
+        <v>2.801127834185847</v>
       </c>
       <c r="E3" t="n">
-        <v>92.38751733754972</v>
+        <v>92.41489743773664</v>
       </c>
       <c r="F3" t="n">
-        <v>78.15169257666648</v>
+        <v>78.1711844749625</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1540881838925363</v>
+        <v>0.154127888010379</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.30578076055902</v>
+        <v>-77.32531236297288</v>
       </c>
       <c r="I3" t="n">
-        <v>143745.3889391526</v>
+        <v>143783.9339576275</v>
       </c>
       <c r="J3" t="n">
-        <v>88.34996247028432</v>
+        <v>88.37365332368007</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-23.97282605757689</v>
+        <v>-23.99546243253913</v>
       </c>
       <c r="M3" t="n">
-        <v>142.2541798786798</v>
+        <v>142.2725061149582</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370466.5012752662</v>
+        <v>370453.7020148061</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7111199635346914</v>
+        <v>0.7111266238904733</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>82.20852511678258</v>
+        <v>82.20974463438466</v>
       </c>
       <c r="D2" t="n">
-        <v>82.20852511678258</v>
+        <v>82.20974463438466</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>82.20852511678258</v>
+        <v>82.20974463438466</v>
       </c>
       <c r="H2" t="n">
-        <v>82.20852511678258</v>
+        <v>82.20974463438466</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3279,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.2307534782905</v>
+        <v>292.2306535078905</v>
       </c>
       <c r="L2" t="n">
-        <v>132579.3703039122</v>
+        <v>132579.211770871</v>
       </c>
       <c r="M2" t="n">
-        <v>1.581292674721473</v>
+        <v>1.581291325929167</v>
       </c>
       <c r="N2" t="n">
-        <v>334562.9119615962</v>
+        <v>334562.8404466817</v>
       </c>
       <c r="O2" t="n">
-        <v>418405.310287551</v>
+        <v>418405.2100321644</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718242</v>
+        <v>3782.917347718243</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687079.4765822472</v>
+        <v>-687079.1986578736</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7074052425014</v>
+        <v>717.7074007254132</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.641275457321</v>
+        <v>1006.641270214779</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402578917403247</v>
+        <v>1.402578918926194</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994971152129689</v>
+        <v>0.9994971145157351</v>
       </c>
       <c r="V2" t="n">
-        <v>342.8367684427055</v>
+        <v>342.8367097469142</v>
       </c>
       <c r="W2" t="n">
-        <v>185860.4758511629</v>
+        <v>185860.2536772108</v>
       </c>
       <c r="X2" t="n">
-        <v>5.380380069621687e-06</v>
+        <v>5.38038650122974e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132513.3819887065</v>
+        <v>132513.2234409343</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.546407653267994e-06</v>
+        <v>7.546416682299897e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003434887590746514</v>
+        <v>0.003434888763900999</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.816545453106616e-05</v>
+        <v>1.816544963872421e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02581513322796832</v>
+        <v>0.0258151256925363</v>
       </c>
       <c r="AD2" t="n">
-        <v>132579.3703039122</v>
+        <v>132579.211770871</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.581292674721473</v>
+        <v>1.581291325929167</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581292674721473</v>
+        <v>1.581291325929167</v>
       </c>
       <c r="AG2" t="n">
-        <v>334562.9119615962</v>
+        <v>334562.8404466817</v>
       </c>
       <c r="AH2" t="n">
-        <v>418405.310287551</v>
+        <v>418405.2100321644</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718242</v>
+        <v>3782.917347718243</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7074052425014</v>
+        <v>717.7074007254132</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.641275457321</v>
+        <v>1006.641270214779</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.8367684427055</v>
+        <v>342.8367097469142</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994971152129689</v>
+        <v>0.9994971145157351</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.816545453106616e-05</v>
+        <v>1.816544963872421e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02581513322796832</v>
+        <v>0.0258151256925363</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3582,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2397891144821043</v>
+        <v>0.2397927126738347</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2397891144821043</v>
+        <v>0.2397927126738347</v>
       </c>
       <c r="DH2" t="n">
-        <v>187206.3545171604</v>
+        <v>187209.0223549074</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.790805430683812</v>
+        <v>2.790844450221762</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3645,121 +3645,121 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>274.1650384746706</v>
+        <v>274.1789394161819</v>
       </c>
       <c r="DV2" t="n">
-        <v>114.3396413882419</v>
+        <v>114.3456345712323</v>
       </c>
       <c r="DW2" t="n">
-        <v>249.1844993755146</v>
+        <v>249.1970438706779</v>
       </c>
       <c r="DX2" t="n">
-        <v>65.35172291211219</v>
+        <v>65.35167788419589</v>
       </c>
       <c r="DY2" t="n">
-        <v>274.1650384746706</v>
+        <v>274.1789394161819</v>
       </c>
       <c r="DZ2" t="n">
-        <v>114.3396413882419</v>
+        <v>114.3456345712323</v>
       </c>
       <c r="EA2" t="n">
-        <v>249.1844993755146</v>
+        <v>249.1970438706779</v>
       </c>
       <c r="EB2" t="n">
-        <v>65.35172291211219</v>
+        <v>65.35167788419588</v>
       </c>
       <c r="EC2" t="n">
-        <v>258.0958630479574</v>
+        <v>258.0920577145852</v>
       </c>
       <c r="ED2" t="n">
-        <v>84173.1035912747</v>
+        <v>84168.62637482322</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.136926239997462</v>
+        <v>1.136882545477572</v>
       </c>
       <c r="EF2" t="n">
-        <v>310165.5201791377</v>
+        <v>310162.8016229172</v>
       </c>
       <c r="EG2" t="n">
-        <v>384201.1969275806</v>
+        <v>384197.3856787983</v>
       </c>
       <c r="EH2" t="n">
-        <v>3788.78389160004</v>
+        <v>3788.78438300131</v>
       </c>
       <c r="EI2" t="n">
-        <v>-593668.2514771305</v>
+        <v>-593657.7719668949</v>
       </c>
       <c r="EJ2" t="n">
-        <v>716.4980321127638</v>
+        <v>716.4979321329757</v>
       </c>
       <c r="EK2" t="n">
-        <v>1005.154227239119</v>
+        <v>1005.154098194476</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.402870883364723</v>
+        <v>1.402870899015977</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.9993181540917061</v>
+        <v>0.9993181389775653</v>
       </c>
       <c r="EN2" t="n">
-        <v>322.167562575812</v>
+        <v>322.1651844559416</v>
       </c>
       <c r="EO2" t="n">
-        <v>118003.7782399191</v>
+        <v>117997.5010553004</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.474304932566248e-06</v>
+        <v>8.47475574530466e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>84115.92231274508</v>
+        <v>84111.44684665423</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.188835564665124e-05</v>
+        <v>1.188898821135637e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003888006291848004</v>
+        <v>0.00388806348047453</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.645301935525797e-05</v>
+        <v>1.645282361542132e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02319180040379385</v>
+        <v>0.02319150220457575</v>
       </c>
       <c r="EV2" t="n">
-        <v>84173.1035912747</v>
+        <v>84168.62637482322</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.136926239997462</v>
+        <v>1.136882545477572</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.136926239997462</v>
+        <v>1.136882545477572</v>
       </c>
       <c r="EY2" t="n">
-        <v>310165.5201791377</v>
+        <v>310162.8016229172</v>
       </c>
       <c r="EZ2" t="n">
-        <v>384201.1969275806</v>
+        <v>384197.3856787983</v>
       </c>
       <c r="FA2" t="n">
-        <v>3788.78389160004</v>
+        <v>3788.78438300131</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.4980321127638</v>
+        <v>716.4979321329757</v>
       </c>
       <c r="FC2" t="n">
-        <v>1005.154227239119</v>
+        <v>1005.154098194476</v>
       </c>
       <c r="FD2" t="n">
-        <v>322.167562575812</v>
+        <v>322.1651844559416</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9993181540917061</v>
+        <v>0.9993181389775653</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.645301935525797e-05</v>
+        <v>1.645282361542132e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02319180040379385</v>
+        <v>0.02319150220457575</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
@@ -3770,97 +3770,97 @@
         <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.5935241439936</v>
+        <v>295.5935236071451</v>
       </c>
       <c r="FK2" t="n">
-        <v>135206.9501436089</v>
+        <v>135206.7185736149</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.594232983583486</v>
+        <v>1.594230254766431</v>
       </c>
       <c r="FM2" t="n">
-        <v>336974.3992198391</v>
+        <v>336974.3993070866</v>
       </c>
       <c r="FN2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FO2" t="n">
-        <v>3788.783891604528</v>
+        <v>3788.784383005771</v>
       </c>
       <c r="FP2" t="n">
-        <v>-698155.5516509884</v>
+        <v>-698155.6948719097</v>
       </c>
       <c r="FQ2" t="n">
-        <v>717.8559613685137</v>
+        <v>717.8559607653451</v>
       </c>
       <c r="FR2" t="n">
-        <v>1006.775725221086</v>
+        <v>1006.77572141895</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.402475955345942</v>
+        <v>1.402475951227837</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.9995305694123996</v>
+        <v>0.9995305702006445</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.8025797536447</v>
+        <v>344.8025792031402</v>
       </c>
       <c r="FV2" t="n">
-        <v>189536.4766366892</v>
+        <v>189536.1516056334</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.276029278083703e-06</v>
+        <v>5.27603832582131e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>135144.1897554223</v>
+        <v>135143.9583970752</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.399504202213602e-06</v>
+        <v>7.399516869720768e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.00339561445431637</v>
+        <v>0.003395614439037557</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.832923467030756e-05</v>
+        <v>1.832923461086378e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02606725562222116</v>
+        <v>0.02606725550794199</v>
       </c>
       <c r="GC2" t="n">
-        <v>135206.9501436089</v>
+        <v>135206.7185736149</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.594232983583486</v>
+        <v>1.594230254766431</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.594232983583486</v>
+        <v>1.594230254766431</v>
       </c>
       <c r="GF2" t="n">
-        <v>336974.3992198391</v>
+        <v>336974.3993070866</v>
       </c>
       <c r="GG2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GH2" t="n">
-        <v>3788.783891604528</v>
+        <v>3788.784383005771</v>
       </c>
       <c r="GI2" t="n">
-        <v>717.8559613685137</v>
+        <v>717.8559607653451</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1006.775725221086</v>
+        <v>1006.77572141895</v>
       </c>
       <c r="GK2" t="n">
-        <v>344.8025797536447</v>
+        <v>344.8025792031402</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9995305694123996</v>
+        <v>0.9995305702006445</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.832923467030756e-05</v>
+        <v>1.832923461086378e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02606725562222116</v>
+        <v>0.02606725550794199</v>
       </c>
       <c r="GO2" t="inlineStr">
         <is>
@@ -3871,97 +3871,97 @@
         <v>1</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.5935241439936</v>
+        <v>295.5935236071451</v>
       </c>
       <c r="GR2" t="n">
-        <v>135206.9501436089</v>
+        <v>135206.7185736149</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.594232983583486</v>
+        <v>1.594230254766431</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3992198391</v>
+        <v>336974.3993070866</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.783891604528</v>
+        <v>3788.784383005771</v>
       </c>
       <c r="GW2" t="n">
-        <v>-698155.5516509884</v>
+        <v>-698155.6948719097</v>
       </c>
       <c r="GX2" t="n">
-        <v>717.8559613685137</v>
+        <v>717.8559607653451</v>
       </c>
       <c r="GY2" t="n">
-        <v>1006.775725221086</v>
+        <v>1006.77572141895</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.402475955345942</v>
+        <v>1.402475951227837</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9995305694123996</v>
+        <v>0.9995305702006445</v>
       </c>
       <c r="HB2" t="n">
-        <v>344.8025797536447</v>
+        <v>344.8025792031402</v>
       </c>
       <c r="HC2" t="n">
-        <v>189536.4766366892</v>
+        <v>189536.1516056334</v>
       </c>
       <c r="HD2" t="n">
-        <v>5.276029278083703e-06</v>
+        <v>5.27603832582131e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>135144.1897554223</v>
+        <v>135143.9583970752</v>
       </c>
       <c r="HF2" t="n">
-        <v>7.399504202213602e-06</v>
+        <v>7.399516869720768e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.00339561445431637</v>
+        <v>0.003395614439037557</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832923467030756e-05</v>
+        <v>1.832923461086378e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606725562222116</v>
+        <v>0.02606725550794199</v>
       </c>
       <c r="HJ2" t="n">
-        <v>135206.9501436089</v>
+        <v>135206.7185736149</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.594232983583486</v>
+        <v>1.594230254766431</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.594232983583486</v>
+        <v>1.594230254766431</v>
       </c>
       <c r="HM2" t="n">
-        <v>336974.3992198391</v>
+        <v>336974.3993070866</v>
       </c>
       <c r="HN2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="HO2" t="n">
-        <v>3788.783891604528</v>
+        <v>3788.784383005771</v>
       </c>
       <c r="HP2" t="n">
-        <v>717.8559613685137</v>
+        <v>717.8559607653451</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1006.775725221086</v>
+        <v>1006.77572141895</v>
       </c>
       <c r="HR2" t="n">
-        <v>344.8025797536447</v>
+        <v>344.8025792031402</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9995305694123996</v>
+        <v>0.9995305702006445</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.832923467030756e-05</v>
+        <v>1.832923461086378e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.02606725562222116</v>
+        <v>0.02606725550794199</v>
       </c>
       <c r="HV2" t="inlineStr">
         <is>
@@ -3972,166 +3972,166 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8510013741999694</v>
+        <v>0.8510508045095043</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.8510013741999694</v>
+        <v>0.8510508045095043</v>
       </c>
       <c r="HZ2" t="n">
-        <v>495605.9296334039</v>
+        <v>495617.906400063</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.790805430670234</v>
+        <v>2.790844450187125</v>
       </c>
       <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.01561897652535764</v>
+        <v>0.01561894955946568</v>
       </c>
       <c r="ID2" t="n">
-        <v>-1.808493700719725e-07</v>
+        <v>-1.808550137489191e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.01378013288009363</v>
+        <v>0.01378013173578421</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.0253304329599657</v>
+        <v>0.0253304456663365</v>
       </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.0547293615160469</v>
+        <v>0.05472934610657264</v>
       </c>
       <c r="II2" t="n">
-        <v>2.755344979954444e-10</v>
+        <v>1.764549201199728e-10</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>382691.4762354186</v>
+        <v>382687.5611576646</v>
       </c>
       <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM2" t="n">
-        <v>274.1650384746706</v>
+        <v>274.1789394161819</v>
       </c>
       <c r="IN2" t="n">
-        <v>114.3396413882419</v>
+        <v>114.3456345712323</v>
       </c>
       <c r="IO2" t="n">
-        <v>249.1844993755146</v>
+        <v>249.1970438706779</v>
       </c>
       <c r="IP2" t="n">
-        <v>65.35172291211219</v>
+        <v>65.35167788419589</v>
       </c>
       <c r="IQ2" t="n">
-        <v>141.8084129299686</v>
+        <v>141.8206655776776</v>
       </c>
       <c r="IR2" t="n">
-        <v>114.3396413882419</v>
+        <v>114.3456345712323</v>
       </c>
       <c r="IS2" t="n">
-        <v>83.88129937551463</v>
+        <v>83.89384387067793</v>
       </c>
       <c r="IT2" t="n">
-        <v>36.26433850399843</v>
+        <v>36.26699261186408</v>
       </c>
       <c r="IU2" t="n">
-        <v>258.095863047957</v>
+        <v>258.0920577144844</v>
       </c>
       <c r="IV2" t="n">
-        <v>84173.10359114593</v>
+        <v>84168.62637449177</v>
       </c>
       <c r="IW2" t="n">
-        <v>1.136926239995723</v>
+        <v>1.136882545473537</v>
       </c>
       <c r="IX2" t="n">
-        <v>310165.5201791378</v>
+        <v>310162.8016228459</v>
       </c>
       <c r="IY2" t="n">
-        <v>384201.1969275807</v>
+        <v>384197.3856786981</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3788.783891600478</v>
+        <v>3788.784383002052</v>
       </c>
       <c r="JA2" t="n">
-        <v>-593668.2514772419</v>
+        <v>-593657.7719668049</v>
       </c>
       <c r="JB2" t="n">
-        <v>716.4980321127636</v>
+        <v>716.4979321329726</v>
       </c>
       <c r="JC2" t="n">
-        <v>1005.154227239116</v>
+        <v>1005.154098194468</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.402870883364719</v>
+        <v>1.402870899015972</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9993181540917071</v>
+        <v>0.9993181389775666</v>
       </c>
       <c r="JF2" t="n">
-        <v>322.1675625758117</v>
+        <v>322.1651844558786</v>
       </c>
       <c r="JG2" t="n">
-        <v>118003.7782397384</v>
+        <v>117997.5010548355</v>
       </c>
       <c r="JH2" t="n">
-        <v>8.474304932579223e-06</v>
+        <v>8.474755745338052e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>84115.92231261647</v>
+        <v>84111.44684632313</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.188835564666942e-05</v>
+        <v>1.188898821140317e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.003888006291847989</v>
+        <v>0.003888063480476009</v>
       </c>
       <c r="JL2" t="n">
-        <v>1.645301935525794e-05</v>
+        <v>1.645282361541611e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.02319180040379379</v>
+        <v>0.02319150220456779</v>
       </c>
       <c r="JN2" t="n">
-        <v>84173.10359114593</v>
+        <v>84168.62637449177</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.136926239995723</v>
+        <v>1.136882545473537</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.136926239995723</v>
+        <v>1.136882545473537</v>
       </c>
       <c r="JQ2" t="n">
-        <v>310165.5201791378</v>
+        <v>310162.8016228459</v>
       </c>
       <c r="JR2" t="n">
-        <v>384201.1969275807</v>
+        <v>384197.3856786981</v>
       </c>
       <c r="JS2" t="n">
-        <v>3788.783891600478</v>
+        <v>3788.784383002052</v>
       </c>
       <c r="JT2" t="n">
-        <v>716.4980321127636</v>
+        <v>716.4979321329726</v>
       </c>
       <c r="JU2" t="n">
-        <v>1005.154227239116</v>
+        <v>1005.154098194468</v>
       </c>
       <c r="JV2" t="n">
-        <v>322.1675625758117</v>
+        <v>322.1651844558786</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.9993181540917071</v>
+        <v>0.9993181389775666</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.645301935525794e-05</v>
+        <v>1.645282361541611e-05</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.02319180040379379</v>
+        <v>0.02319150220456779</v>
       </c>
       <c r="JZ2" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
         <v>1</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.5935241439932</v>
+        <v>295.5935236070442</v>
       </c>
       <c r="KC2" t="n">
-        <v>135206.9501434033</v>
+        <v>135206.7185731053</v>
       </c>
       <c r="KD2" t="n">
-        <v>1.594232983581063</v>
+        <v>1.594230254760965</v>
       </c>
       <c r="KE2" t="n">
-        <v>336974.3992198392</v>
+        <v>336974.399307015</v>
       </c>
       <c r="KF2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KG2" t="n">
-        <v>3788.783891604965</v>
+        <v>3788.784383006514</v>
       </c>
       <c r="KH2" t="n">
-        <v>-698155.5516511158</v>
+        <v>-698155.6948718474</v>
       </c>
       <c r="KI2" t="n">
-        <v>717.8559613685132</v>
+        <v>717.8559607653394</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1006.775725221082</v>
+        <v>1006.775721418939</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.402475955345938</v>
+        <v>1.402475951227833</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.9995305694124003</v>
+        <v>0.999530570200645</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8025797536442</v>
+        <v>344.8025792030811</v>
       </c>
       <c r="KN2" t="n">
-        <v>189536.4766364006</v>
+        <v>189536.1516049186</v>
       </c>
       <c r="KO2" t="n">
-        <v>5.276029278091737e-06</v>
+        <v>5.276038325841207e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>135144.1897552169</v>
+        <v>135143.958396566</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7.399504202224849e-06</v>
+        <v>7.399516869748651e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.003395614454316354</v>
+        <v>0.00339561443903868</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.832923467030751e-05</v>
+        <v>1.832923461085881e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.02606725562222107</v>
+        <v>0.02606725550793431</v>
       </c>
       <c r="KU2" t="n">
-        <v>135206.9501434033</v>
+        <v>135206.7185731053</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.594232983581063</v>
+        <v>1.594230254760965</v>
       </c>
       <c r="KW2" t="n">
-        <v>1.594232983581063</v>
+        <v>1.594230254760965</v>
       </c>
       <c r="KX2" t="n">
-        <v>336974.3992198392</v>
+        <v>336974.399307015</v>
       </c>
       <c r="KY2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3788.783891604965</v>
+        <v>3788.784383006514</v>
       </c>
       <c r="LA2" t="n">
-        <v>717.8559613685132</v>
+        <v>717.8559607653394</v>
       </c>
       <c r="LB2" t="n">
-        <v>1006.775725221082</v>
+        <v>1006.775721418939</v>
       </c>
       <c r="LC2" t="n">
-        <v>344.8025797536442</v>
+        <v>344.8025792030811</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.9995305694124003</v>
+        <v>0.999530570200645</v>
       </c>
       <c r="LE2" t="n">
-        <v>1.832923467030751e-05</v>
+        <v>1.832923461085881e-05</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.02606725562222107</v>
+        <v>0.02606725550793431</v>
       </c>
       <c r="LG2" t="inlineStr">
         <is>
@@ -4243,97 +4243,97 @@
         <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>268.1325478421015</v>
+        <v>268.1304777710699</v>
       </c>
       <c r="LJ2" t="n">
-        <v>96169.14341442015</v>
+        <v>96166.38607747118</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.250276210271311</v>
+        <v>1.250250026627228</v>
       </c>
       <c r="LL2" t="n">
-        <v>317337.6916885396</v>
+        <v>317336.2125925896</v>
       </c>
       <c r="LM2" t="n">
-        <v>394256.0099164385</v>
+        <v>394253.9362713462</v>
       </c>
       <c r="LN2" t="n">
-        <v>3788.783891606426</v>
+        <v>3788.784383007975</v>
       </c>
       <c r="LO2" t="n">
-        <v>-621640.2681631048</v>
+        <v>-621634.6305161502</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.7853702993821</v>
+        <v>716.7853051889695</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.511312850924</v>
+        <v>1005.511230421655</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.40280669014066</v>
+        <v>1.402806702568445</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.999364723092654</v>
+        <v>0.9993647138087647</v>
       </c>
       <c r="LT2" t="n">
-        <v>328.3798436103881</v>
+        <v>328.3785743881381</v>
       </c>
       <c r="LU2" t="n">
-        <v>134821.4367830189</v>
+        <v>134817.571139792</v>
       </c>
       <c r="LV2" t="n">
-        <v>7.417218091284666e-06</v>
+        <v>7.417430766224849e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>96108.35030270657</v>
+        <v>96105.59380201845</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.040492316068647e-05</v>
+        <v>1.040522159469762e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.003742747758428539</v>
+        <v>0.003742776576678405</v>
       </c>
       <c r="LZ2" t="n">
-        <v>1.696534104360781e-05</v>
+        <v>1.696523614315802e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.02397353035643554</v>
+        <v>0.02397337000806704</v>
       </c>
       <c r="MB2" t="n">
-        <v>96169.14341442015</v>
+        <v>96166.38607747118</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.250276210271311</v>
+        <v>1.250250026627228</v>
       </c>
       <c r="MD2" t="n">
-        <v>1.250276210271311</v>
+        <v>1.250250026627228</v>
       </c>
       <c r="ME2" t="n">
-        <v>317337.6916885396</v>
+        <v>317336.2125925896</v>
       </c>
       <c r="MF2" t="n">
-        <v>394256.0099164385</v>
+        <v>394253.9362713462</v>
       </c>
       <c r="MG2" t="n">
-        <v>3788.783891606426</v>
+        <v>3788.784383007975</v>
       </c>
       <c r="MH2" t="n">
-        <v>716.7853702993821</v>
+        <v>716.7853051889695</v>
       </c>
       <c r="MI2" t="n">
-        <v>1005.511312850924</v>
+        <v>1005.511230421655</v>
       </c>
       <c r="MJ2" t="n">
-        <v>328.3798436103881</v>
+        <v>328.3785743881381</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.999364723092654</v>
+        <v>0.9993647138087647</v>
       </c>
       <c r="ML2" t="n">
-        <v>1.696534104360781e-05</v>
+        <v>1.696523614315802e-05</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.02397353035643554</v>
+        <v>0.02397337000806704</v>
       </c>
       <c r="MN2" t="inlineStr">
         <is>
@@ -4344,139 +4344,139 @@
         <v>1</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.8510013741999701</v>
+        <v>0.8510508045096707</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.4401697420937545</v>
+        <v>0.4402110234760651</v>
       </c>
       <c r="MR2" t="n">
-        <v>255366.0091281675</v>
+        <v>255381.2966043235</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.790805430665966</v>
+        <v>2.790844450177219</v>
       </c>
       <c r="MT2" t="n">
-        <v>380593.4359512185</v>
+        <v>380591.3623061259</v>
       </c>
       <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV2" t="n">
-        <v>135.4695892653735</v>
+        <v>135.4793759639495</v>
       </c>
       <c r="MW2" t="n">
-        <v>125.5086189057657</v>
+        <v>125.5056658572852</v>
       </c>
       <c r="MX2" t="n">
-        <v>-50.98623535912671</v>
+        <v>-51.01949773665606</v>
       </c>
       <c r="MY2" t="n">
-        <v>-22.10880530368194</v>
+        <v>-22.12230804199051</v>
       </c>
       <c r="MZ2" t="n">
-        <v>250.0670575417773</v>
+        <v>250.0943456344929</v>
       </c>
       <c r="NA2" t="n">
-        <v>125.5086189057657</v>
+        <v>125.5056658572852</v>
       </c>
       <c r="NB2" t="n">
-        <v>-216.2894353591267</v>
+        <v>-216.3226977366561</v>
       </c>
       <c r="NC2" t="n">
-        <v>-59.87422707194452</v>
+        <v>-59.87863685047624</v>
       </c>
       <c r="ND2" t="n">
-        <v>236.9057734328386</v>
+        <v>236.8969153164809</v>
       </c>
       <c r="NE2" t="n">
-        <v>59999.99999788135</v>
+        <v>60000.00000178166</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.8829486053639775</v>
+        <v>0.8829817256967957</v>
       </c>
       <c r="NG2" t="n">
-        <v>295035.118168732</v>
+        <v>295028.7692290875</v>
       </c>
       <c r="NH2" t="n">
-        <v>362989.2432824441</v>
+        <v>362980.3454119731</v>
       </c>
       <c r="NI2" t="n">
-        <v>3800.133275813549</v>
+        <v>3800.095716402846</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-537284.2695720311</v>
+        <v>-537250.607711234</v>
       </c>
       <c r="NK2" t="n">
-        <v>716.0331786758935</v>
+        <v>716.0330640094041</v>
       </c>
       <c r="NL2" t="n">
-        <v>1004.487866949602</v>
+        <v>1004.487878635064</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.402851008674103</v>
+        <v>1.402851249648259</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.999272534329567</v>
+        <v>0.9992724157137771</v>
       </c>
       <c r="NO2" t="n">
-        <v>308.6426631728137</v>
+        <v>308.6368827814102</v>
       </c>
       <c r="NP2" t="n">
-        <v>84109.94331923594</v>
+        <v>84109.94778941944</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.188920073581003e-05</v>
+        <v>1.18892001039358e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>59956.43357645798</v>
+        <v>59956.42646396657</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.667877724455999e-05</v>
+        <v>1.667877922312454e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.004234486916339891</v>
+        <v>0.00423464668356385</v>
       </c>
       <c r="NU2" t="n">
-        <v>1.534470472159086e-05</v>
+        <v>1.534423510653561e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.02150906073145985</v>
+        <v>0.02150835171307154</v>
       </c>
       <c r="NW2" t="n">
-        <v>59999.99999788135</v>
+        <v>60000.00000178166</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.8829486053639775</v>
+        <v>0.8829817256967957</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.8829486053639775</v>
+        <v>0.8829817256967957</v>
       </c>
       <c r="NZ2" t="n">
-        <v>295035.118168732</v>
+        <v>295028.7692290875</v>
       </c>
       <c r="OA2" t="n">
-        <v>362989.2432824441</v>
+        <v>362980.3454119731</v>
       </c>
       <c r="OB2" t="n">
-        <v>3800.133275813549</v>
+        <v>3800.095716402846</v>
       </c>
       <c r="OC2" t="n">
-        <v>716.0331786758935</v>
+        <v>716.0330640094041</v>
       </c>
       <c r="OD2" t="n">
-        <v>1004.487866949602</v>
+        <v>1004.487878635064</v>
       </c>
       <c r="OE2" t="n">
-        <v>308.6426631728137</v>
+        <v>308.6368827814102</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.999272534329567</v>
+        <v>0.9992724157137771</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.534470472159086e-05</v>
+        <v>1.534423510653561e-05</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.02150906073145985</v>
+        <v>0.02150835171307154</v>
       </c>
       <c r="OI2" t="inlineStr">
         <is>
@@ -4487,97 +4487,97 @@
         <v>1</v>
       </c>
       <c r="OK2" t="n">
-        <v>246.0690979996147</v>
+        <v>246.0615669537597</v>
       </c>
       <c r="OL2" t="n">
-        <v>68499.67980894788</v>
+        <v>68501.30057031482</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9704638757930909</v>
+        <v>0.9705166534711044</v>
       </c>
       <c r="ON2" t="n">
-        <v>301580.7765633519</v>
+        <v>301575.3729972122</v>
       </c>
       <c r="OO2" t="n">
-        <v>372165.2480904018</v>
+        <v>372157.6760677636</v>
       </c>
       <c r="OP2" t="n">
-        <v>3800.133275812685</v>
+        <v>3800.095716411417</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-562930.1193671467</v>
+        <v>-562899.8304866995</v>
       </c>
       <c r="OR2" t="n">
-        <v>716.2056506675086</v>
+        <v>716.2055317793576</v>
       </c>
       <c r="OS2" t="n">
-        <v>1004.720142897209</v>
+        <v>1004.720166192229</v>
       </c>
       <c r="OT2" t="n">
-        <v>1.402837497806396</v>
+        <v>1.402837763199174</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.999299937149956</v>
+        <v>0.9992998212000751</v>
       </c>
       <c r="OV2" t="n">
-        <v>314.5622301073612</v>
+        <v>314.5574096918683</v>
       </c>
       <c r="OW2" t="n">
-        <v>96026.81494164138</v>
+        <v>96029.0940547058</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.041375787177501e-05</v>
+        <v>1.04135107161411e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>68451.84498689095</v>
+        <v>68453.45668177001</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.460881003560251e-05</v>
+        <v>1.4608466080082e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.004077109595040023</v>
+        <v>0.004077235857973098</v>
       </c>
       <c r="PB2" t="n">
-        <v>1.58282690397084e-05</v>
+        <v>1.582787589908969e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.02224158540628108</v>
+        <v>0.02224099026500647</v>
       </c>
       <c r="PD2" t="n">
-        <v>68499.67980894788</v>
+        <v>68501.30057031482</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.9704638757930909</v>
+        <v>0.9705166534711044</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9704638757930909</v>
+        <v>0.9705166534711044</v>
       </c>
       <c r="PG2" t="n">
-        <v>301580.7765633519</v>
+        <v>301575.3729972122</v>
       </c>
       <c r="PH2" t="n">
-        <v>372165.2480904018</v>
+        <v>372157.6760677636</v>
       </c>
       <c r="PI2" t="n">
-        <v>3800.133275812685</v>
+        <v>3800.095716411417</v>
       </c>
       <c r="PJ2" t="n">
-        <v>716.2056506675086</v>
+        <v>716.2055317793576</v>
       </c>
       <c r="PK2" t="n">
-        <v>1004.720142897209</v>
+        <v>1004.720166192229</v>
       </c>
       <c r="PL2" t="n">
-        <v>314.5622301073612</v>
+        <v>314.5574096918683</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.999299937149956</v>
+        <v>0.9992998212000751</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.58282690397084e-05</v>
+        <v>1.582787589908969e-05</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.02224158540628108</v>
+        <v>0.02224099026500647</v>
       </c>
       <c r="PP2" t="inlineStr">
         <is>
@@ -4588,97 +4588,97 @@
         <v>1</v>
       </c>
       <c r="PR2" t="n">
-        <v>268.1220053382088</v>
+        <v>268.1199700650873</v>
       </c>
       <c r="PS2" t="n">
-        <v>92438.70527490083</v>
+        <v>92448.31634937423</v>
       </c>
       <c r="PT2" t="n">
-        <v>1.201795435380149</v>
+        <v>1.201929619792671</v>
       </c>
       <c r="PU2" t="n">
-        <v>317338.8386961402</v>
+        <v>317337.3557769628</v>
       </c>
       <c r="PV2" t="n">
-        <v>394256.0099164326</v>
+        <v>394253.9362713525</v>
       </c>
       <c r="PW2" t="n">
-        <v>3800.133275804115</v>
+        <v>3800.095716409779</v>
       </c>
       <c r="PX2" t="n">
-        <v>-624643.3445446235</v>
+        <v>-624627.6134569041</v>
       </c>
       <c r="PY2" t="n">
-        <v>716.773015969385</v>
+        <v>716.7729915777273</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1005.433966598668</v>
+        <v>1005.434139187126</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.402722959985999</v>
+        <v>1.402723248505795</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.9993891147805989</v>
+        <v>0.9993890256550439</v>
       </c>
       <c r="QC2" t="n">
-        <v>328.371563278484</v>
+        <v>328.3703215569552</v>
       </c>
       <c r="QD2" t="n">
-        <v>129587.0582810746</v>
+        <v>129600.5469400535</v>
       </c>
       <c r="QE2" t="n">
-        <v>7.716819976196989e-06</v>
+        <v>7.716016819454843e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>92382.503158263</v>
+        <v>92392.10020801057</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.082456055869013e-05</v>
+        <v>1.082343617851105e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.003742382741123185</v>
+        <v>0.003742412758658665</v>
       </c>
       <c r="QI2" t="n">
-        <v>1.696424110318386e-05</v>
+        <v>1.696413983735535e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.02397139285341908</v>
+        <v>0.02397123956603204</v>
       </c>
       <c r="QK2" t="n">
-        <v>92438.70527490083</v>
+        <v>92448.31634937423</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.201795435380149</v>
+        <v>1.201929619792671</v>
       </c>
       <c r="QM2" t="n">
-        <v>1.201795435380149</v>
+        <v>1.201929619792671</v>
       </c>
       <c r="QN2" t="n">
-        <v>317338.8386961402</v>
+        <v>317337.3557769628</v>
       </c>
       <c r="QO2" t="n">
-        <v>394256.0099164326</v>
+        <v>394253.9362713525</v>
       </c>
       <c r="QP2" t="n">
-        <v>3800.133275804115</v>
+        <v>3800.095716409779</v>
       </c>
       <c r="QQ2" t="n">
-        <v>716.773015969385</v>
+        <v>716.7729915777273</v>
       </c>
       <c r="QR2" t="n">
-        <v>1005.433966598668</v>
+        <v>1005.434139187126</v>
       </c>
       <c r="QS2" t="n">
-        <v>328.371563278484</v>
+        <v>328.3703215569552</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9993891147805989</v>
+        <v>0.9993890256550439</v>
       </c>
       <c r="QU2" t="n">
-        <v>1.696424110318386e-05</v>
+        <v>1.696413983735535e-05</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.02397139285341908</v>
+        <v>0.02397123956603204</v>
       </c>
       <c r="QW2" t="inlineStr">
         <is>
@@ -4689,46 +4689,46 @@
         <v>1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.4389204910065267</v>
+        <v>0.4389604208771827</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.8102154607244332</v>
+        <v>0.8103190499484806</v>
       </c>
       <c r="RA2" t="n">
-        <v>374979.723512681</v>
+        <v>375046.1879355462</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.790805430648497</v>
+        <v>2.790844450351861</v>
       </c>
       <c r="RC2" t="n">
-        <v>380593.4359512185</v>
+        <v>380591.3623061259</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.02607389602229048</v>
+        <v>0.02607674986677238</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.002221780604986662</v>
+        <v>0.001800624714764788</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.01178846742599047</v>
+        <v>0.01178868640466821</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.03262518113249034</v>
+        <v>0.03262430700205068</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.04229027500589256</v>
+        <v>0.04229399713855295</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.1149996001916505</v>
+        <v>0.114584365126809</v>
       </c>
       <c r="RJ2" t="n">
-        <v>5.20255227787203e-11</v>
+        <v>-1.230780755090422e-11</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
       </c>
       <c r="RL2" t="n">
-        <v>360315.6411404813</v>
+        <v>360315.7562528073</v>
       </c>
     </row>
     <row r="3">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>82.5296150442294</v>
+        <v>82.53125610832664</v>
       </c>
       <c r="D3" t="n">
-        <v>82.5296150442294</v>
+        <v>82.53125610832664</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82.5296150442294</v>
+        <v>82.53125610832664</v>
       </c>
       <c r="H3" t="n">
-        <v>82.5296150442294</v>
+        <v>82.53125610832664</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4763,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.2043807642206</v>
+        <v>292.2042457114161</v>
       </c>
       <c r="L3" t="n">
-        <v>132537.5531719548</v>
+        <v>132537.3390537268</v>
       </c>
       <c r="M3" t="n">
-        <v>1.580936880350696</v>
+        <v>1.580935058477329</v>
       </c>
       <c r="N3" t="n">
-        <v>334544.0459658507</v>
+        <v>334543.9493544844</v>
       </c>
       <c r="O3" t="n">
-        <v>418378.8624087148</v>
+        <v>418378.7269710802</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.917347718243</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687006.1586635223</v>
+        <v>-687005.7832075596</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7062138288298</v>
+        <v>717.7062077288105</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.639892666673</v>
+        <v>1006.639885586634</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402579319045373</v>
+        <v>1.402579321101538</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994969313065994</v>
+        <v>0.9994969303649702</v>
       </c>
       <c r="V3" t="n">
-        <v>342.8212838340293</v>
+        <v>342.8212045366233</v>
       </c>
       <c r="W3" t="n">
-        <v>185801.8717918239</v>
+        <v>185801.5717186276</v>
       </c>
       <c r="X3" t="n">
-        <v>5.382077103724874e-06</v>
+        <v>5.382085795885355e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132471.5609797276</v>
+        <v>132471.3468416927</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.548790039192127e-06</v>
+        <v>7.548802241703112e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00343519710277235</v>
+        <v>0.003435198687904897</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.816416388198597e-05</v>
+        <v>1.81641572725408e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02581314531332679</v>
+        <v>0.02581313513321027</v>
       </c>
       <c r="AD3" t="n">
-        <v>132537.5531719548</v>
+        <v>132537.3390537268</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.580936880350696</v>
+        <v>1.580935058477329</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.580936880350696</v>
+        <v>1.580935058477329</v>
       </c>
       <c r="AG3" t="n">
-        <v>334544.0459658507</v>
+        <v>334543.9493544844</v>
       </c>
       <c r="AH3" t="n">
-        <v>418378.8624087148</v>
+        <v>418378.7269710802</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.917347718243</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7062138288298</v>
+        <v>717.7062077288105</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.639892666673</v>
+        <v>1006.639885586634</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.8212838340293</v>
+        <v>342.8212045366233</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994969313065994</v>
+        <v>0.9994969303649702</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.816416388198597e-05</v>
+        <v>1.81641572725408e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02581314531332679</v>
+        <v>0.02581313513321027</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2407365555639907</v>
+        <v>0.240741398187083</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2407365555639907</v>
+        <v>0.240741398187083</v>
       </c>
       <c r="DH3" t="n">
-        <v>187908.6092747097</v>
+        <v>187912.1975782304</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.801075364093789</v>
+        <v>2.801127834185044</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5129,121 +5129,121 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>278.0045424730886</v>
+        <v>278.0251887886684</v>
       </c>
       <c r="DV3" t="n">
-        <v>115.9958573888775</v>
+        <v>116.0047681626573</v>
       </c>
       <c r="DW3" t="n">
-        <v>252.6489396460838</v>
+        <v>252.6675669026455</v>
       </c>
       <c r="DX3" t="n">
-        <v>65.3392589473989</v>
+        <v>65.33919177716334</v>
       </c>
       <c r="DY3" t="n">
-        <v>278.0045424730886</v>
+        <v>278.0251887886684</v>
       </c>
       <c r="DZ3" t="n">
-        <v>115.9958573888775</v>
+        <v>116.0047681626573</v>
       </c>
       <c r="EA3" t="n">
-        <v>252.6489396460838</v>
+        <v>252.6675669026455</v>
       </c>
       <c r="EB3" t="n">
-        <v>65.33925894739889</v>
+        <v>65.33919177716334</v>
       </c>
       <c r="EC3" t="n">
-        <v>257.0374671030534</v>
+        <v>257.0317358933133</v>
       </c>
       <c r="ED3" t="n">
-        <v>82934.74270192976</v>
+        <v>82928.07463312557</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.12481699848467</v>
+        <v>1.124751665543107</v>
       </c>
       <c r="EF3" t="n">
-        <v>309409.4031803809</v>
+        <v>309405.3088548539</v>
       </c>
       <c r="EG3" t="n">
-        <v>383141.1682707536</v>
+        <v>383135.428288002</v>
       </c>
       <c r="EH3" t="n">
-        <v>3788.919886551912</v>
+        <v>3788.92061923928</v>
       </c>
       <c r="EI3" t="n">
-        <v>-590753.202424938</v>
+        <v>-590737.4156370379</v>
       </c>
       <c r="EJ3" t="n">
-        <v>716.4704925479843</v>
+        <v>716.470344882173</v>
       </c>
       <c r="EK3" t="n">
-        <v>1005.118615028182</v>
+        <v>1005.118423710782</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.40287510160213</v>
+        <v>1.402875123709521</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.9993139907805462</v>
+        <v>0.9993139684569198</v>
       </c>
       <c r="EN3" t="n">
-        <v>321.505447720663</v>
+        <v>321.5018586662084</v>
       </c>
       <c r="EO3" t="n">
-        <v>116267.5559389055</v>
+        <v>116258.207061547</v>
       </c>
       <c r="EP3" t="n">
-        <v>8.600851647087732e-06</v>
+        <v>8.601543282622624e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>82878.052227261</v>
+        <v>82871.38683743558</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.206592062827305e-05</v>
+        <v>1.206689109670201e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.003903977621384957</v>
+        <v>0.00390406446366863</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.639853367029594e-05</v>
+        <v>1.63982383919155e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.0231088088963005</v>
+        <v>0.0231083592136317</v>
       </c>
       <c r="EV3" t="n">
-        <v>82934.74270192976</v>
+        <v>82928.07463312557</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.12481699848467</v>
+        <v>1.124751665543107</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.12481699848467</v>
+        <v>1.124751665543107</v>
       </c>
       <c r="EY3" t="n">
-        <v>309409.4031803809</v>
+        <v>309405.3088548539</v>
       </c>
       <c r="EZ3" t="n">
-        <v>383141.1682707536</v>
+        <v>383135.428288002</v>
       </c>
       <c r="FA3" t="n">
-        <v>3788.919886551912</v>
+        <v>3788.92061923928</v>
       </c>
       <c r="FB3" t="n">
-        <v>716.4704925479843</v>
+        <v>716.470344882173</v>
       </c>
       <c r="FC3" t="n">
-        <v>1005.118615028182</v>
+        <v>1005.118423710782</v>
       </c>
       <c r="FD3" t="n">
-        <v>321.505447720663</v>
+        <v>321.5018586662084</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9993139907805462</v>
+        <v>0.9993139684569198</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.639853367029594e-05</v>
+        <v>1.63982383919155e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0231088088963005</v>
+        <v>0.0231083592136317</v>
       </c>
       <c r="FH3" t="inlineStr">
         <is>
@@ -5254,97 +5254,97 @@
         <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>295.5933755788736</v>
+        <v>295.5933747786516</v>
       </c>
       <c r="FK3" t="n">
-        <v>135142.878405361</v>
+        <v>135142.5332942841</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.593477963191175</v>
+        <v>1.593473896406309</v>
       </c>
       <c r="FM3" t="n">
-        <v>336974.4233400561</v>
+        <v>336974.4234699742</v>
       </c>
       <c r="FN3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FO3" t="n">
-        <v>3788.919886551612</v>
+        <v>3788.920619238965</v>
       </c>
       <c r="FP3" t="n">
-        <v>-698195.1879751242</v>
+        <v>-698195.4015206741</v>
       </c>
       <c r="FQ3" t="n">
-        <v>717.8557944799219</v>
+        <v>717.8557935810048</v>
       </c>
       <c r="FR3" t="n">
-        <v>1006.77467322899</v>
+        <v>1006.774667562616</v>
       </c>
       <c r="FS3" t="n">
-        <v>1.402474815932059</v>
+        <v>1.402474809794802</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.9995307875089424</v>
+        <v>0.9995307886836919</v>
       </c>
       <c r="FU3" t="n">
-        <v>344.8024274224495</v>
+        <v>344.8024266019471</v>
       </c>
       <c r="FV3" t="n">
-        <v>189446.5457616841</v>
+        <v>189446.0613652381</v>
       </c>
       <c r="FW3" t="n">
-        <v>5.278533825884365e-06</v>
+        <v>5.278547322617984e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>135080.1765633</v>
+        <v>135079.8317674998</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.403010755848318e-06</v>
+        <v>7.403029652281518e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.003395610227215384</v>
+        <v>0.003395610204446784</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.832921822184826e-05</v>
+        <v>1.83292181332516e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0260672240010071</v>
+        <v>0.02606722383068531</v>
       </c>
       <c r="GC3" t="n">
-        <v>135142.878405361</v>
+        <v>135142.5332942841</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.593477963191175</v>
+        <v>1.593473896406309</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.593477963191175</v>
+        <v>1.593473896406309</v>
       </c>
       <c r="GF3" t="n">
-        <v>336974.4233400561</v>
+        <v>336974.4234699742</v>
       </c>
       <c r="GG3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GH3" t="n">
-        <v>3788.919886551612</v>
+        <v>3788.920619238965</v>
       </c>
       <c r="GI3" t="n">
-        <v>717.8557944799219</v>
+        <v>717.8557935810048</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1006.77467322899</v>
+        <v>1006.774667562616</v>
       </c>
       <c r="GK3" t="n">
-        <v>344.8024274224495</v>
+        <v>344.8024266019471</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9995307875089424</v>
+        <v>0.9995307886836919</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.832921822184826e-05</v>
+        <v>1.83292181332516e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.0260672240010071</v>
+        <v>0.02606722383068531</v>
       </c>
       <c r="GO3" t="inlineStr">
         <is>
@@ -5355,97 +5355,97 @@
         <v>1</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.5933755788736</v>
+        <v>295.5933747786516</v>
       </c>
       <c r="GR3" t="n">
-        <v>135142.878405361</v>
+        <v>135142.5332942841</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.593477963191175</v>
+        <v>1.593473896406309</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.4233400561</v>
+        <v>336974.4234699742</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.919886551612</v>
+        <v>3788.920619238965</v>
       </c>
       <c r="GW3" t="n">
-        <v>-698195.1879751242</v>
+        <v>-698195.4015206741</v>
       </c>
       <c r="GX3" t="n">
-        <v>717.8557944799219</v>
+        <v>717.8557935810048</v>
       </c>
       <c r="GY3" t="n">
-        <v>1006.77467322899</v>
+        <v>1006.774667562616</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.402474815932059</v>
+        <v>1.402474809794802</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9995307875089424</v>
+        <v>0.9995307886836919</v>
       </c>
       <c r="HB3" t="n">
-        <v>344.8024274224495</v>
+        <v>344.8024266019471</v>
       </c>
       <c r="HC3" t="n">
-        <v>189446.5457616841</v>
+        <v>189446.0613652381</v>
       </c>
       <c r="HD3" t="n">
-        <v>5.278533825884365e-06</v>
+        <v>5.278547322617984e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>135080.1765633</v>
+        <v>135079.8317674998</v>
       </c>
       <c r="HF3" t="n">
-        <v>7.403010755848318e-06</v>
+        <v>7.403029652281518e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.003395610227215384</v>
+        <v>0.003395610204446784</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832921822184826e-05</v>
+        <v>1.83292181332516e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.0260672240010071</v>
+        <v>0.02606722383068531</v>
       </c>
       <c r="HJ3" t="n">
-        <v>135142.878405361</v>
+        <v>135142.5332942841</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.593477963191175</v>
+        <v>1.593473896406309</v>
       </c>
       <c r="HL3" t="n">
-        <v>1.593477963191175</v>
+        <v>1.593473896406309</v>
       </c>
       <c r="HM3" t="n">
-        <v>336974.4233400561</v>
+        <v>336974.4234699742</v>
       </c>
       <c r="HN3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HO3" t="n">
-        <v>3788.919886551612</v>
+        <v>3788.920619238965</v>
       </c>
       <c r="HP3" t="n">
-        <v>717.8557944799219</v>
+        <v>717.8557935810048</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1006.77467322899</v>
+        <v>1006.774667562616</v>
       </c>
       <c r="HR3" t="n">
-        <v>344.8024274224495</v>
+        <v>344.8024266019471</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9995307875089424</v>
+        <v>0.9995307886836919</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.832921822184826e-05</v>
+        <v>1.83292181332516e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.0260672240010071</v>
+        <v>0.02606722383068531</v>
       </c>
       <c r="HV3" t="inlineStr">
         <is>
@@ -5456,166 +5456,166 @@
         <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8646962110409719</v>
+        <v>0.8647700823320011</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.8646962110409719</v>
+        <v>0.8647700823320011</v>
       </c>
       <c r="HZ3" t="n">
-        <v>498845.9915287592</v>
+        <v>498863.0448911704</v>
       </c>
       <c r="IA3" t="n">
-        <v>2.80107536409905</v>
+        <v>2.80112783418646</v>
       </c>
       <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.01561192565332767</v>
+        <v>0.01561188987688722</v>
       </c>
       <c r="ID3" t="n">
-        <v>-1.824277019710357e-07</v>
+        <v>-1.824362968618141e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.01377981236500564</v>
+        <v>0.01377981061740569</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.02533404515339419</v>
+        <v>0.02533406513283722</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.05472560074402552</v>
+        <v>0.05472558319083326</v>
       </c>
       <c r="II3" t="n">
-        <v>-5.157402283018087e-12</v>
+        <v>-6.166449295630372e-12</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>381602.8887595641</v>
+        <v>381596.99587445</v>
       </c>
       <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM3" t="n">
-        <v>278.0045424730886</v>
+        <v>278.0251887886684</v>
       </c>
       <c r="IN3" t="n">
-        <v>115.9958573888775</v>
+        <v>116.0047681626573</v>
       </c>
       <c r="IO3" t="n">
-        <v>252.6489396460838</v>
+        <v>252.6675669026455</v>
       </c>
       <c r="IP3" t="n">
-        <v>65.3392589473989</v>
+        <v>65.33919177716334</v>
       </c>
       <c r="IQ3" t="n">
-        <v>145.2043978869175</v>
+        <v>145.2227215031172</v>
       </c>
       <c r="IR3" t="n">
-        <v>115.9958573888775</v>
+        <v>116.0047681626573</v>
       </c>
       <c r="IS3" t="n">
-        <v>87.34573964608381</v>
+        <v>87.36436690264549</v>
       </c>
       <c r="IT3" t="n">
-        <v>36.98001800433089</v>
+        <v>36.98377405534458</v>
       </c>
       <c r="IU3" t="n">
-        <v>257.0374671031486</v>
+        <v>257.0317358933086</v>
       </c>
       <c r="IV3" t="n">
-        <v>82934.74270045139</v>
+        <v>82928.07463144946</v>
       </c>
       <c r="IW3" t="n">
-        <v>1.124816998464187</v>
+        <v>1.124751665520379</v>
       </c>
       <c r="IX3" t="n">
-        <v>309409.4031804533</v>
+        <v>309405.3088548545</v>
       </c>
       <c r="IY3" t="n">
-        <v>383141.1682708543</v>
+        <v>383135.4282880024</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3788.919886557417</v>
+        <v>3788.920619245079</v>
       </c>
       <c r="JA3" t="n">
-        <v>-590753.2024266134</v>
+        <v>-590737.4156385101</v>
       </c>
       <c r="JB3" t="n">
-        <v>716.4704925479811</v>
+        <v>716.4703448821668</v>
       </c>
       <c r="JC3" t="n">
-        <v>1005.118615028149</v>
+        <v>1005.118423710743</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.402875101602091</v>
+        <v>1.40287512370948</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.9993139907805596</v>
+        <v>0.9993139684569335</v>
       </c>
       <c r="JF3" t="n">
-        <v>321.5054477207223</v>
+        <v>321.5018586662051</v>
       </c>
       <c r="JG3" t="n">
-        <v>116267.5559368311</v>
+        <v>116258.2070591954</v>
       </c>
       <c r="JH3" t="n">
-        <v>8.60085164724118e-06</v>
+        <v>8.60154328279661e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>82878.05222578475</v>
+        <v>82871.38683576176</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.206592062848798e-05</v>
+        <v>1.206689109694574e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.003903977621383256</v>
+        <v>0.003904064463668429</v>
       </c>
       <c r="JL3" t="n">
-        <v>1.63985336703006e-05</v>
+        <v>1.6398238391915e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.02310880889630738</v>
+        <v>0.02310835921363071</v>
       </c>
       <c r="JN3" t="n">
-        <v>82934.74270045139</v>
+        <v>82928.07463144946</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.124816998464187</v>
+        <v>1.124751665520379</v>
       </c>
       <c r="JP3" t="n">
-        <v>1.124816998464187</v>
+        <v>1.124751665520379</v>
       </c>
       <c r="JQ3" t="n">
-        <v>309409.4031804533</v>
+        <v>309405.3088548545</v>
       </c>
       <c r="JR3" t="n">
-        <v>383141.1682708543</v>
+        <v>383135.4282880024</v>
       </c>
       <c r="JS3" t="n">
-        <v>3788.919886557417</v>
+        <v>3788.920619245079</v>
       </c>
       <c r="JT3" t="n">
-        <v>716.4704925479811</v>
+        <v>716.4703448821668</v>
       </c>
       <c r="JU3" t="n">
-        <v>1005.118615028149</v>
+        <v>1005.118423710743</v>
       </c>
       <c r="JV3" t="n">
-        <v>321.5054477207223</v>
+        <v>321.5018586662051</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.9993139907805596</v>
+        <v>0.9993139684569335</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.63985336703006e-05</v>
+        <v>1.6398238391915e-05</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.02310880889630738</v>
+        <v>0.02310835921363071</v>
       </c>
       <c r="JZ3" t="inlineStr">
         <is>
@@ -5626,97 +5626,97 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>295.5933755787674</v>
+        <v>295.5933747786452</v>
       </c>
       <c r="KC3" t="n">
-        <v>135142.8784026078</v>
+        <v>135142.5332915526</v>
       </c>
       <c r="KD3" t="n">
-        <v>1.593477963159272</v>
+        <v>1.593473896374122</v>
       </c>
       <c r="KE3" t="n">
-        <v>336974.4233399854</v>
+        <v>336974.4234699752</v>
       </c>
       <c r="KF3" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KG3" t="n">
-        <v>3788.919886557117</v>
+        <v>3788.920619244764</v>
       </c>
       <c r="KH3" t="n">
-        <v>-698195.1879764496</v>
+        <v>-698195.401522364</v>
       </c>
       <c r="KI3" t="n">
-        <v>717.8557944799103</v>
+        <v>717.8557935809977</v>
       </c>
       <c r="KJ3" t="n">
-        <v>1006.774673228942</v>
+        <v>1006.774667562571</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.402474815932014</v>
+        <v>1.402474809794753</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.9995307875089505</v>
+        <v>0.9995307886837013</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8024274223849</v>
+        <v>344.8024266019405</v>
       </c>
       <c r="KN3" t="n">
-        <v>189446.5457578202</v>
+        <v>189446.0613614042</v>
       </c>
       <c r="KO3" t="n">
-        <v>5.278533825992027e-06</v>
+        <v>5.278547322724809e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>135080.1765605492</v>
+        <v>135079.8317647708</v>
       </c>
       <c r="KQ3" t="n">
-        <v>7.403010755999078e-06</v>
+        <v>7.403029652431078e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.003395610227216362</v>
+        <v>0.003395610204446606</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.832921822184271e-05</v>
+        <v>1.83292181332509e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.0260672240009983</v>
+        <v>0.02606722383068395</v>
       </c>
       <c r="KU3" t="n">
-        <v>135142.8784026078</v>
+        <v>135142.5332915526</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.593477963159272</v>
+        <v>1.593473896374122</v>
       </c>
       <c r="KW3" t="n">
-        <v>1.593477963159272</v>
+        <v>1.593473896374122</v>
       </c>
       <c r="KX3" t="n">
-        <v>336974.4233399854</v>
+        <v>336974.4234699752</v>
       </c>
       <c r="KY3" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KZ3" t="n">
-        <v>3788.919886557117</v>
+        <v>3788.920619244764</v>
       </c>
       <c r="LA3" t="n">
-        <v>717.8557944799103</v>
+        <v>717.8557935809977</v>
       </c>
       <c r="LB3" t="n">
-        <v>1006.774673228942</v>
+        <v>1006.774667562571</v>
       </c>
       <c r="LC3" t="n">
-        <v>344.8024274223849</v>
+        <v>344.8024266019405</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.9995307875089505</v>
+        <v>0.9995307886837013</v>
       </c>
       <c r="LE3" t="n">
-        <v>1.832921822184271e-05</v>
+        <v>1.83292181332509e-05</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.0260672240009983</v>
+        <v>0.02606722383068395</v>
       </c>
       <c r="LG3" t="inlineStr">
         <is>
@@ -5727,97 +5727,97 @@
         <v>1</v>
       </c>
       <c r="LI3" t="n">
-        <v>267.5608469997762</v>
+        <v>267.5577731098875</v>
       </c>
       <c r="LJ3" t="n">
-        <v>95409.78892538011</v>
+        <v>95405.7177487177</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.243057550910407</v>
+        <v>1.243018806572304</v>
       </c>
       <c r="LL3" t="n">
-        <v>316929.2064545718</v>
+        <v>316927.0101515445</v>
       </c>
       <c r="LM3" t="n">
-        <v>393683.3268535048</v>
+        <v>393680.2477085887</v>
       </c>
       <c r="LN3" t="n">
-        <v>3788.919886558616</v>
+        <v>3788.920619246262</v>
       </c>
       <c r="LO3" t="n">
-        <v>-620083.2872084144</v>
+        <v>-620074.9156670772</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.7674741389919</v>
+        <v>716.7673783799974</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.488635078847</v>
+        <v>1005.488513618369</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.402810076289633</v>
+        <v>1.40281009424693</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993621730097745</v>
+        <v>0.9993621593738189</v>
       </c>
       <c r="LT3" t="n">
-        <v>328.0291303265503</v>
+        <v>328.0272436178924</v>
       </c>
       <c r="LU3" t="n">
-        <v>133756.8588130545</v>
+        <v>133751.1512089476</v>
       </c>
       <c r="LV3" t="n">
-        <v>7.476252125490264e-06</v>
+        <v>7.476571161901915e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>95349.22871871234</v>
+        <v>95345.15880479831</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.048776181451953e-05</v>
+        <v>1.04882094962715e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.003750723525121283</v>
+        <v>0.003750766500679456</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1.693635799618299e-05</v>
+        <v>1.693620209538369e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.02392923167052295</v>
+        <v>0.02392899340875062</v>
       </c>
       <c r="MB3" t="n">
-        <v>95409.78892538011</v>
+        <v>95405.7177487177</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.243057550910407</v>
+        <v>1.243018806572304</v>
       </c>
       <c r="MD3" t="n">
-        <v>1.243057550910407</v>
+        <v>1.243018806572304</v>
       </c>
       <c r="ME3" t="n">
-        <v>316929.2064545718</v>
+        <v>316927.0101515445</v>
       </c>
       <c r="MF3" t="n">
-        <v>393683.3268535048</v>
+        <v>393680.2477085887</v>
       </c>
       <c r="MG3" t="n">
-        <v>3788.919886558616</v>
+        <v>3788.920619246262</v>
       </c>
       <c r="MH3" t="n">
-        <v>716.7674741389919</v>
+        <v>716.7673783799974</v>
       </c>
       <c r="MI3" t="n">
-        <v>1005.488635078847</v>
+        <v>1005.488513618369</v>
       </c>
       <c r="MJ3" t="n">
-        <v>328.0291303265503</v>
+        <v>328.0272436178924</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.9993621730097745</v>
+        <v>0.9993621593738189</v>
       </c>
       <c r="ML3" t="n">
-        <v>1.693635799618299e-05</v>
+        <v>1.693620209538369e-05</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.02392923167052295</v>
+        <v>0.02392899340875062</v>
       </c>
       <c r="MN3" t="inlineStr">
         <is>
@@ -5828,139 +5828,139 @@
         <v>1</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.8646962110408125</v>
+        <v>0.86477008233201</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.4516389968391772</v>
+        <v>0.4517010324779885</v>
       </c>
       <c r="MR3" t="n">
-        <v>259555.9784761348</v>
+        <v>259578.3286639177</v>
       </c>
       <c r="MS3" t="n">
-        <v>2.801075364048043</v>
+        <v>2.801127834129859</v>
       </c>
       <c r="MT3" t="n">
-        <v>380020.7528884851</v>
+        <v>380017.6737433684</v>
       </c>
       <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV3" t="n">
-        <v>142.2541798786798</v>
+        <v>142.2725061149582</v>
       </c>
       <c r="MW3" t="n">
-        <v>129.9830867739994</v>
+        <v>129.9769841416722</v>
       </c>
       <c r="MX3" t="n">
-        <v>-57.79834639207903</v>
+        <v>-57.85714812939116</v>
       </c>
       <c r="MY3" t="n">
-        <v>-23.97282605757689</v>
+        <v>-23.99546243253913</v>
       </c>
       <c r="MZ3" t="n">
-        <v>258.2051565128668</v>
+        <v>258.2528942408886</v>
       </c>
       <c r="NA3" t="n">
-        <v>129.9830867739994</v>
+        <v>129.9769841416722</v>
       </c>
       <c r="NB3" t="n">
-        <v>-223.101546392079</v>
+        <v>-223.1603481293912</v>
       </c>
       <c r="NC3" t="n">
-        <v>-59.7741311784579</v>
+        <v>-59.78186837462511</v>
       </c>
       <c r="ND3" t="n">
-        <v>234.2675760759986</v>
+        <v>234.2522374816747</v>
       </c>
       <c r="NE3" t="n">
-        <v>57500.00000221885</v>
+        <v>57500.00000106993</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.8556917874563363</v>
+        <v>0.8557479932486467</v>
       </c>
       <c r="NG3" t="n">
-        <v>293151.2831519559</v>
+        <v>293140.2902667608</v>
       </c>
       <c r="NH3" t="n">
-        <v>360348.375428774</v>
+        <v>360332.9690164762</v>
       </c>
       <c r="NI3" t="n">
-        <v>3801.131194289694</v>
+        <v>3801.065427974099</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-530133.4158043383</v>
+        <v>-530075.112300696</v>
       </c>
       <c r="NK3" t="n">
-        <v>715.988593199974</v>
+        <v>715.9884098120294</v>
       </c>
       <c r="NL3" t="n">
-        <v>1004.421377282742</v>
+        <v>1004.421411956264</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.402845501760961</v>
+        <v>1.402845909502861</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.9992681996164483</v>
+        <v>0.9992679941037872</v>
       </c>
       <c r="NO3" t="n">
-        <v>306.9173694667621</v>
+        <v>306.9073031266865</v>
       </c>
       <c r="NP3" t="n">
-        <v>80604.68746949645</v>
+        <v>80604.69431860879</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.240622637955682e-05</v>
+        <v>1.240622532537953e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>57457.99332023032</v>
+        <v>57457.98150216895</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.740401887038946e-05</v>
+        <v>1.740402245007948e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.004282029684699123</v>
+        <v>0.004282312567046339</v>
       </c>
       <c r="NU3" t="n">
-        <v>1.520413469671776e-05</v>
+        <v>1.520331799372755e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.02129651313167648</v>
+        <v>0.02129528118110646</v>
       </c>
       <c r="NW3" t="n">
-        <v>57500.00000221885</v>
+        <v>57500.00000106993</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.8556917874563363</v>
+        <v>0.8557479932486467</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.8556917874563363</v>
+        <v>0.8557479932486467</v>
       </c>
       <c r="NZ3" t="n">
-        <v>293151.2831519559</v>
+        <v>293140.2902667608</v>
       </c>
       <c r="OA3" t="n">
-        <v>360348.375428774</v>
+        <v>360332.9690164762</v>
       </c>
       <c r="OB3" t="n">
-        <v>3801.131194289694</v>
+        <v>3801.065427974099</v>
       </c>
       <c r="OC3" t="n">
-        <v>715.988593199974</v>
+        <v>715.9884098120294</v>
       </c>
       <c r="OD3" t="n">
-        <v>1004.421377282742</v>
+        <v>1004.421411956264</v>
       </c>
       <c r="OE3" t="n">
-        <v>306.9173694667621</v>
+        <v>306.9073031266865</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.9992681996164483</v>
+        <v>0.9992679941037872</v>
       </c>
       <c r="OG3" t="n">
-        <v>1.520413469671776e-05</v>
+        <v>1.520331799372755e-05</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.02129651313167648</v>
+        <v>0.02129528118110646</v>
       </c>
       <c r="OI3" t="inlineStr">
         <is>
@@ -5971,97 +5971,97 @@
         <v>1</v>
       </c>
       <c r="OK3" t="n">
-        <v>244.3720243358606</v>
+        <v>244.3592950570956</v>
       </c>
       <c r="OL3" t="n">
-        <v>66632.99544774425</v>
+        <v>66636.10566813119</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.950576533528512</v>
+        <v>0.950670614573711</v>
       </c>
       <c r="ON3" t="n">
-        <v>300369.0466280275</v>
+        <v>300359.9128026388</v>
       </c>
       <c r="OO3" t="n">
-        <v>370466.5012752662</v>
+        <v>370453.7020148061</v>
       </c>
       <c r="OP3" t="n">
-        <v>3801.131194308104</v>
+        <v>3801.065427992507</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-558423.6234439923</v>
+        <v>-558371.9664353405</v>
       </c>
       <c r="OR3" t="n">
-        <v>716.1701763799482</v>
+        <v>716.1699862633018</v>
       </c>
       <c r="OS3" t="n">
-        <v>1004.668498245113</v>
+        <v>1004.668556869755</v>
       </c>
       <c r="OT3" t="n">
-        <v>1.40283487274414</v>
+        <v>1.402835327003477</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.9992968807356165</v>
+        <v>0.9992966800621318</v>
       </c>
       <c r="OV3" t="n">
-        <v>313.4743613863363</v>
+        <v>313.4661847147937</v>
       </c>
       <c r="OW3" t="n">
-        <v>93409.52022899108</v>
+        <v>93413.89180312716</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.070554690301936e-05</v>
+        <v>1.07050459058866e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>66586.25476444636</v>
+        <v>66589.34944464483</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.50181145273536e-05</v>
+        <v>1.501741657397166e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.004105321302546942</v>
+        <v>0.004105537752779175</v>
       </c>
       <c r="PB3" t="n">
-        <v>1.573920277616014e-05</v>
+        <v>1.573853652259029e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.02210645759390943</v>
+        <v>0.02210544963940287</v>
       </c>
       <c r="PD3" t="n">
-        <v>66632.99544774425</v>
+        <v>66636.10566813119</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.950576533528512</v>
+        <v>0.950670614573711</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.950576533528512</v>
+        <v>0.950670614573711</v>
       </c>
       <c r="PG3" t="n">
-        <v>300369.0466280275</v>
+        <v>300359.9128026388</v>
       </c>
       <c r="PH3" t="n">
-        <v>370466.5012752662</v>
+        <v>370453.7020148061</v>
       </c>
       <c r="PI3" t="n">
-        <v>3801.131194308104</v>
+        <v>3801.065427992507</v>
       </c>
       <c r="PJ3" t="n">
-        <v>716.1701763799482</v>
+        <v>716.1699862633018</v>
       </c>
       <c r="PK3" t="n">
-        <v>1004.668498245113</v>
+        <v>1004.668556869755</v>
       </c>
       <c r="PL3" t="n">
-        <v>313.4743613863363</v>
+        <v>313.4661847147937</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9992968807356165</v>
+        <v>0.9992966800621318</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.573920277616014e-05</v>
+        <v>1.573853652259029e-05</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.02210645759390943</v>
+        <v>0.02210544963940287</v>
       </c>
       <c r="PP3" t="inlineStr">
         <is>
@@ -6072,97 +6072,97 @@
         <v>1</v>
       </c>
       <c r="PR3" t="n">
-        <v>267.5495628193703</v>
+        <v>267.5465493187569</v>
       </c>
       <c r="PS3" t="n">
-        <v>91433.66777823512</v>
+        <v>91450.96263137927</v>
       </c>
       <c r="PT3" t="n">
-        <v>1.191273068331338</v>
+        <v>1.191512003205039</v>
       </c>
       <c r="PU3" t="n">
-        <v>316930.4225791642</v>
+        <v>316928.2197091854</v>
       </c>
       <c r="PV3" t="n">
-        <v>393683.3268535048</v>
+        <v>393680.2477083881</v>
       </c>
       <c r="PW3" t="n">
-        <v>3801.131194292432</v>
+        <v>3801.065427983831</v>
       </c>
       <c r="PX3" t="n">
-        <v>-623307.6623985064</v>
+        <v>-623281.6912835097</v>
       </c>
       <c r="PY3" t="n">
-        <v>716.7542328846097</v>
+        <v>716.7542078928583</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1005.405768332133</v>
+        <v>1005.406089895016</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.402720377786724</v>
+        <v>1.402720875334304</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.999388487163533</v>
+        <v>0.9993883337580182</v>
       </c>
       <c r="QC3" t="n">
-        <v>328.0203213065934</v>
+        <v>328.0184820065631</v>
       </c>
       <c r="QD3" t="n">
-        <v>128177.8028710707</v>
+        <v>128202.0738852401</v>
       </c>
       <c r="QE3" t="n">
-        <v>7.80166282773518e-06</v>
+        <v>7.800185829249131e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>91378.01439322889</v>
+        <v>91395.28479226938</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.094355142908533e-05</v>
+        <v>1.094148349417458e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.003750331145258195</v>
+        <v>0.003750376211907956</v>
       </c>
       <c r="QI3" t="n">
-        <v>1.693518207728253e-05</v>
+        <v>1.693503247581145e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.02392694597255506</v>
+        <v>0.02392671995166486</v>
       </c>
       <c r="QK3" t="n">
-        <v>91433.66777823512</v>
+        <v>91450.96263137927</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.191273068331338</v>
+        <v>1.191512003205039</v>
       </c>
       <c r="QM3" t="n">
-        <v>1.191273068331338</v>
+        <v>1.191512003205039</v>
       </c>
       <c r="QN3" t="n">
-        <v>316930.4225791642</v>
+        <v>316928.2197091854</v>
       </c>
       <c r="QO3" t="n">
-        <v>393683.3268535048</v>
+        <v>393680.2477083881</v>
       </c>
       <c r="QP3" t="n">
-        <v>3801.131194292432</v>
+        <v>3801.065427983831</v>
       </c>
       <c r="QQ3" t="n">
-        <v>716.7542328846097</v>
+        <v>716.7542078928583</v>
       </c>
       <c r="QR3" t="n">
-        <v>1005.405768332133</v>
+        <v>1005.406089895016</v>
       </c>
       <c r="QS3" t="n">
-        <v>328.0203213065934</v>
+        <v>328.0184820065631</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.999388487163533</v>
+        <v>0.9993883337580182</v>
       </c>
       <c r="QU3" t="n">
-        <v>1.693518207728253e-05</v>
+        <v>1.693503247581145e-05</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.02392694597255506</v>
+        <v>0.02392671995166486</v>
       </c>
       <c r="QW3" t="inlineStr">
         <is>
@@ -6173,46 +6173,46 @@
         <v>1</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.4634934155920603</v>
+        <v>0.4635683304552397</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.8412855778135729</v>
+        <v>0.8414687158300884</v>
       </c>
       <c r="RA3" t="n">
-        <v>378699.7146728638</v>
+        <v>378814.9575024092</v>
       </c>
       <c r="RB3" t="n">
-        <v>2.801075364147539</v>
+        <v>2.801127834185847</v>
       </c>
       <c r="RC3" t="n">
-        <v>380020.7528884851</v>
+        <v>380017.6737433684</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.02693962188498152</v>
+        <v>0.02694369855472536</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.002766125128993042</v>
+        <v>0.002068696313524789</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.01174717696700834</v>
+        <v>0.01174759736945564</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.03296430785343795</v>
+        <v>0.03296244504496628</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.04275610682072112</v>
+        <v>0.04276189217296958</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.117173338655142</v>
+        <v>0.1164843294556416</v>
       </c>
       <c r="RJ3" t="n">
-        <v>-2.035810409140026e-11</v>
+        <v>-2.907325769019309e-11</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>357504.9813035143</v>
+        <v>357505.1508730713</v>
       </c>
     </row>
   </sheetData>
@@ -7556,145 +7556,145 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01561897652535764</v>
+        <v>0.01561894955946568</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.808493700719725e-07</v>
+        <v>-1.808550137489191e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01378013288009363</v>
+        <v>0.01378013173578421</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0253304329599657</v>
+        <v>0.0253304456663365</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0547293615160469</v>
+        <v>0.05472934610657264</v>
       </c>
       <c r="H2" t="n">
-        <v>2.755344979954444e-10</v>
+        <v>1.764549201199728e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>274.1678062151324</v>
+        <v>274.1817073319114</v>
       </c>
       <c r="K2" t="n">
-        <v>112.026524542385</v>
+        <v>112.0322046177429</v>
       </c>
       <c r="L2" t="n">
-        <v>250.2359761580513</v>
+        <v>250.2486638604292</v>
       </c>
       <c r="M2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="N2" t="n">
-        <v>274.1678062151324</v>
+        <v>274.1817073319114</v>
       </c>
       <c r="O2" t="n">
-        <v>112.026524542385</v>
+        <v>112.0322046177429</v>
       </c>
       <c r="P2" t="n">
-        <v>250.2359761580513</v>
+        <v>250.2486638604292</v>
       </c>
       <c r="Q2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="R2" t="n">
-        <v>258.1003988525393</v>
+        <v>258.0965937496605</v>
       </c>
       <c r="S2" t="n">
-        <v>85911.41388517867</v>
+        <v>85906.99128746273</v>
       </c>
       <c r="T2" t="n">
-        <v>1.160401424072864</v>
+        <v>1.160358814394918</v>
       </c>
       <c r="U2" t="n">
-        <v>310164.494937589</v>
+        <v>310161.7763246428</v>
       </c>
       <c r="V2" t="n">
-        <v>384200.4381059802</v>
+        <v>384196.6267706747</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347718242</v>
+        <v>3782.917347718243</v>
       </c>
       <c r="X2" t="n">
-        <v>-592172.0381662883</v>
+        <v>-592161.4551119038</v>
       </c>
       <c r="Y2" t="n">
-        <v>716.5043828475776</v>
+        <v>716.5042833207173</v>
       </c>
       <c r="Z2" t="n">
-        <v>1005.193756831506</v>
+        <v>1005.193630450295</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402913619085763</v>
+        <v>1.402913637573268</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9993041882929413</v>
+        <v>0.9993041716785316</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.1708149486334</v>
+        <v>322.1684368321446</v>
       </c>
       <c r="AD2" t="n">
-        <v>120442.7448692824</v>
+        <v>120436.5442050976</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.302700184102488e-06</v>
+        <v>8.303127647842905e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>85851.86089202794</v>
+        <v>85847.43991328382</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.164797116346325e-05</v>
+        <v>1.164857101167047e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003888215538379419</v>
+        <v>0.003888272746351813</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.645352168474987e-05</v>
+        <v>1.645332596852668e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02319279784559476</v>
+        <v>0.02319249969641211</v>
       </c>
       <c r="AK2" t="n">
-        <v>85911.41388517867</v>
+        <v>85906.99128746273</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.160401424072864</v>
+        <v>1.160358814394918</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.160401424072864</v>
+        <v>1.160358814394918</v>
       </c>
       <c r="AN2" t="n">
-        <v>310164.494937589</v>
+        <v>310161.7763246428</v>
       </c>
       <c r="AO2" t="n">
-        <v>384200.4381059802</v>
+        <v>384196.6267706747</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347718242</v>
+        <v>3782.917347718243</v>
       </c>
       <c r="AQ2" t="n">
-        <v>716.5043828475776</v>
+        <v>716.5042833207173</v>
       </c>
       <c r="AR2" t="n">
-        <v>1005.193756831506</v>
+        <v>1005.193630450295</v>
       </c>
       <c r="AS2" t="n">
-        <v>322.1708149486334</v>
+        <v>322.1684368321446</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9993041882929413</v>
+        <v>0.9993041716785316</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.645352168474987e-05</v>
+        <v>1.645332596852668e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02319279784559476</v>
+        <v>0.02319249969641211</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -7705,28 +7705,28 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.6000000000886</v>
+        <v>295.6000000000887</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999951877</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="BB2" t="n">
-        <v>336973.3475828946</v>
+        <v>336973.3475828947</v>
       </c>
       <c r="BC2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="BD2" t="n">
         <v>3782.91734772336</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368987706</v>
+        <v>-696445.936898771</v>
       </c>
       <c r="BF2" t="n">
-        <v>717.8632360362553</v>
+        <v>717.8632360362554</v>
       </c>
       <c r="BG2" t="n">
         <v>1006.821582550249</v>
@@ -7738,7 +7738,7 @@
         <v>0.9995210660216021</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.8092213940488</v>
+        <v>344.8092213940489</v>
       </c>
       <c r="BK2" t="n">
         <v>193456.8974370098</v>
@@ -7750,49 +7750,49 @@
         <v>137934.6617460247</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346988305e-06</v>
+        <v>7.249809346988306e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695745236</v>
+        <v>0.003395798695745235</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.832995174012118e-05</v>
+        <v>1.832995174012119e-05</v>
       </c>
       <c r="BQ2" t="n">
         <v>0.02606863419706635</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999951877</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="BU2" t="n">
-        <v>336973.3475828946</v>
+        <v>336973.3475828947</v>
       </c>
       <c r="BV2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="BW2" t="n">
         <v>3782.91734772336</v>
       </c>
       <c r="BX2" t="n">
-        <v>717.8632360362553</v>
+        <v>717.8632360362554</v>
       </c>
       <c r="BY2" t="n">
         <v>1006.821582550249</v>
       </c>
       <c r="BZ2" t="n">
-        <v>344.8092213940488</v>
+        <v>344.8092213940489</v>
       </c>
       <c r="CA2" t="n">
         <v>0.9995210660216021</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.832995174012118e-05</v>
+        <v>1.832995174012119e-05</v>
       </c>
       <c r="CC2" t="n">
         <v>0.02606863419706635</v>
@@ -7806,28 +7806,28 @@
         <v>1</v>
       </c>
       <c r="CF2" t="n">
-        <v>295.6000000000886</v>
+        <v>295.6000000000887</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999951877</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="CI2" t="n">
-        <v>336973.3475828946</v>
+        <v>336973.3475828947</v>
       </c>
       <c r="CJ2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="CK2" t="n">
         <v>3782.91734772336</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368987706</v>
+        <v>-696445.936898771</v>
       </c>
       <c r="CM2" t="n">
-        <v>717.8632360362553</v>
+        <v>717.8632360362554</v>
       </c>
       <c r="CN2" t="n">
         <v>1006.821582550249</v>
@@ -7839,7 +7839,7 @@
         <v>0.9995210660216021</v>
       </c>
       <c r="CQ2" t="n">
-        <v>344.8092213940488</v>
+        <v>344.8092213940489</v>
       </c>
       <c r="CR2" t="n">
         <v>193456.8974370098</v>
@@ -7851,49 +7851,49 @@
         <v>137934.6617460247</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346988305e-06</v>
+        <v>7.249809346988306e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695745236</v>
+        <v>0.003395798695745235</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.832995174012118e-05</v>
+        <v>1.832995174012119e-05</v>
       </c>
       <c r="CX2" t="n">
         <v>0.02606863419706635</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999951877</v>
+        <v>137999.9999951876</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819755044</v>
+        <v>1.627145819755043</v>
       </c>
       <c r="DB2" t="n">
-        <v>336973.3475828946</v>
+        <v>336973.3475828947</v>
       </c>
       <c r="DC2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="DD2" t="n">
         <v>3782.91734772336</v>
       </c>
       <c r="DE2" t="n">
-        <v>717.8632360362553</v>
+        <v>717.8632360362554</v>
       </c>
       <c r="DF2" t="n">
         <v>1006.821582550249</v>
       </c>
       <c r="DG2" t="n">
-        <v>344.8092213940488</v>
+        <v>344.8092213940489</v>
       </c>
       <c r="DH2" t="n">
         <v>0.9995210660216021</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.832995174012118e-05</v>
+        <v>1.832995174012119e-05</v>
       </c>
       <c r="DJ2" t="n">
         <v>0.02606863419706635</v>
@@ -7907,37 +7907,37 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.01607522977248892</v>
+        <v>0.01607524145773255</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.810779379779741e-07</v>
+        <v>-1.810836079045506e-07</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.01379738282248502</v>
+        <v>0.01379738310415444</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.02509842428980178</v>
+        <v>0.02509841753598272</v>
       </c>
       <c r="DQ2" t="n">
         <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.05497085580683774</v>
+        <v>0.05497086101426181</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.05497085580683774</v>
+        <v>-0.05497086101426181</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.8510013740966741</v>
+        <v>0.8510508044422889</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.8510013740966743</v>
+        <v>0.8510508044422889</v>
       </c>
       <c r="DV2" t="n">
-        <v>505828.8338172587</v>
+        <v>505841.9230078759</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.790805431673351</v>
+        <v>2.790844450803316</v>
       </c>
       <c r="DX2" t="n">
         <v>421784.4310884894</v>
@@ -7946,154 +7946,154 @@
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>384200.4381059802</v>
+        <v>384196.6267706747</v>
       </c>
       <c r="EA2" t="n">
-        <v>1509.720692161995</v>
+        <v>1509.824521133676</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.02607389602229048</v>
+        <v>0.02607674986677238</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.002221780604986662</v>
+        <v>0.001800624714764788</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01178846742599047</v>
+        <v>0.01178868640466821</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.03262518113249034</v>
+        <v>0.03262430700205068</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.04229027500589256</v>
+        <v>0.04229399713855295</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.1149996001916505</v>
+        <v>0.114584365126809</v>
       </c>
       <c r="EI2" t="n">
-        <v>5.20255227787203e-11</v>
+        <v>-1.230780755090422e-11</v>
       </c>
       <c r="EJ2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EK2" t="n">
-        <v>132.0703461336967</v>
+        <v>132.0920900080203</v>
       </c>
       <c r="EL2" t="n">
-        <v>120.641470069901</v>
+        <v>120.6546292331677</v>
       </c>
       <c r="EM2" t="n">
-        <v>-53.74208804324252</v>
+        <v>-53.76598076194438</v>
       </c>
       <c r="EN2" t="n">
-        <v>-24.01151112635009</v>
+        <v>-24.01865526775233</v>
       </c>
       <c r="EO2" t="n">
-        <v>250.0703951182025</v>
+        <v>250.0976719505854</v>
       </c>
       <c r="EP2" t="n">
-        <v>120.641470069901</v>
+        <v>120.6546292331677</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-219.0452880432425</v>
+        <v>-219.0691807619444</v>
       </c>
       <c r="ER2" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="ES2" t="n">
-        <v>236.9136066976463</v>
+        <v>236.9047222694307</v>
       </c>
       <c r="ET2" t="n">
-        <v>62420.8754872978</v>
+        <v>62412.598127662</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.9185702062721067</v>
+        <v>0.918482864134829</v>
       </c>
       <c r="EV2" t="n">
-        <v>295034.0214372882</v>
+        <v>295027.6762341348</v>
       </c>
       <c r="EW2" t="n">
-        <v>362988.4086589515</v>
+        <v>362979.5135135945</v>
       </c>
       <c r="EX2" t="n">
-        <v>3788.783891608392</v>
+        <v>3788.784383009959</v>
       </c>
       <c r="EY2" t="n">
-        <v>-534626.048099937</v>
+        <v>-534601.3984821362</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.0444568081035</v>
+        <v>716.0443048167214</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.555855530376</v>
+        <v>1004.555641078252</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.402923863147218</v>
+        <v>1.402923861443711</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992433487768622</v>
+        <v>0.9992433251823414</v>
       </c>
       <c r="FD2" t="n">
-        <v>308.6467825658256</v>
+        <v>308.6409877413258</v>
       </c>
       <c r="FE2" t="n">
-        <v>87505.6032712079</v>
+        <v>87493.99733003114</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.142783961960332e-05</v>
+        <v>1.142935550456058e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>62373.73642993298</v>
+        <v>62365.463824953</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.603238890656073e-05</v>
+        <v>1.603451555827106e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.004234886576738869</v>
+        <v>0.00423504503631704</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.534551064600743e-05</v>
+        <v>1.534503831279835e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.02151067060713703</v>
+        <v>0.02150995616942212</v>
       </c>
       <c r="FL2" t="n">
-        <v>62420.8754872978</v>
+        <v>62412.598127662</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.9185702062721067</v>
+        <v>0.918482864134829</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.9185702062721067</v>
+        <v>0.918482864134829</v>
       </c>
       <c r="FO2" t="n">
-        <v>295034.0214372882</v>
+        <v>295027.6762341348</v>
       </c>
       <c r="FP2" t="n">
-        <v>362988.4086589515</v>
+        <v>362979.5135135945</v>
       </c>
       <c r="FQ2" t="n">
-        <v>3788.783891608392</v>
+        <v>3788.784383009959</v>
       </c>
       <c r="FR2" t="n">
-        <v>716.0444568081035</v>
+        <v>716.0443048167214</v>
       </c>
       <c r="FS2" t="n">
-        <v>1004.555855530376</v>
+        <v>1004.555641078252</v>
       </c>
       <c r="FT2" t="n">
-        <v>308.6467825658256</v>
+        <v>308.6409877413258</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.9992433487768622</v>
+        <v>0.9992433251823414</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.534551064600743e-05</v>
+        <v>1.534503831279835e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.02151067060713703</v>
+        <v>0.02150995616942212</v>
       </c>
       <c r="FX2" t="inlineStr">
         <is>
@@ -8104,97 +8104,97 @@
         <v>1</v>
       </c>
       <c r="FZ2" t="n">
-        <v>245.6233998793238</v>
+        <v>245.6173846812564</v>
       </c>
       <c r="GA2" t="n">
-        <v>70805.41930440899</v>
+        <v>70799.2450175932</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.004980274684522</v>
+        <v>1.00491726886964</v>
       </c>
       <c r="GC2" t="n">
-        <v>301255.1604623392</v>
+        <v>301250.8640248123</v>
       </c>
       <c r="GD2" t="n">
-        <v>371709.696822902</v>
+        <v>371703.6736349311</v>
       </c>
       <c r="GE2" t="n">
-        <v>3788.783891608766</v>
+        <v>3788.784382993761</v>
       </c>
       <c r="GF2" t="n">
-        <v>-558904.2840420587</v>
+        <v>-558887.6376371846</v>
       </c>
       <c r="GG2" t="n">
-        <v>716.2078264162222</v>
+        <v>716.2077024742932</v>
       </c>
       <c r="GH2" t="n">
-        <v>1004.77833238746</v>
+        <v>1004.778164804403</v>
       </c>
       <c r="GI2" t="n">
-        <v>1.402914482818757</v>
+        <v>1.402914491610717</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9992703300968471</v>
+        <v>0.9992703109067826</v>
       </c>
       <c r="GK2" t="n">
-        <v>314.2765528788329</v>
+        <v>314.2726995181023</v>
       </c>
       <c r="GL2" t="n">
-        <v>99261.65218333715</v>
+        <v>99252.99517788175</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.007438399426388e-05</v>
+        <v>1.007526269819661e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>70753.88656897972</v>
+        <v>70747.71539634409</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.413349921103027e-05</v>
+        <v>1.413473204608492e-05</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.004085025007904673</v>
+        <v>0.004085124820790571</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.580534532986802e-05</v>
+        <v>1.580502991600689e-05</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.02220721764229777</v>
+        <v>0.02220673913591999</v>
       </c>
       <c r="GS2" t="n">
-        <v>70805.41930440899</v>
+        <v>70799.2450175932</v>
       </c>
       <c r="GT2" t="n">
-        <v>1.004980274684522</v>
+        <v>1.00491726886964</v>
       </c>
       <c r="GU2" t="n">
-        <v>1.004980274684522</v>
+        <v>1.00491726886964</v>
       </c>
       <c r="GV2" t="n">
-        <v>301255.1604623392</v>
+        <v>301250.8640248123</v>
       </c>
       <c r="GW2" t="n">
-        <v>371709.696822902</v>
+        <v>371703.6736349311</v>
       </c>
       <c r="GX2" t="n">
-        <v>3788.783891608766</v>
+        <v>3788.784382993761</v>
       </c>
       <c r="GY2" t="n">
-        <v>716.2078264162222</v>
+        <v>716.2077024742932</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1004.77833238746</v>
+        <v>1004.778164804403</v>
       </c>
       <c r="HA2" t="n">
-        <v>314.2765528788329</v>
+        <v>314.2726995181023</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.9992703300968471</v>
+        <v>0.9992703109067826</v>
       </c>
       <c r="HC2" t="n">
-        <v>1.580534532986802e-05</v>
+        <v>1.580502991600689e-05</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.02220721764229777</v>
+        <v>0.02220673913591999</v>
       </c>
       <c r="HE2" t="inlineStr">
         <is>
@@ -8205,97 +8205,97 @@
         <v>1</v>
       </c>
       <c r="HG2" t="n">
-        <v>268.1325478421008</v>
+        <v>268.1304777709691</v>
       </c>
       <c r="HH2" t="n">
-        <v>96169.14341418049</v>
+        <v>96166.38607709762</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.250276210268196</v>
+        <v>1.25025002662284</v>
       </c>
       <c r="HJ2" t="n">
-        <v>317337.69168854</v>
+        <v>317336.2125925181</v>
       </c>
       <c r="HK2" t="n">
-        <v>394256.0099164389</v>
+        <v>394253.9362712459</v>
       </c>
       <c r="HL2" t="n">
-        <v>3788.783891607141</v>
+        <v>3788.784383008714</v>
       </c>
       <c r="HM2" t="n">
-        <v>-621640.2681632941</v>
+        <v>-621634.6305160671</v>
       </c>
       <c r="HN2" t="n">
-        <v>716.7853702993812</v>
+        <v>716.7853051889655</v>
       </c>
       <c r="HO2" t="n">
-        <v>1005.511312850918</v>
+        <v>1005.511230421646</v>
       </c>
       <c r="HP2" t="n">
-        <v>1.402806690140655</v>
+        <v>1.402806702568441</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9993647230926556</v>
+        <v>0.9993647138087659</v>
       </c>
       <c r="HR2" t="n">
-        <v>328.3798436103877</v>
+        <v>328.3785743880762</v>
       </c>
       <c r="HS2" t="n">
-        <v>134821.4367826827</v>
+        <v>134817.571139268</v>
       </c>
       <c r="HT2" t="n">
-        <v>7.417218091303166e-06</v>
+        <v>7.417430766253677e-06</v>
       </c>
       <c r="HU2" t="n">
-        <v>96108.35030246724</v>
+        <v>96105.59380164524</v>
       </c>
       <c r="HV2" t="n">
-        <v>1.040492316071238e-05</v>
+        <v>1.040522159473803e-05</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.003742747758428514</v>
+        <v>0.003742776576679775</v>
       </c>
       <c r="HX2" t="n">
-        <v>1.696534104360775e-05</v>
+        <v>1.696523614315287e-05</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.02397353035643541</v>
+        <v>0.02397337000805914</v>
       </c>
       <c r="HZ2" t="n">
-        <v>96169.14341418049</v>
+        <v>96166.38607709762</v>
       </c>
       <c r="IA2" t="n">
-        <v>1.250276210268196</v>
+        <v>1.25025002662284</v>
       </c>
       <c r="IB2" t="n">
-        <v>1.250276210268196</v>
+        <v>1.25025002662284</v>
       </c>
       <c r="IC2" t="n">
-        <v>317337.69168854</v>
+        <v>317336.2125925181</v>
       </c>
       <c r="ID2" t="n">
-        <v>394256.0099164389</v>
+        <v>394253.9362712459</v>
       </c>
       <c r="IE2" t="n">
-        <v>3788.783891607141</v>
+        <v>3788.784383008714</v>
       </c>
       <c r="IF2" t="n">
-        <v>716.7853702993812</v>
+        <v>716.7853051889655</v>
       </c>
       <c r="IG2" t="n">
-        <v>1005.511312850918</v>
+        <v>1005.511230421646</v>
       </c>
       <c r="IH2" t="n">
-        <v>328.3798436103877</v>
+        <v>328.3785743880762</v>
       </c>
       <c r="II2" t="n">
-        <v>0.9993647230926556</v>
+        <v>0.9993647138087659</v>
       </c>
       <c r="IJ2" t="n">
-        <v>1.696534104360775e-05</v>
+        <v>1.696523614315287e-05</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.02397353035643541</v>
+        <v>0.02397337000805914</v>
       </c>
       <c r="IL2" t="inlineStr">
         <is>
@@ -8306,52 +8306,52 @@
         <v>1</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.0258954616009783</v>
+        <v>0.0258983815796876</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.002229373816986557</v>
+        <v>0.001806759332826682</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.01188913901036615</v>
+        <v>0.01188901772480752</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.03204945912520599</v>
+        <v>0.03205051348172583</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.04286665275502642</v>
+        <v>0.0428684099398277</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.1149300863085634</v>
+        <v>0.1145130820588753</v>
       </c>
       <c r="IT2" t="n">
-        <v>-0.1149300863085634</v>
+        <v>-0.1145130820588753</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.4279012566914733</v>
+        <v>0.4279797410405114</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.810215460661313</v>
+        <v>0.8103190499124309</v>
       </c>
       <c r="IW2" t="n">
-        <v>390092.5909888952</v>
+        <v>390110.0525622228</v>
       </c>
       <c r="IX2" t="n">
-        <v>2.790805431229597</v>
+        <v>2.790844450498295</v>
       </c>
       <c r="IY2" t="n">
-        <v>380593.4359512185</v>
+        <v>380591.3623061259</v>
       </c>
       <c r="IZ2" t="n">
         <v>0</v>
       </c>
       <c r="JA2" t="n">
-        <v>362988.4086570764</v>
+        <v>362979.5135117213</v>
       </c>
       <c r="JB2" t="n">
-        <v>2673.602141962794</v>
+        <v>2664.589159165858</v>
       </c>
       <c r="JC2" t="n">
-        <v>6.66433850399843</v>
+        <v>6.666992611864082</v>
       </c>
     </row>
     <row r="3">
@@ -8359,145 +8359,145 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01561192565332767</v>
+        <v>0.01561188987688722</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.824277019710357e-07</v>
+        <v>-1.824362968618141e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01377981236500564</v>
+        <v>0.01377981061740569</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02533404515339419</v>
+        <v>0.02533406513283722</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05472560074402552</v>
+        <v>0.05472558319083326</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.157402283018087e-12</v>
+        <v>-6.166449295630372e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.0073547130369</v>
+        <v>278.0280012615287</v>
       </c>
       <c r="K3" t="n">
-        <v>113.5953858903679</v>
+        <v>113.6038221874783</v>
       </c>
       <c r="L3" t="n">
-        <v>253.7403743572527</v>
+        <v>253.7592186894428</v>
       </c>
       <c r="M3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="N3" t="n">
-        <v>278.0073547130369</v>
+        <v>278.0280012615287</v>
       </c>
       <c r="O3" t="n">
-        <v>113.5953858903679</v>
+        <v>113.6038221874783</v>
       </c>
       <c r="P3" t="n">
-        <v>253.7403743572527</v>
+        <v>253.7592186894428</v>
       </c>
       <c r="Q3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="R3" t="n">
-        <v>257.0420666656482</v>
+        <v>257.0363357954577</v>
       </c>
       <c r="S3" t="n">
-        <v>84687.59710509458</v>
+        <v>84681.0042814644</v>
       </c>
       <c r="T3" t="n">
-        <v>1.148586371879173</v>
+        <v>1.148522590949239</v>
       </c>
       <c r="U3" t="n">
-        <v>309408.3631758194</v>
+        <v>309404.2687731546</v>
       </c>
       <c r="V3" t="n">
-        <v>383140.3864511254</v>
+        <v>383134.6463458558</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347718243</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="X3" t="n">
-        <v>-589228.5066317044</v>
+        <v>-589212.5673287124</v>
       </c>
       <c r="Y3" t="n">
-        <v>716.4769681994391</v>
+        <v>716.4768212041954</v>
       </c>
       <c r="Z3" t="n">
-        <v>1005.15887700939</v>
+        <v>1005.158689611947</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402918616540362</v>
+        <v>1.402918642814654</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9992996080680572</v>
+        <v>0.9992995834889824</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.5087000072743</v>
+        <v>321.5051109444508</v>
       </c>
       <c r="AD3" t="n">
-        <v>118726.8971161</v>
+        <v>118717.6536389541</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.422691271230019e-06</v>
+        <v>8.423347070531014e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>84628.49927024558</v>
+        <v>84621.90893747962</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.181635038578061e-05</v>
+        <v>1.181727064014616e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003904192220009301</v>
+        <v>0.003904279091174619</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.639904245972699e-05</v>
+        <v>1.639874721554649e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02310982003042744</v>
+        <v>0.02310937042038632</v>
       </c>
       <c r="AK3" t="n">
-        <v>84687.59710509458</v>
+        <v>84681.0042814644</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.148586371879173</v>
+        <v>1.148522590949239</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.148586371879173</v>
+        <v>1.148522590949239</v>
       </c>
       <c r="AN3" t="n">
-        <v>309408.3631758194</v>
+        <v>309404.2687731546</v>
       </c>
       <c r="AO3" t="n">
-        <v>383140.3864511254</v>
+        <v>383134.6463458558</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347718243</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="AQ3" t="n">
-        <v>716.4769681994391</v>
+        <v>716.4768212041954</v>
       </c>
       <c r="AR3" t="n">
-        <v>1005.15887700939</v>
+        <v>1005.158689611947</v>
       </c>
       <c r="AS3" t="n">
-        <v>321.5087000072743</v>
+        <v>321.5051109444508</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9992996080680572</v>
+        <v>0.9992995834889824</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.639904245972699e-05</v>
+        <v>1.639874721554649e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02310982003042744</v>
+        <v>0.02310937042038632</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -8508,28 +8508,28 @@
         <v>1</v>
       </c>
       <c r="AY3" t="n">
-        <v>295.6000000000887</v>
+        <v>295.6000000000886</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999951876</v>
+        <v>137999.9999951877</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819755043</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="BB3" t="n">
-        <v>336973.3475828947</v>
+        <v>336973.3475828946</v>
       </c>
       <c r="BC3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="BD3" t="n">
         <v>3782.91734772336</v>
       </c>
       <c r="BE3" t="n">
-        <v>-696445.936898771</v>
+        <v>-696445.9368987706</v>
       </c>
       <c r="BF3" t="n">
-        <v>717.8632360362554</v>
+        <v>717.8632360362553</v>
       </c>
       <c r="BG3" t="n">
         <v>1006.821582550249</v>
@@ -8541,7 +8541,7 @@
         <v>0.9995210660216021</v>
       </c>
       <c r="BJ3" t="n">
-        <v>344.8092213940489</v>
+        <v>344.8092213940488</v>
       </c>
       <c r="BK3" t="n">
         <v>193456.8974370098</v>
@@ -8553,49 +8553,49 @@
         <v>137934.6617460247</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346988306e-06</v>
+        <v>7.249809346988305e-06</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003395798695745235</v>
+        <v>0.003395798695745236</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.832995174012119e-05</v>
+        <v>1.832995174012118e-05</v>
       </c>
       <c r="BQ3" t="n">
         <v>0.02606863419706635</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999951876</v>
+        <v>137999.9999951877</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819755043</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819755043</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="BU3" t="n">
-        <v>336973.3475828947</v>
+        <v>336973.3475828946</v>
       </c>
       <c r="BV3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="BW3" t="n">
         <v>3782.91734772336</v>
       </c>
       <c r="BX3" t="n">
-        <v>717.8632360362554</v>
+        <v>717.8632360362553</v>
       </c>
       <c r="BY3" t="n">
         <v>1006.821582550249</v>
       </c>
       <c r="BZ3" t="n">
-        <v>344.8092213940489</v>
+        <v>344.8092213940488</v>
       </c>
       <c r="CA3" t="n">
         <v>0.9995210660216021</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.832995174012119e-05</v>
+        <v>1.832995174012118e-05</v>
       </c>
       <c r="CC3" t="n">
         <v>0.02606863419706635</v>
@@ -8609,28 +8609,28 @@
         <v>1</v>
       </c>
       <c r="CF3" t="n">
-        <v>295.6000000000887</v>
+        <v>295.6000000000886</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999951876</v>
+        <v>137999.9999951877</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819755043</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="CI3" t="n">
-        <v>336973.3475828947</v>
+        <v>336973.3475828946</v>
       </c>
       <c r="CJ3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="CK3" t="n">
         <v>3782.91734772336</v>
       </c>
       <c r="CL3" t="n">
-        <v>-696445.936898771</v>
+        <v>-696445.9368987706</v>
       </c>
       <c r="CM3" t="n">
-        <v>717.8632360362554</v>
+        <v>717.8632360362553</v>
       </c>
       <c r="CN3" t="n">
         <v>1006.821582550249</v>
@@ -8642,7 +8642,7 @@
         <v>0.9995210660216021</v>
       </c>
       <c r="CQ3" t="n">
-        <v>344.8092213940489</v>
+        <v>344.8092213940488</v>
       </c>
       <c r="CR3" t="n">
         <v>193456.8974370098</v>
@@ -8654,49 +8654,49 @@
         <v>137934.6617460247</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346988306e-06</v>
+        <v>7.249809346988305e-06</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.003395798695745235</v>
+        <v>0.003395798695745236</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.832995174012119e-05</v>
+        <v>1.832995174012118e-05</v>
       </c>
       <c r="CX3" t="n">
         <v>0.02606863419706635</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999951876</v>
+        <v>137999.9999951877</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819755043</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819755043</v>
+        <v>1.627145819755044</v>
       </c>
       <c r="DB3" t="n">
-        <v>336973.3475828947</v>
+        <v>336973.3475828946</v>
       </c>
       <c r="DC3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="DD3" t="n">
         <v>3782.91734772336</v>
       </c>
       <c r="DE3" t="n">
-        <v>717.8632360362554</v>
+        <v>717.8632360362553</v>
       </c>
       <c r="DF3" t="n">
         <v>1006.821582550249</v>
       </c>
       <c r="DG3" t="n">
-        <v>344.8092213940489</v>
+        <v>344.8092213940488</v>
       </c>
       <c r="DH3" t="n">
         <v>0.9995210660216021</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.832995174012119e-05</v>
+        <v>1.832995174012118e-05</v>
       </c>
       <c r="DJ3" t="n">
         <v>0.02606863419706635</v>
@@ -8710,37 +8710,37 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.01607888984659664</v>
+        <v>0.01607891185977886</v>
       </c>
       <c r="DN3" t="n">
-        <v>-1.826635901069144e-07</v>
+        <v>-1.826722232771529e-07</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.01379745678869797</v>
+        <v>0.01379745716572929</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.02509665026847297</v>
+        <v>0.02509664122324163</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.05497281424017747</v>
+        <v>0.05497282757652651</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0.05497281424017747</v>
+        <v>-0.05497282757652651</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.8646962110410912</v>
+        <v>0.8647700823318047</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.8646962110410912</v>
+        <v>0.8647700823318047</v>
       </c>
       <c r="DV3" t="n">
-        <v>509376.8386467648</v>
+        <v>509395.5513892978</v>
       </c>
       <c r="DW3" t="n">
-        <v>2.801075364039353</v>
+        <v>2.801127834156587</v>
       </c>
       <c r="DX3" t="n">
         <v>421784.4310884894</v>
@@ -8749,154 +8749,154 @@
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>383140.3864511254</v>
+        <v>383134.6463458558</v>
       </c>
       <c r="EA3" t="n">
-        <v>1538.279511189554</v>
+        <v>1538.432413552015</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.02693962188498152</v>
+        <v>0.02694369855472536</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.002766125128993042</v>
+        <v>0.002068696313524789</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.01174717696700834</v>
+        <v>0.01174759736945564</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.03296430785343795</v>
+        <v>0.03296244504496628</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.04275610682072112</v>
+        <v>0.04276189217296958</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.117173338655142</v>
+        <v>0.1164843294556416</v>
       </c>
       <c r="EI3" t="n">
-        <v>-2.035810409140026e-11</v>
+        <v>-2.907325769019309e-11</v>
       </c>
       <c r="EJ3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EK3" t="n">
-        <v>138.6446015449633</v>
+        <v>138.6836389276598</v>
       </c>
       <c r="EL3" t="n">
-        <v>124.5676052496729</v>
+        <v>124.590626113917</v>
       </c>
       <c r="EM3" t="n">
-        <v>-60.87066009107605</v>
+        <v>-60.91245841992964</v>
       </c>
       <c r="EN3" t="n">
-        <v>-26.04270713415093</v>
+        <v>-26.05404672350012</v>
       </c>
       <c r="EO3" t="n">
-        <v>258.2086428958875</v>
+        <v>258.2563614508269</v>
       </c>
       <c r="EP3" t="n">
-        <v>124.5676052496729</v>
+        <v>124.590626113917</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-226.1738600910761</v>
+        <v>-226.2156584199296</v>
       </c>
       <c r="ER3" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="ES3" t="n">
-        <v>234.2758147188413</v>
+        <v>234.2604311832276</v>
       </c>
       <c r="ET3" t="n">
-        <v>59999.97848227202</v>
+        <v>59986.0743813539</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.892892334517471</v>
+        <v>0.8927440756576872</v>
       </c>
       <c r="EV3" t="n">
-        <v>293150.1478800732</v>
+        <v>293139.1612943151</v>
       </c>
       <c r="EW3" t="n">
-        <v>360347.4752204369</v>
+        <v>360332.0735935784</v>
       </c>
       <c r="EX3" t="n">
-        <v>3788.919886559599</v>
+        <v>3788.920619247191</v>
       </c>
       <c r="EY3" t="n">
-        <v>-527304.8181077328</v>
+        <v>-527262.1043902902</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.0006319736805</v>
+        <v>716.0003839611676</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.493576218265</v>
+        <v>1004.493221119252</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.402922750849177</v>
+        <v>1.402922740853908</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992365543642963</v>
+        <v>0.9992365159687169</v>
       </c>
       <c r="FD3" t="n">
-        <v>306.9215135802673</v>
+        <v>306.9114235531631</v>
       </c>
       <c r="FE3" t="n">
-        <v>84111.18606381789</v>
+        <v>84091.69066667311</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.188902507261362e-05</v>
+        <v>1.189178136474685e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>59954.25337061939</v>
+        <v>59940.35752495507</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.667938375978593e-05</v>
+        <v>1.668325050586607e-05</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.004282461007739305</v>
+        <v>0.004282741601659703</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.520497864510758e-05</v>
+        <v>1.520415731760027e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.02129820211867085</v>
+        <v>0.02129696093170367</v>
       </c>
       <c r="FL3" t="n">
-        <v>59999.97848227202</v>
+        <v>59986.0743813539</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.892892334517471</v>
+        <v>0.8927440756576872</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.892892334517471</v>
+        <v>0.8927440756576872</v>
       </c>
       <c r="FO3" t="n">
-        <v>293150.1478800732</v>
+        <v>293139.1612943151</v>
       </c>
       <c r="FP3" t="n">
-        <v>360347.4752204369</v>
+        <v>360332.0735935784</v>
       </c>
       <c r="FQ3" t="n">
-        <v>3788.919886559599</v>
+        <v>3788.920619247191</v>
       </c>
       <c r="FR3" t="n">
-        <v>716.0006319736805</v>
+        <v>716.0003839611676</v>
       </c>
       <c r="FS3" t="n">
-        <v>1004.493576218265</v>
+        <v>1004.493221119252</v>
       </c>
       <c r="FT3" t="n">
-        <v>306.9215135802673</v>
+        <v>306.9114235531631</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.9992365543642963</v>
+        <v>0.9992365159687169</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.520497864510758e-05</v>
+        <v>1.520415731760027e-05</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.02129820211867085</v>
+        <v>0.02129696093170367</v>
       </c>
       <c r="FX3" t="inlineStr">
         <is>
@@ -8907,97 +8907,97 @@
         <v>1</v>
       </c>
       <c r="FZ3" t="n">
-        <v>243.8746425932383</v>
+        <v>243.864667061588</v>
       </c>
       <c r="GA3" t="n">
-        <v>69028.44858553859</v>
+        <v>69018.41619774436</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.9867897489332764</v>
+        <v>0.9866867220462054</v>
       </c>
       <c r="GC3" t="n">
-        <v>300006.0987984114</v>
+        <v>299998.9737738335</v>
       </c>
       <c r="GD3" t="n">
-        <v>369958.6379894179</v>
+        <v>369948.6494465871</v>
       </c>
       <c r="GE3" t="n">
-        <v>3788.919886565857</v>
+        <v>3788.92061925352</v>
       </c>
       <c r="GF3" t="n">
-        <v>-554062.8451612432</v>
+        <v>-554035.2158904583</v>
       </c>
       <c r="GG3" t="n">
-        <v>716.1724365116744</v>
+        <v>716.1722383141064</v>
       </c>
       <c r="GH3" t="n">
-        <v>1004.730309428902</v>
+        <v>1004.730039498752</v>
       </c>
       <c r="GI3" t="n">
-        <v>1.402916753293009</v>
+        <v>1.402916764637401</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9992648418853671</v>
+        <v>0.9992648110900809</v>
       </c>
       <c r="GK3" t="n">
-        <v>313.1543021808392</v>
+        <v>313.1478889712219</v>
       </c>
       <c r="GL3" t="n">
-        <v>96770.14555312379</v>
+        <v>96756.07902485116</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.033376558735288e-05</v>
+        <v>1.033526792402529e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>68977.82446889966</v>
+        <v>68967.79728044578</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.449741286710013e-05</v>
+        <v>1.449952063763427e-05</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.004114250297826166</v>
+        <v>0.004114418211783113</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.571352198250848e-05</v>
+        <v>1.571299746700147e-05</v>
       </c>
       <c r="GR3" t="n">
-        <v>0.02206795606655111</v>
+        <v>0.02206716081141061</v>
       </c>
       <c r="GS3" t="n">
-        <v>69028.44858553859</v>
+        <v>69018.41619774436</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.9867897489332764</v>
+        <v>0.9866867220462054</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.9867897489332764</v>
+        <v>0.9866867220462054</v>
       </c>
       <c r="GV3" t="n">
-        <v>300006.0987984114</v>
+        <v>299998.9737738335</v>
       </c>
       <c r="GW3" t="n">
-        <v>369958.6379894179</v>
+        <v>369948.6494465871</v>
       </c>
       <c r="GX3" t="n">
-        <v>3788.919886565857</v>
+        <v>3788.92061925352</v>
       </c>
       <c r="GY3" t="n">
-        <v>716.1724365116744</v>
+        <v>716.1722383141064</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1004.730309428902</v>
+        <v>1004.730039498752</v>
       </c>
       <c r="HA3" t="n">
-        <v>313.1543021808392</v>
+        <v>313.1478889712219</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.9992648418853671</v>
+        <v>0.9992648110900809</v>
       </c>
       <c r="HC3" t="n">
-        <v>1.571352198250848e-05</v>
+        <v>1.571299746700147e-05</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.02206795606655111</v>
+        <v>0.02206716081141061</v>
       </c>
       <c r="HE3" t="inlineStr">
         <is>
@@ -9008,97 +9008,97 @@
         <v>1</v>
       </c>
       <c r="HG3" t="n">
-        <v>267.560846999871</v>
+        <v>267.5577731097823</v>
       </c>
       <c r="HH3" t="n">
-        <v>95409.78892367452</v>
+        <v>95405.71774675733</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.243057550887729</v>
+        <v>1.243018806547238</v>
       </c>
       <c r="HJ3" t="n">
-        <v>316929.206454644</v>
+        <v>316927.0101514735</v>
       </c>
       <c r="HK3" t="n">
-        <v>393683.3268536051</v>
+        <v>393680.2477084884</v>
       </c>
       <c r="HL3" t="n">
-        <v>3788.919886564119</v>
+        <v>3788.920619251781</v>
       </c>
       <c r="HM3" t="n">
-        <v>-620083.2872101458</v>
+        <v>-620074.9156682554</v>
       </c>
       <c r="HN3" t="n">
-        <v>716.7674741389886</v>
+        <v>716.7673783799881</v>
       </c>
       <c r="HO3" t="n">
-        <v>1005.488635078812</v>
+        <v>1005.488513618327</v>
       </c>
       <c r="HP3" t="n">
-        <v>1.402810076289591</v>
+        <v>1.402810094246889</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9993621730097871</v>
+        <v>0.9993621593738305</v>
       </c>
       <c r="HR3" t="n">
-        <v>328.0291303266077</v>
+        <v>328.0272436178269</v>
       </c>
       <c r="HS3" t="n">
-        <v>133756.858810661</v>
+        <v>133751.151206197</v>
       </c>
       <c r="HT3" t="n">
-        <v>7.476252125624048e-06</v>
+        <v>7.476571162055669e-06</v>
       </c>
       <c r="HU3" t="n">
-        <v>95349.22871700897</v>
+        <v>95345.15880284031</v>
       </c>
       <c r="HV3" t="n">
-        <v>1.048776181470689e-05</v>
+        <v>1.048820949648689e-05</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.003750723525119704</v>
+        <v>0.003750766500680675</v>
       </c>
       <c r="HX3" t="n">
-        <v>1.693635799618753e-05</v>
+        <v>1.693620209537808e-05</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.02392923167052965</v>
+        <v>0.0239289934087418</v>
       </c>
       <c r="HZ3" t="n">
-        <v>95409.78892367452</v>
+        <v>95405.71774675733</v>
       </c>
       <c r="IA3" t="n">
-        <v>1.243057550887729</v>
+        <v>1.243018806547238</v>
       </c>
       <c r="IB3" t="n">
-        <v>1.243057550887729</v>
+        <v>1.243018806547238</v>
       </c>
       <c r="IC3" t="n">
-        <v>316929.206454644</v>
+        <v>316927.0101514735</v>
       </c>
       <c r="ID3" t="n">
-        <v>393683.3268536051</v>
+        <v>393680.2477084884</v>
       </c>
       <c r="IE3" t="n">
-        <v>3788.919886564119</v>
+        <v>3788.920619251781</v>
       </c>
       <c r="IF3" t="n">
-        <v>716.7674741389886</v>
+        <v>716.7673783799881</v>
       </c>
       <c r="IG3" t="n">
-        <v>1005.488635078812</v>
+        <v>1005.488513618327</v>
       </c>
       <c r="IH3" t="n">
-        <v>328.0291303266077</v>
+        <v>328.0272436178269</v>
       </c>
       <c r="II3" t="n">
-        <v>0.9993621730097871</v>
+        <v>0.9993621593738305</v>
       </c>
       <c r="IJ3" t="n">
-        <v>1.693635799618753e-05</v>
+        <v>1.693620209537808e-05</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.02392923167052965</v>
+        <v>0.0239289934087418</v>
       </c>
       <c r="IL3" t="inlineStr">
         <is>
@@ -9109,52 +9109,52 @@
         <v>1</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.02671664060220099</v>
+        <v>0.02672109942972387</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.00277640841580621</v>
+        <v>0.002076347912228418</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.01185591895997161</v>
+        <v>0.01185574184505991</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.0323388479017991</v>
+        <v>0.03234039392697472</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.04334591739559848</v>
+        <v>0.04334846202033454</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.1170337332753764</v>
+        <v>0.1163420451343215</v>
       </c>
       <c r="IT3" t="n">
-        <v>-0.1170337332753764</v>
+        <v>-0.1163420451343215</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.4517265665989376</v>
+        <v>0.4518686118688477</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.8412855778138857</v>
+        <v>0.8414687158299659</v>
       </c>
       <c r="IW3" t="n">
-        <v>395146.797503423</v>
+        <v>395175.5456440528</v>
       </c>
       <c r="IX3" t="n">
-        <v>2.801075364044174</v>
+        <v>2.801127834133822</v>
       </c>
       <c r="IY3" t="n">
-        <v>380020.7528884851</v>
+        <v>380017.6737433684</v>
       </c>
       <c r="IZ3" t="n">
         <v>0</v>
       </c>
       <c r="JA3" t="n">
-        <v>360347.4752199256</v>
+        <v>360332.073593084</v>
       </c>
       <c r="JB3" t="n">
-        <v>2843.394125259656</v>
+        <v>2827.818143404904</v>
       </c>
       <c r="JC3" t="n">
-        <v>7.380018004330886</v>
+        <v>7.383774055344574</v>
       </c>
     </row>
   </sheetData>
@@ -9193,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3827762378586276</v>
+        <v>0.3828072546900868</v>
       </c>
     </row>
     <row r="3">
@@ -9201,7 +9201,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3927727308209276</v>
+        <v>0.3928359293604017</v>
       </c>
     </row>
   </sheetData>
@@ -10307,7 +10307,7 @@
         <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>3.371762551310441e-10</v>
+        <v>2.112496796472343e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10332,13 +10332,13 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>3.006215462083845e-11</v>
+        <v>3.171892191485779e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
